--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
   <si>
     <t xml:space="preserve">PriceType</t>
   </si>
@@ -50,6 +50,12 @@
     <t xml:space="preserve">GSTPer</t>
   </si>
   <si>
+    <t xml:space="preserve">Cess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdlCsAmt</t>
+  </si>
+  <si>
     <t xml:space="preserve">NetSellingPrice</t>
   </si>
   <si>
@@ -59,6 +65,15 @@
     <t xml:space="preserve">netcost</t>
   </si>
   <si>
+    <t xml:space="preserve">WPrice1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPrice2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPrice3</t>
+  </si>
+  <si>
     <t xml:space="preserve">InventoryType</t>
   </si>
   <si>
@@ -290,75 +305,72 @@
     <t xml:space="preserve">cost4</t>
   </si>
   <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.60</t>
+  </si>
+  <si>
     <t xml:space="preserve">500</t>
   </si>
   <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.60</t>
-  </si>
-  <si>
     <t xml:space="preserve">462</t>
   </si>
   <si>
@@ -411,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">MRP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
   </si>
   <si>
     <t xml:space="preserve">33.95</t>
@@ -588,27 +603,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS24"/>
+  <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="36.6479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.8877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="22" min="12" style="0" width="18.3214285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="18.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="22.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="48.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.5408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.7295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.2397959183673"/>
+    <col collapsed="false" hidden="false" max="27" min="14" style="0" width="21.5612244897959"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="21.5612244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,22 +662,22 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="0" t="s">
@@ -747,52 +764,61 @@
       <c r="AS1" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>47.05</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>58</v>
+      <c r="O2" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1.8</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>59</v>
@@ -801,28 +827,28 @@
         <v>60</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>67</v>
@@ -830,171 +856,228 @@
       <c r="AC2" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="AD2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="AF2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AQ2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU2" s="0" t="n">
         <v>12.456</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AV2" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AW2" s="0" t="n">
         <v>122.5</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AX2" s="0" t="n">
         <v>323.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>47.98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>448</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>363.82</v>
+        <v>95</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>236</v>
       </c>
     </row>
@@ -1016,146 +1099,211 @@
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>97.02</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>96.04</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>148.5</v>
       </c>
     </row>
@@ -1177,94 +1325,159 @@
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>72</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>485.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>9.7</v>
       </c>
     </row>
@@ -1286,94 +1499,159 @@
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>9.8</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>20.78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>34.7</v>
       </c>
     </row>
@@ -1395,98 +1673,229 @@
       <c r="I21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="0" t="n">
         <v>9.7</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="0" t="n">
         <v>20.38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>32.92</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1922,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="18.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="21.5612244897959"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15870" windowHeight="3555" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Department" sheetId="2" r:id="rId2"/>
+    <sheet name="Category" sheetId="3" r:id="rId3"/>
+    <sheet name="GAcreate" sheetId="4" r:id="rId4"/>
+    <sheet name="Subcategory" sheetId="5" r:id="rId5"/>
+    <sheet name="Brand" sheetId="6" r:id="rId6"/>
+    <sheet name="GRNcreate" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="C1:L10"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,429 +26,598 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
-  <si>
-    <t xml:space="preserve">PriceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasicCost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiscountPer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiscountPer2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiscountPer3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiscountPer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDiscountPer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTPer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdlCsAmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetSellingPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.p.fixing%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netcost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPrice1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPrice2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WPrice3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InventoryType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOMPurchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SalesUOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StockType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WareHouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModelNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISCUITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNACKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISC Test Parle2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BULK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKSHAYA TRADERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARLEs1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="194">
+  <si>
+    <t>PriceType</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>BasicCost</t>
+  </si>
+  <si>
+    <t>DiscountPer1</t>
+  </si>
+  <si>
+    <t>DiscountPer2</t>
+  </si>
+  <si>
+    <t>DiscountPer3</t>
+  </si>
+  <si>
+    <t>DiscountPer</t>
+  </si>
+  <si>
+    <t>AddDiscountPer</t>
+  </si>
+  <si>
+    <t>GSTPer</t>
+  </si>
+  <si>
+    <t>Cess</t>
+  </si>
+  <si>
+    <t>AdlCsAmt</t>
+  </si>
+  <si>
+    <t>NetSellingPrice</t>
+  </si>
+  <si>
+    <t>s.p.fixing%</t>
+  </si>
+  <si>
+    <t>netcost</t>
+  </si>
+  <si>
+    <t>WPrice1</t>
+  </si>
+  <si>
+    <t>WPrice2</t>
+  </si>
+  <si>
+    <t>WPrice3</t>
+  </si>
+  <si>
+    <t>InventoryType</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>UOMPurchase</t>
+  </si>
+  <si>
+    <t>SalesUOM</t>
+  </si>
+  <si>
+    <t>StockType</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>WareHouse</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Merchandise</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>ModelNo</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>CCode</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>SubClass</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>cost1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>47.29</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>BISCUITS</t>
+  </si>
+  <si>
+    <t>SNACKS</t>
+  </si>
+  <si>
+    <t>PARLE</t>
+  </si>
+  <si>
+    <t>BISC Test Parle2</t>
+  </si>
+  <si>
+    <t>BULK</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>AKSHAYA TRADERS</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>PARLEs1</t>
+  </si>
+  <si>
+    <t>remarks text</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>model sample</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>SUBC</t>
+  </si>
+  <si>
+    <t>QW</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>cost2</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>48.21</t>
+  </si>
+  <si>
+    <t>cost3</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>cost4</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>cost5</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>MRP1</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>97.02</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>91.46</t>
+  </si>
+  <si>
+    <t>128.58</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>211.86</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>116.02</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>MRP2</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>75.60</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>485.10</t>
+  </si>
+  <si>
+    <t>8.66</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>MRP3</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>MRP4</t>
+  </si>
+  <si>
+    <t>9.70</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>MRP5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>33.95</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>size2</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Departmentcode</t>
+  </si>
+  <si>
+    <t>Departmentname</t>
+  </si>
+  <si>
+    <t>Personincharge</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Depatment</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Categorycode</t>
+  </si>
+  <si>
+    <t>Categoryname</t>
+  </si>
+  <si>
+    <t>Category type</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Billno</t>
+  </si>
+  <si>
+    <t>Billdate</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>GrossAmount</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>AddDed</t>
+  </si>
+  <si>
+    <t>TotalPayable</t>
+  </si>
+  <si>
+    <t>GA type</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>A.K.H. TRADERS</t>
+  </si>
+  <si>
+    <t>15/05/2021</t>
+  </si>
+  <si>
+    <t>Subcategoryname</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Subcategory type</t>
+  </si>
+  <si>
+    <t>Subcategorycode</t>
+  </si>
+  <si>
+    <t>Departmenttype</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Brandcode</t>
+  </si>
+  <si>
+    <t>Brandname</t>
+  </si>
+  <si>
+    <t>Brand type</t>
+  </si>
+  <si>
+    <t>Gopi1</t>
+  </si>
+  <si>
+    <t>GA1</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Depatment1</t>
+  </si>
+  <si>
+    <t>GA2</t>
+  </si>
+  <si>
+    <t>GOWD &amp; CO</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>InvQty</t>
+  </si>
+  <si>
+    <t>RecvQty</t>
+  </si>
+  <si>
+    <t>DiscP</t>
+  </si>
+  <si>
+    <t>DiscA</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>spfixing</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>BillAmt</t>
+  </si>
+  <si>
+    <t>Batch2</t>
+  </si>
+  <si>
+    <t>GRN type</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>GRN1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,44 +628,32 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -510,125 +672,370 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="22.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="48.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="43.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.7295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.2397959183673"/>
-    <col collapsed="false" hidden="false" max="27" min="14" style="0" width="21.5612244897959"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="25.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="21.5612244897959"/>
+    <col min="1" max="2" width="22.85546875" style="1"/>
+    <col min="3" max="3" width="35.5703125" style="1"/>
+    <col min="4" max="4" width="48.42578125" style="1"/>
+    <col min="5" max="5" width="43.5703125" style="1"/>
+    <col min="6" max="6" width="31.85546875" style="1"/>
+    <col min="7" max="7" width="27.140625" style="1"/>
+    <col min="8" max="8" width="32.5703125" style="1"/>
+    <col min="9" max="9" width="27.140625" style="1"/>
+    <col min="10" max="10" width="18.7109375" style="1"/>
+    <col min="11" max="11" width="20.7109375" style="1"/>
+    <col min="12" max="12" width="47" style="1"/>
+    <col min="13" max="13" width="36.28515625" style="1"/>
+    <col min="14" max="27" width="21.5703125"/>
+    <col min="28" max="28" width="25.85546875"/>
+    <col min="29" max="1025" width="21.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,107 +1087,107 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -808,110 +1215,110 @@
       <c r="M2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>47.05</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="O2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P2">
         <v>1.5</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>1.8</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="5">
         <v>1</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC2" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AE2" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AF2" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AG2" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="AH2" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="0" t="s">
+      <c r="AK2" t="s">
         <v>74</v>
       </c>
-      <c r="AL2" s="0" t="s">
+      <c r="AL2" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AM2" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AN2" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>1</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AQ2" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="0" t="s">
+      <c r="AR2" t="s">
         <v>78</v>
       </c>
-      <c r="AS2" s="0" t="s">
+      <c r="AS2" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AT2" t="s">
         <v>80</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>12.456</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>2.5</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>122.5</v>
       </c>
-      <c r="AX2" s="0" t="n">
-        <v>323.4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AX2">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -939,11 +1346,11 @@
       <c r="M3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>47.98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:50">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -965,17 +1372,125 @@
       <c r="I4" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>448</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>137</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU4">
+        <v>12.456</v>
+      </c>
+      <c r="AV4">
+        <v>2.5</v>
+      </c>
+      <c r="AW4">
+        <v>122.5</v>
+      </c>
+      <c r="AX4">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -997,59 +1512,59 @@
       <c r="I5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="X5" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Y5" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="5">
         <v>1</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="AB5" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="0" t="s">
+      <c r="AC5" t="s">
         <v>68</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AD5" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="0" t="s">
+      <c r="AE5" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="0" t="s">
+      <c r="AF5" t="s">
         <v>71</v>
       </c>
-      <c r="AG5" s="0" t="s">
+      <c r="AG5" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="0" t="s">
+      <c r="AH5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:50">
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
@@ -1077,11 +1592,11 @@
       <c r="M6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>236</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1629,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:50">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -1139,71 +1654,71 @@
       <c r="M8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>97.02</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>1.2</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>1.4</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>1.5</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" t="s">
         <v>59</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="0" t="s">
+      <c r="T8" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" t="s">
         <v>62</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" t="s">
         <v>63</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>64</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="X8" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Y8" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="Z8" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA8" s="5">
         <v>1</v>
       </c>
-      <c r="AB8" s="0" t="s">
+      <c r="AB8" t="s">
         <v>67</v>
       </c>
-      <c r="AC8" s="0" t="s">
+      <c r="AC8" t="s">
         <v>68</v>
       </c>
-      <c r="AD8" s="0" t="s">
+      <c r="AD8" t="s">
         <v>69</v>
       </c>
-      <c r="AE8" s="0" t="s">
+      <c r="AE8" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="0" t="s">
+      <c r="AF8" t="s">
         <v>71</v>
       </c>
-      <c r="AG8" s="0" t="s">
+      <c r="AG8" t="s">
         <v>72</v>
       </c>
-      <c r="AH8" s="0" t="s">
+      <c r="AH8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
@@ -1225,11 +1740,11 @@
       <c r="M9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>96.04</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
@@ -1251,11 +1766,11 @@
       <c r="M10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>144</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -1277,11 +1792,11 @@
       <c r="M11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>250</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:50">
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
@@ -1303,11 +1818,11 @@
       <c r="M12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>148.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1855,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:50">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -1365,71 +1880,71 @@
       <c r="M14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>72</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>1.3</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>1.3</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>1.4</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="T14" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="U14" t="s">
         <v>62</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="V14" t="s">
         <v>63</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="W14" t="s">
         <v>64</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="X14" t="s">
         <v>65</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="Y14" t="s">
         <v>65</v>
       </c>
-      <c r="Z14" s="0" t="s">
+      <c r="Z14" t="s">
         <v>66</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="5">
         <v>1</v>
       </c>
-      <c r="AB14" s="0" t="s">
+      <c r="AB14" t="s">
         <v>67</v>
       </c>
-      <c r="AC14" s="0" t="s">
+      <c r="AC14" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="0" t="s">
+      <c r="AD14" t="s">
         <v>69</v>
       </c>
-      <c r="AE14" s="0" t="s">
+      <c r="AE14" t="s">
         <v>70</v>
       </c>
-      <c r="AF14" s="0" t="s">
+      <c r="AF14" t="s">
         <v>71</v>
       </c>
-      <c r="AG14" s="0" t="s">
+      <c r="AG14" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="0" t="s">
+      <c r="AH14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:50">
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
@@ -1451,11 +1966,11 @@
       <c r="M15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>485.1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:50">
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
@@ -1477,11 +1992,11 @@
       <c r="M16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +2029,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
         <v>120</v>
       </c>
@@ -1539,71 +2054,71 @@
       <c r="M18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="O18" s="0" t="n">
+      <c r="N18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18">
         <v>1.2</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>1.3</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="R18" t="s">
         <v>59</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" t="s">
         <v>61</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="V18" t="s">
         <v>63</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="W18" t="s">
         <v>64</v>
       </c>
-      <c r="X18" s="0" t="s">
+      <c r="X18" t="s">
         <v>65</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="Y18" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="0" t="s">
+      <c r="Z18" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="5" t="n">
+      <c r="AA18" s="5">
         <v>1</v>
       </c>
-      <c r="AB18" s="0" t="s">
+      <c r="AB18" t="s">
         <v>67</v>
       </c>
-      <c r="AC18" s="0" t="s">
+      <c r="AC18" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="0" t="s">
+      <c r="AD18" t="s">
         <v>69</v>
       </c>
-      <c r="AE18" s="0" t="s">
+      <c r="AE18" t="s">
         <v>70</v>
       </c>
-      <c r="AF18" s="0" t="s">
+      <c r="AF18" t="s">
         <v>71</v>
       </c>
-      <c r="AG18" s="0" t="s">
+      <c r="AG18" t="s">
         <v>72</v>
       </c>
-      <c r="AH18" s="0" t="s">
+      <c r="AH18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:34">
       <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1625,11 +2140,11 @@
       <c r="M19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>20.78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:34">
       <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
@@ -1651,11 +2166,11 @@
       <c r="M20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="0" t="n">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +2203,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -1713,71 +2228,71 @@
       <c r="M22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="0" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="O22" s="0" t="n">
+      <c r="N22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O22">
         <v>1.4</v>
       </c>
-      <c r="P22" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q22" s="0" t="n">
+      <c r="P22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q22">
         <v>1.6</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" t="s">
         <v>59</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" t="s">
         <v>61</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" t="s">
         <v>62</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="V22" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="0" t="s">
+      <c r="W22" t="s">
         <v>64</v>
       </c>
-      <c r="X22" s="0" t="s">
+      <c r="X22" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="0" t="s">
+      <c r="Y22" t="s">
         <v>65</v>
       </c>
-      <c r="Z22" s="0" t="s">
+      <c r="Z22" t="s">
         <v>66</v>
       </c>
-      <c r="AA22" s="5" t="n">
+      <c r="AA22" s="5">
         <v>1</v>
       </c>
-      <c r="AB22" s="0" t="s">
+      <c r="AB22" t="s">
         <v>67</v>
       </c>
-      <c r="AC22" s="0" t="s">
+      <c r="AC22" t="s">
         <v>68</v>
       </c>
-      <c r="AD22" s="0" t="s">
+      <c r="AD22" t="s">
         <v>69</v>
       </c>
-      <c r="AE22" s="0" t="s">
+      <c r="AE22" t="s">
         <v>70</v>
       </c>
-      <c r="AF22" s="0" t="s">
+      <c r="AF22" t="s">
         <v>71</v>
       </c>
-      <c r="AG22" s="0" t="s">
+      <c r="AG22" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="0" t="s">
+      <c r="AH22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:34">
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
@@ -1799,11 +2314,11 @@
       <c r="M23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>20.38</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
@@ -1834,103 +2349,576 @@
       <c r="M24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24">
         <v>32.92</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24">
         <v>1.4</v>
       </c>
-      <c r="P24" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q24" s="0" t="n">
+      <c r="P24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q24">
         <v>1.6</v>
       </c>
-      <c r="R24" s="0" t="s">
+      <c r="R24" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" t="s">
         <v>60</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" t="s">
         <v>61</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="U24" t="s">
         <v>62</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="V24" t="s">
         <v>63</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="W24" t="s">
         <v>64</v>
       </c>
-      <c r="X24" s="0" t="s">
+      <c r="X24" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="0" t="s">
+      <c r="Y24" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="0" t="s">
+      <c r="Z24" t="s">
         <v>66</v>
       </c>
-      <c r="AA24" s="5" t="n">
+      <c r="AA24" s="5">
         <v>1</v>
       </c>
-      <c r="AB24" s="0" t="s">
+      <c r="AB24" t="s">
         <v>67</v>
       </c>
-      <c r="AC24" s="0" t="s">
+      <c r="AC24" t="s">
         <v>68</v>
       </c>
-      <c r="AD24" s="0" t="s">
+      <c r="AD24" t="s">
         <v>69</v>
       </c>
-      <c r="AE24" s="0" t="s">
+      <c r="AE24" t="s">
         <v>70</v>
       </c>
-      <c r="AF24" s="0" t="s">
+      <c r="AF24" t="s">
         <v>71</v>
       </c>
-      <c r="AG24" s="0" t="s">
+      <c r="AG24" t="s">
         <v>72</v>
       </c>
-      <c r="AH24" s="0" t="s">
+      <c r="AH24" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="21.5612244897959"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="1026" width="21.5703125"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>122122134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>12112</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15870" windowHeight="3555" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="3090" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
     <sheet name="Subcategory" sheetId="5" r:id="rId5"/>
     <sheet name="Brand" sheetId="6" r:id="rId6"/>
     <sheet name="GRNcreate" sheetId="7" r:id="rId7"/>
+    <sheet name="Floor" sheetId="8" r:id="rId8"/>
+    <sheet name="Purchaseorder" sheetId="9" r:id="rId9"/>
+    <sheet name="Class" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="C1:L10"/>
+  <oleSize ref="A1:M8"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="201">
   <si>
     <t>PriceType</t>
   </si>
@@ -608,6 +611,27 @@
   </si>
   <si>
     <t>GRN1</t>
+  </si>
+  <si>
+    <t>Floor type</t>
+  </si>
+  <si>
+    <t>Floorcode</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purchaseorder type</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Class type</t>
+  </si>
+  <si>
+    <t>Classcode</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2419,6 +2443,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
@@ -2546,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2921,4 +2987,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="2715" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="2715" tabRatio="500" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="Class" sheetId="10" r:id="rId10"/>
     <sheet name="Subclass" sheetId="11" r:id="rId11"/>
     <sheet name="Itemtype" sheetId="12" r:id="rId12"/>
+    <sheet name="Purchasereturn" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="C1:O8"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="615">
   <si>
     <t>PriceType</t>
   </si>
@@ -816,12 +817,6 @@
     <t>000002</t>
   </si>
   <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000001              </t>
-  </si>
-  <si>
     <t xml:space="preserve">000002              </t>
   </si>
   <si>
@@ -1867,6 +1862,24 @@
   </si>
   <si>
     <t>GRN199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000202              </t>
+  </si>
+  <si>
+    <t>Purchasereturn type</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Foc</t>
+  </si>
+  <si>
+    <t>KEYA CHIFFERI RIGATI 500GM</t>
+  </si>
+  <si>
+    <t>PR1</t>
   </si>
 </sst>
 </file>
@@ -3805,6 +3818,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
@@ -4154,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4248,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>261</v>
+        <v>609</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4302,7 +4417,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4356,7 +4471,7 @@
         <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -4410,7 +4525,7 @@
         <v>211</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -4463,7 +4578,7 @@
         <v>212</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6">
         <v>78</v>
@@ -4516,7 +4631,7 @@
         <v>213</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -4569,7 +4684,7 @@
         <v>214</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4622,7 +4737,7 @@
         <v>215</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -4675,7 +4790,7 @@
         <v>216</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4728,7 +4843,7 @@
         <v>217</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E11">
         <v>96</v>
@@ -4781,7 +4896,7 @@
         <v>218</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4834,7 +4949,7 @@
         <v>219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -4887,7 +5002,7 @@
         <v>220</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -4940,7 +5055,7 @@
         <v>221</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E15">
         <v>24</v>
@@ -4993,7 +5108,7 @@
         <v>222</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16">
         <v>36</v>
@@ -5046,7 +5161,7 @@
         <v>223</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5099,7 +5214,7 @@
         <v>224</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5152,7 +5267,7 @@
         <v>225</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -5205,7 +5320,7 @@
         <v>226</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E20">
         <v>24</v>
@@ -5258,7 +5373,7 @@
         <v>227</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21">
         <v>12</v>
@@ -5311,7 +5426,7 @@
         <v>228</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -5364,7 +5479,7 @@
         <v>229</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -5417,7 +5532,7 @@
         <v>230</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -5470,7 +5585,7 @@
         <v>231</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -5523,7 +5638,7 @@
         <v>232</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -5576,7 +5691,7 @@
         <v>233</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -5629,7 +5744,7 @@
         <v>234</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -5682,7 +5797,7 @@
         <v>235</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -5735,7 +5850,7 @@
         <v>236</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -5788,7 +5903,7 @@
         <v>237</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E31">
         <v>24</v>
@@ -5841,7 +5956,7 @@
         <v>238</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -5894,7 +6009,7 @@
         <v>239</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -5947,7 +6062,7 @@
         <v>240</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E34">
         <v>72</v>
@@ -6000,7 +6115,7 @@
         <v>241</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -6053,7 +6168,7 @@
         <v>242</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E36">
         <v>12</v>
@@ -6106,7 +6221,7 @@
         <v>243</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E37">
         <v>12</v>
@@ -6159,7 +6274,7 @@
         <v>244</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -6212,7 +6327,7 @@
         <v>245</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -6265,7 +6380,7 @@
         <v>246</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -6318,7 +6433,7 @@
         <v>247</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E41">
         <v>12</v>
@@ -6371,7 +6486,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E42">
         <v>36</v>
@@ -6424,7 +6539,7 @@
         <v>249</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -6477,7 +6592,7 @@
         <v>250</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -6530,7 +6645,7 @@
         <v>251</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E45">
         <v>15</v>
@@ -6583,7 +6698,7 @@
         <v>252</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -6636,7 +6751,7 @@
         <v>253</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -6689,7 +6804,7 @@
         <v>254</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E48">
         <v>12</v>
@@ -6742,7 +6857,7 @@
         <v>255</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -6795,7 +6910,7 @@
         <v>256</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -6848,7 +6963,7 @@
         <v>257</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -6898,10 +7013,10 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -6951,10 +7066,10 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -7004,10 +7119,10 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -7057,10 +7172,10 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -7110,10 +7225,10 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E56">
         <v>78</v>
@@ -7163,10 +7278,10 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -7216,10 +7331,10 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -7269,10 +7384,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E59">
         <v>60</v>
@@ -7322,10 +7437,10 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E60">
         <v>15</v>
@@ -7375,10 +7490,10 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E61">
         <v>96</v>
@@ -7428,10 +7543,10 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7481,10 +7596,10 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -7534,10 +7649,10 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -7587,10 +7702,10 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E65">
         <v>24</v>
@@ -7640,10 +7755,10 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E66">
         <v>36</v>
@@ -7693,10 +7808,10 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -7746,10 +7861,10 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -7799,10 +7914,10 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -7852,10 +7967,10 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E70">
         <v>24</v>
@@ -7905,10 +8020,10 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E71">
         <v>12</v>
@@ -7958,10 +8073,10 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -8011,10 +8126,10 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -8064,10 +8179,10 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -8117,10 +8232,10 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -8170,10 +8285,10 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -8223,10 +8338,10 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -8276,10 +8391,10 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E78">
         <v>6</v>
@@ -8329,10 +8444,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -8382,10 +8497,10 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -8435,10 +8550,10 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E81">
         <v>24</v>
@@ -8488,10 +8603,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E82">
         <v>6</v>
@@ -8541,10 +8656,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -8594,10 +8709,10 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E84">
         <v>72</v>
@@ -8647,10 +8762,10 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -8700,10 +8815,10 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E86">
         <v>12</v>
@@ -8753,10 +8868,10 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E87">
         <v>12</v>
@@ -8806,10 +8921,10 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -8859,10 +8974,10 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -8912,10 +9027,10 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -8965,10 +9080,10 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E91">
         <v>12</v>
@@ -9018,10 +9133,10 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E92">
         <v>36</v>
@@ -9071,10 +9186,10 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E93">
         <v>6</v>
@@ -9124,10 +9239,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -9177,10 +9292,10 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E95">
         <v>15</v>
@@ -9230,10 +9345,10 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E96">
         <v>12</v>
@@ -9283,10 +9398,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -9336,10 +9451,10 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E98">
         <v>12</v>
@@ -9389,10 +9504,10 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -9442,10 +9557,10 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -9495,10 +9610,10 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E101">
         <v>12</v>
@@ -9548,10 +9663,10 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -9601,10 +9716,10 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -9654,10 +9769,10 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -9707,10 +9822,10 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -9760,10 +9875,10 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E106">
         <v>78</v>
@@ -9813,10 +9928,10 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -9866,10 +9981,10 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -9919,10 +10034,10 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E109">
         <v>60</v>
@@ -9972,10 +10087,10 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E110">
         <v>15</v>
@@ -10025,10 +10140,10 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E111">
         <v>96</v>
@@ -10078,10 +10193,10 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -10131,10 +10246,10 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E113">
         <v>6</v>
@@ -10184,10 +10299,10 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -10237,10 +10352,10 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E115">
         <v>24</v>
@@ -10290,10 +10405,10 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E116">
         <v>36</v>
@@ -10343,10 +10458,10 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -10396,10 +10511,10 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -10449,10 +10564,10 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -10502,10 +10617,10 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E120">
         <v>24</v>
@@ -10532,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -10544,21 +10659,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="R120">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="S120">
-        <v>675</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E121">
         <v>12</v>
@@ -10608,10 +10723,10 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -10661,10 +10776,10 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -10714,10 +10829,10 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -10767,10 +10882,10 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E125">
         <v>6</v>
@@ -10820,10 +10935,10 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E126">
         <v>6</v>
@@ -10873,10 +10988,10 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -10926,10 +11041,10 @@
     </row>
     <row r="128" spans="1:19">
       <c r="A128" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E128">
         <v>6</v>
@@ -10979,10 +11094,10 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -11009,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -11021,21 +11136,21 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R129">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S129">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:19">
       <c r="A130" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E130">
         <v>20</v>
@@ -11085,10 +11200,10 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E131">
         <v>24</v>
@@ -11138,10 +11253,10 @@
     </row>
     <row r="132" spans="1:19">
       <c r="A132" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -11191,10 +11306,10 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -11244,10 +11359,10 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E134">
         <v>72</v>
@@ -11297,10 +11412,10 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -11350,10 +11465,10 @@
     </row>
     <row r="136" spans="1:19">
       <c r="A136" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E136">
         <v>12</v>
@@ -11403,10 +11518,10 @@
     </row>
     <row r="137" spans="1:19">
       <c r="A137" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E137">
         <v>12</v>
@@ -11415,7 +11530,7 @@
         <v>12</v>
       </c>
       <c r="G137">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H137">
         <v>18</v>
@@ -11456,10 +11571,10 @@
     </row>
     <row r="138" spans="1:19">
       <c r="A138" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E138">
         <v>7</v>
@@ -11509,10 +11624,10 @@
     </row>
     <row r="139" spans="1:19">
       <c r="A139" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -11562,10 +11677,10 @@
     </row>
     <row r="140" spans="1:19">
       <c r="A140" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E140">
         <v>20</v>
@@ -11615,10 +11730,10 @@
     </row>
     <row r="141" spans="1:19">
       <c r="A141" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E141">
         <v>12</v>
@@ -11668,10 +11783,10 @@
     </row>
     <row r="142" spans="1:19">
       <c r="A142" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E142">
         <v>36</v>
@@ -11721,10 +11836,10 @@
     </row>
     <row r="143" spans="1:19">
       <c r="A143" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -11774,10 +11889,10 @@
     </row>
     <row r="144" spans="1:19">
       <c r="A144" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E144">
         <v>30</v>
@@ -11827,10 +11942,10 @@
     </row>
     <row r="145" spans="1:19">
       <c r="A145" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E145">
         <v>15</v>
@@ -11880,10 +11995,10 @@
     </row>
     <row r="146" spans="1:19">
       <c r="A146" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E146">
         <v>12</v>
@@ -11933,10 +12048,10 @@
     </row>
     <row r="147" spans="1:19">
       <c r="A147" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -11986,10 +12101,10 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E148">
         <v>12</v>
@@ -12039,10 +12154,10 @@
     </row>
     <row r="149" spans="1:19">
       <c r="A149" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E149">
         <v>6</v>
@@ -12092,10 +12207,10 @@
     </row>
     <row r="150" spans="1:19">
       <c r="A150" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E150">
         <v>6</v>
@@ -12145,10 +12260,10 @@
     </row>
     <row r="151" spans="1:19">
       <c r="A151" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E151">
         <v>12</v>
@@ -12198,10 +12313,10 @@
     </row>
     <row r="152" spans="1:19">
       <c r="A152" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -12251,10 +12366,10 @@
     </row>
     <row r="153" spans="1:19">
       <c r="A153" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -12304,10 +12419,13 @@
     </row>
     <row r="154" spans="1:19">
       <c r="A154" t="s">
-        <v>563</v>
+        <v>561</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E154">
         <v>10</v>
@@ -12334,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -12346,21 +12464,21 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R154">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S154">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:19">
       <c r="A155" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -12410,10 +12528,10 @@
     </row>
     <row r="156" spans="1:19">
       <c r="A156" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E156">
         <v>78</v>
@@ -12463,10 +12581,10 @@
     </row>
     <row r="157" spans="1:19">
       <c r="A157" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -12516,10 +12634,10 @@
     </row>
     <row r="158" spans="1:19">
       <c r="A158" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -12569,10 +12687,10 @@
     </row>
     <row r="159" spans="1:19">
       <c r="A159" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E159">
         <v>60</v>
@@ -12622,10 +12740,10 @@
     </row>
     <row r="160" spans="1:19">
       <c r="A160" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E160">
         <v>15</v>
@@ -12675,10 +12793,10 @@
     </row>
     <row r="161" spans="1:19">
       <c r="A161" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E161">
         <v>96</v>
@@ -12728,10 +12846,10 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12781,10 +12899,10 @@
     </row>
     <row r="163" spans="1:19">
       <c r="A163" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E163">
         <v>6</v>
@@ -12834,10 +12952,10 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -12887,10 +13005,10 @@
     </row>
     <row r="165" spans="1:19">
       <c r="A165" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E165">
         <v>24</v>
@@ -12940,10 +13058,10 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E166">
         <v>36</v>
@@ -12993,10 +13111,10 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -13046,10 +13164,10 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -13099,10 +13217,10 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -13152,10 +13270,10 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E170">
         <v>24</v>
@@ -13205,10 +13323,10 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E171">
         <v>12</v>
@@ -13258,10 +13376,10 @@
     </row>
     <row r="172" spans="1:19">
       <c r="A172" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -13311,10 +13429,10 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -13364,10 +13482,10 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -13417,10 +13535,10 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -13470,10 +13588,10 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E176">
         <v>6</v>
@@ -13523,10 +13641,10 @@
     </row>
     <row r="177" spans="1:19">
       <c r="A177" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E177">
         <v>3</v>
@@ -13576,10 +13694,10 @@
     </row>
     <row r="178" spans="1:19">
       <c r="A178" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E178">
         <v>6</v>
@@ -13629,10 +13747,10 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E179">
         <v>3</v>
@@ -13682,10 +13800,10 @@
     </row>
     <row r="180" spans="1:19">
       <c r="A180" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E180">
         <v>20</v>
@@ -13735,10 +13853,10 @@
     </row>
     <row r="181" spans="1:19">
       <c r="A181" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E181">
         <v>24</v>
@@ -13788,10 +13906,10 @@
     </row>
     <row r="182" spans="1:19">
       <c r="A182" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E182">
         <v>6</v>
@@ -13841,10 +13959,10 @@
     </row>
     <row r="183" spans="1:19">
       <c r="A183" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E183">
         <v>3</v>
@@ -13894,10 +14012,10 @@
     </row>
     <row r="184" spans="1:19">
       <c r="A184" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E184">
         <v>72</v>
@@ -13947,10 +14065,10 @@
     </row>
     <row r="185" spans="1:19">
       <c r="A185" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E185">
         <v>3</v>
@@ -14000,10 +14118,10 @@
     </row>
     <row r="186" spans="1:19">
       <c r="A186" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E186">
         <v>12</v>
@@ -14053,10 +14171,10 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E187">
         <v>12</v>
@@ -14106,10 +14224,10 @@
     </row>
     <row r="188" spans="1:19">
       <c r="A188" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E188">
         <v>7</v>
@@ -14159,10 +14277,10 @@
     </row>
     <row r="189" spans="1:19">
       <c r="A189" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E189">
         <v>20</v>
@@ -14212,10 +14330,10 @@
     </row>
     <row r="190" spans="1:19">
       <c r="A190" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E190">
         <v>20</v>
@@ -14265,10 +14383,10 @@
     </row>
     <row r="191" spans="1:19">
       <c r="A191" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E191">
         <v>12</v>
@@ -14318,10 +14436,10 @@
     </row>
     <row r="192" spans="1:19">
       <c r="A192" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E192">
         <v>36</v>
@@ -14371,10 +14489,10 @@
     </row>
     <row r="193" spans="1:19">
       <c r="A193" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E193">
         <v>6</v>
@@ -14424,10 +14542,10 @@
     </row>
     <row r="194" spans="1:19">
       <c r="A194" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E194">
         <v>30</v>
@@ -14477,10 +14595,10 @@
     </row>
     <row r="195" spans="1:19">
       <c r="A195" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E195">
         <v>15</v>
@@ -14530,10 +14648,10 @@
     </row>
     <row r="196" spans="1:19">
       <c r="A196" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E196">
         <v>12</v>
@@ -14583,10 +14701,10 @@
     </row>
     <row r="197" spans="1:19">
       <c r="A197" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E197">
         <v>6</v>
@@ -14636,10 +14754,10 @@
     </row>
     <row r="198" spans="1:19">
       <c r="A198" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E198">
         <v>12</v>
@@ -14689,10 +14807,10 @@
     </row>
     <row r="199" spans="1:19">
       <c r="A199" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -14742,10 +14860,10 @@
     </row>
     <row r="200" spans="1:19">
       <c r="A200" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -14795,10 +14913,10 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E201">
         <v>12</v>
@@ -14900,7 +15018,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14983,9 +15101,6 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="2715" tabRatio="500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="2715" tabRatio="500" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Subclass" sheetId="11" r:id="rId11"/>
     <sheet name="Itemtype" sheetId="12" r:id="rId12"/>
     <sheet name="Purchasereturn" sheetId="13" r:id="rId13"/>
+    <sheet name="Tax" sheetId="14" r:id="rId14"/>
+    <sheet name="Uom" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I7"/>
+  <oleSize ref="A1:M7"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="628">
   <si>
     <t>PriceType</t>
   </si>
@@ -1880,6 +1882,45 @@
   </si>
   <si>
     <t>PR1</t>
+  </si>
+  <si>
+    <t>Tax type</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Taxcode</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>Uom type</t>
+  </si>
+  <si>
+    <t>Uomcode</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uom</t>
   </si>
 </sst>
 </file>
@@ -3822,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3897,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>259</v>
+        <v>623</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3912,6 +3953,128 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E372E267-5094-7848-ABFB-4AF6FF744A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13575" windowHeight="2715" tabRatio="500" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13580" windowHeight="4260" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,12 @@
     <sheet name="Purchasereturn" sheetId="13" r:id="rId13"/>
     <sheet name="Tax" sheetId="14" r:id="rId14"/>
     <sheet name="Uom" sheetId="15" r:id="rId15"/>
+    <sheet name="Section" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M7"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="629">
   <si>
     <t>PriceType</t>
   </si>
@@ -1921,16 +1927,19 @@
   </si>
   <si>
     <t>Uom</t>
+  </si>
+  <si>
+    <t>Section type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2036,6 +2045,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2082,7 +2099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2114,9 +2131,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,6 +2183,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,33 +2376,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.85546875" style="1"/>
-    <col min="3" max="3" width="35.5703125" style="1"/>
-    <col min="4" max="4" width="48.42578125" style="1"/>
-    <col min="5" max="5" width="43.5703125" style="1"/>
-    <col min="6" max="6" width="31.85546875" style="1"/>
-    <col min="7" max="7" width="27.140625" style="1"/>
-    <col min="8" max="8" width="32.5703125" style="1"/>
-    <col min="9" max="9" width="27.140625" style="1"/>
-    <col min="10" max="10" width="18.7109375" style="1"/>
-    <col min="11" max="11" width="20.7109375" style="1"/>
+    <col min="1" max="2" width="22.83203125" style="1"/>
+    <col min="3" max="3" width="35.5" style="1"/>
+    <col min="4" max="4" width="48.5" style="1"/>
+    <col min="5" max="5" width="43.5" style="1"/>
+    <col min="6" max="6" width="31.83203125" style="1"/>
+    <col min="7" max="7" width="27.1640625" style="1"/>
+    <col min="8" max="8" width="32.5" style="1"/>
+    <col min="9" max="9" width="27.1640625" style="1"/>
+    <col min="10" max="10" width="18.6640625" style="1"/>
+    <col min="11" max="11" width="20.6640625" style="1"/>
     <col min="12" max="12" width="47" style="1"/>
-    <col min="13" max="13" width="36.28515625" style="1"/>
-    <col min="14" max="27" width="21.5703125"/>
-    <col min="28" max="28" width="25.85546875"/>
-    <col min="29" max="1025" width="21.5703125"/>
+    <col min="13" max="13" width="36.33203125" style="1"/>
+    <col min="14" max="27" width="21.5"/>
+    <col min="28" max="28" width="25.83203125"/>
+    <col min="29" max="1025" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2685,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -2664,7 +2717,7 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -2804,7 +2857,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -2878,7 +2931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
@@ -2910,7 +2963,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2996,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -3032,7 +3085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
@@ -3058,7 +3111,7 @@
         <v>96.04</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
@@ -3084,7 +3137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -3110,7 +3163,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
@@ -3136,7 +3189,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3222,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -3258,7 +3311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
@@ -3284,7 +3337,7 @@
         <v>485.1</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
@@ -3310,7 +3363,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3396,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>120</v>
       </c>
@@ -3432,7 +3485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
@@ -3458,7 +3511,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
@@ -3484,7 +3537,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3570,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -3606,7 +3659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
@@ -3632,7 +3685,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
@@ -3734,21 +3787,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -3759,7 +3812,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3776,21 +3829,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -3801,7 +3854,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3818,21 +3871,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -3843,7 +3896,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -3860,22 +3913,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>610</v>
       </c>
@@ -3913,7 +3966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -3927,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -3962,19 +4015,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -4006,7 +4059,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>616</v>
       </c>
@@ -4038,38 +4091,81 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B1" t="s">
-        <v>625</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4084,20 +4180,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="1026" width="21.5703125"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="1026" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -4120,7 +4216,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4140,7 +4236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -4155,19 +4251,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -4184,7 +4280,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4207,26 +4303,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4264,7 +4360,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -4293,7 +4389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -4307,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -4321,21 +4417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -4349,7 +4445,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -4369,21 +4465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4403,7 +4499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4429,22 +4525,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="8"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -4518,7 +4614,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -4575,7 +4671,7 @@
       </c>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -4629,7 +4725,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -4683,7 +4779,7 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -4736,7 +4832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -4789,7 +4885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -4842,7 +4938,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -4895,7 +4991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -4948,7 +5044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -5001,7 +5097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -5054,7 +5150,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -5107,7 +5203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -5160,7 +5256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -5213,7 +5309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -5266,7 +5362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -5319,7 +5415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -5372,7 +5468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -5425,7 +5521,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -5478,7 +5574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5531,7 +5627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -5584,7 +5680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -5637,7 +5733,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -5690,7 +5786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -5743,7 +5839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -5796,7 +5892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -5849,7 +5945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -5902,7 +5998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -5955,7 +6051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -6008,7 +6104,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -6061,7 +6157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -6114,7 +6210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -6167,7 +6263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -6220,7 +6316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -6273,7 +6369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -6326,7 +6422,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -6379,7 +6475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -6432,7 +6528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -6485,7 +6581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -6538,7 +6634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -6591,7 +6687,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -6644,7 +6740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -6697,7 +6793,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -6750,7 +6846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -6803,7 +6899,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -6856,7 +6952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -6909,7 +7005,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -6962,7 +7058,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -7015,7 +7111,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -7068,7 +7164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -7121,7 +7217,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -7174,7 +7270,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>459</v>
       </c>
@@ -7227,7 +7323,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>460</v>
       </c>
@@ -7280,7 +7376,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>461</v>
       </c>
@@ -7333,7 +7429,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>462</v>
       </c>
@@ -7386,7 +7482,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>463</v>
       </c>
@@ -7439,7 +7535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>464</v>
       </c>
@@ -7492,7 +7588,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>465</v>
       </c>
@@ -7545,7 +7641,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>466</v>
       </c>
@@ -7598,7 +7694,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -7651,7 +7747,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>468</v>
       </c>
@@ -7704,7 +7800,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>469</v>
       </c>
@@ -7757,7 +7853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>470</v>
       </c>
@@ -7810,7 +7906,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>471</v>
       </c>
@@ -7863,7 +7959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>472</v>
       </c>
@@ -7916,7 +8012,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>473</v>
       </c>
@@ -7969,7 +8065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>474</v>
       </c>
@@ -8022,7 +8118,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>475</v>
       </c>
@@ -8075,7 +8171,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>476</v>
       </c>
@@ -8128,7 +8224,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>477</v>
       </c>
@@ -8181,7 +8277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>478</v>
       </c>
@@ -8234,7 +8330,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>479</v>
       </c>
@@ -8287,7 +8383,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>480</v>
       </c>
@@ -8340,7 +8436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>481</v>
       </c>
@@ -8393,7 +8489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>482</v>
       </c>
@@ -8446,7 +8542,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>483</v>
       </c>
@@ -8499,7 +8595,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>484</v>
       </c>
@@ -8552,7 +8648,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>485</v>
       </c>
@@ -8605,7 +8701,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>486</v>
       </c>
@@ -8658,7 +8754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>487</v>
       </c>
@@ -8711,7 +8807,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>488</v>
       </c>
@@ -8764,7 +8860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>489</v>
       </c>
@@ -8817,7 +8913,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>490</v>
       </c>
@@ -8870,7 +8966,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>491</v>
       </c>
@@ -8923,7 +9019,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>492</v>
       </c>
@@ -8976,7 +9072,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>493</v>
       </c>
@@ -9029,7 +9125,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>494</v>
       </c>
@@ -9082,7 +9178,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>495</v>
       </c>
@@ -9135,7 +9231,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>496</v>
       </c>
@@ -9188,7 +9284,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>497</v>
       </c>
@@ -9241,7 +9337,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>498</v>
       </c>
@@ -9294,7 +9390,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>499</v>
       </c>
@@ -9347,7 +9443,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>500</v>
       </c>
@@ -9400,7 +9496,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>501</v>
       </c>
@@ -9453,7 +9549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>502</v>
       </c>
@@ -9506,7 +9602,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>503</v>
       </c>
@@ -9559,7 +9655,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -9612,7 +9708,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>505</v>
       </c>
@@ -9665,7 +9761,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>506</v>
       </c>
@@ -9718,7 +9814,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>507</v>
       </c>
@@ -9771,7 +9867,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>508</v>
       </c>
@@ -9824,7 +9920,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>509</v>
       </c>
@@ -9877,7 +9973,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -9930,7 +10026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>511</v>
       </c>
@@ -9983,7 +10079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>512</v>
       </c>
@@ -10036,7 +10132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>513</v>
       </c>
@@ -10089,7 +10185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>514</v>
       </c>
@@ -10142,7 +10238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>515</v>
       </c>
@@ -10195,7 +10291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>516</v>
       </c>
@@ -10248,7 +10344,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>517</v>
       </c>
@@ -10301,7 +10397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>518</v>
       </c>
@@ -10354,7 +10450,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>519</v>
       </c>
@@ -10407,7 +10503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>520</v>
       </c>
@@ -10460,7 +10556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -10513,7 +10609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>522</v>
       </c>
@@ -10566,7 +10662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>523</v>
       </c>
@@ -10619,7 +10715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>524</v>
       </c>
@@ -10672,7 +10768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>525</v>
       </c>
@@ -10725,7 +10821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>526</v>
       </c>
@@ -10778,7 +10874,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>527</v>
       </c>
@@ -10831,7 +10927,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>528</v>
       </c>
@@ -10884,7 +10980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>529</v>
       </c>
@@ -10937,7 +11033,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>530</v>
       </c>
@@ -10990,7 +11086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>531</v>
       </c>
@@ -11043,7 +11139,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>532</v>
       </c>
@@ -11096,7 +11192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>533</v>
       </c>
@@ -11149,7 +11245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>534</v>
       </c>
@@ -11202,7 +11298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>535</v>
       </c>
@@ -11255,7 +11351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>536</v>
       </c>
@@ -11308,7 +11404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>537</v>
       </c>
@@ -11361,7 +11457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>538</v>
       </c>
@@ -11414,7 +11510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>539</v>
       </c>
@@ -11467,7 +11563,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>540</v>
       </c>
@@ -11520,7 +11616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>541</v>
       </c>
@@ -11573,7 +11669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>542</v>
       </c>
@@ -11626,7 +11722,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>543</v>
       </c>
@@ -11679,7 +11775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>544</v>
       </c>
@@ -11732,7 +11828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>545</v>
       </c>
@@ -11785,7 +11881,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>546</v>
       </c>
@@ -11838,7 +11934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>547</v>
       </c>
@@ -11891,7 +11987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>548</v>
       </c>
@@ -11944,7 +12040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>549</v>
       </c>
@@ -11997,7 +12093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>550</v>
       </c>
@@ -12050,7 +12146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>551</v>
       </c>
@@ -12103,7 +12199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>552</v>
       </c>
@@ -12156,7 +12252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>553</v>
       </c>
@@ -12209,7 +12305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>554</v>
       </c>
@@ -12262,7 +12358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>555</v>
       </c>
@@ -12315,7 +12411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>556</v>
       </c>
@@ -12368,7 +12464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>557</v>
       </c>
@@ -12421,7 +12517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>558</v>
       </c>
@@ -12474,7 +12570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>559</v>
       </c>
@@ -12527,7 +12623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>560</v>
       </c>
@@ -12580,7 +12676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -12636,7 +12732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>562</v>
       </c>
@@ -12689,7 +12785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>563</v>
       </c>
@@ -12742,7 +12838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>564</v>
       </c>
@@ -12795,7 +12891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>565</v>
       </c>
@@ -12848,7 +12944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -12901,7 +12997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>567</v>
       </c>
@@ -12954,7 +13050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>568</v>
       </c>
@@ -13007,7 +13103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>569</v>
       </c>
@@ -13060,7 +13156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>570</v>
       </c>
@@ -13113,7 +13209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>571</v>
       </c>
@@ -13166,7 +13262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>572</v>
       </c>
@@ -13219,7 +13315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>573</v>
       </c>
@@ -13272,7 +13368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>574</v>
       </c>
@@ -13325,7 +13421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>575</v>
       </c>
@@ -13378,7 +13474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>576</v>
       </c>
@@ -13431,7 +13527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>577</v>
       </c>
@@ -13484,7 +13580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>578</v>
       </c>
@@ -13537,7 +13633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>579</v>
       </c>
@@ -13590,7 +13686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>580</v>
       </c>
@@ -13643,7 +13739,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>581</v>
       </c>
@@ -13696,7 +13792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>582</v>
       </c>
@@ -13749,7 +13845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>583</v>
       </c>
@@ -13802,7 +13898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>584</v>
       </c>
@@ -13855,7 +13951,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>585</v>
       </c>
@@ -13908,7 +14004,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>586</v>
       </c>
@@ -13961,7 +14057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>587</v>
       </c>
@@ -14014,7 +14110,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>588</v>
       </c>
@@ -14067,7 +14163,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>589</v>
       </c>
@@ -14120,7 +14216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>590</v>
       </c>
@@ -14173,7 +14269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>591</v>
       </c>
@@ -14226,7 +14322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>592</v>
       </c>
@@ -14279,7 +14375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>593</v>
       </c>
@@ -14332,7 +14428,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>594</v>
       </c>
@@ -14385,7 +14481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>595</v>
       </c>
@@ -14438,7 +14534,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>596</v>
       </c>
@@ -14491,7 +14587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>597</v>
       </c>
@@ -14544,7 +14640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>598</v>
       </c>
@@ -14597,7 +14693,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>599</v>
       </c>
@@ -14650,7 +14746,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>600</v>
       </c>
@@ -14703,7 +14799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>601</v>
       </c>
@@ -14756,7 +14852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>602</v>
       </c>
@@ -14809,7 +14905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>603</v>
       </c>
@@ -14862,7 +14958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>604</v>
       </c>
@@ -14915,7 +15011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>605</v>
       </c>
@@ -14968,7 +15064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>606</v>
       </c>
@@ -15021,7 +15117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>607</v>
       </c>
@@ -15074,7 +15170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>608</v>
       </c>
@@ -15128,28 +15224,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X51"/>
+  <autoFilter ref="A1:X51" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -15160,7 +15256,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -15177,22 +15273,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -15233,7 +15329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -15265,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -15273,7 +15369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E372E267-5094-7848-ABFB-4AF6FF744A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626A0C7-2268-9B46-B622-21C3CD815168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13580" windowHeight="4260" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="Tax" sheetId="14" r:id="rId14"/>
     <sheet name="Uom" sheetId="15" r:id="rId15"/>
     <sheet name="Section" sheetId="16" r:id="rId16"/>
+    <sheet name="Bin" sheetId="17" r:id="rId17"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId18"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="637">
   <si>
     <t>PriceType</t>
   </si>
@@ -1930,6 +1933,30 @@
   </si>
   <si>
     <t>Section type</t>
+  </si>
+  <si>
+    <t>Bin type</t>
+  </si>
+  <si>
+    <t>Bincode</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>PurchasereturnReq</t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
+  <si>
+    <t>LocationCode</t>
+  </si>
+  <si>
+    <t>Shelf type</t>
+  </si>
+  <si>
+    <t>ShelfCode</t>
   </si>
 </sst>
 </file>
@@ -1950,26 +1977,26 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3917,7 +3944,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4140,7 +4167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4171,6 +4198,144 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626A0C7-2268-9B46-B622-21C3CD815168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FB681-636A-0E4E-B8FD-D39E6335A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="Bin" sheetId="17" r:id="rId17"/>
     <sheet name="PurchasereturnReq" sheetId="18" r:id="rId18"/>
     <sheet name="Shelf" sheetId="19" r:id="rId19"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId20"/>
+    <sheet name="Size" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="650">
   <si>
     <t>PriceType</t>
   </si>
@@ -1957,6 +1959,45 @@
   </si>
   <si>
     <t>ShelfCode</t>
+  </si>
+  <si>
+    <t>Warehouse type</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>WarehouseCode</t>
+  </si>
+  <si>
+    <t>WarehouseName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Netcost</t>
+  </si>
+  <si>
+    <t>Size  type</t>
+  </si>
+  <si>
+    <t>SizeCode</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +2007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2004,6 +2045,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2056,7 +2103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2066,6 +2113,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4253,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4290,7 +4338,7 @@
         <v>633</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>623</v>
+        <v>259</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4311,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -4412,6 +4460,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7FB681-636A-0E4E-B8FD-D39E6335A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07864D73-1B1C-FB4D-A489-CA01889CA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="651">
   <si>
     <t>PriceType</t>
   </si>
@@ -1919,9 +1919,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>000003</t>
-  </si>
-  <si>
     <t>Uom type</t>
   </si>
   <si>
@@ -1998,6 +1995,12 @@
   </si>
   <si>
     <t>SizeCode</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Batchrowno</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2049,6 +2052,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0000C0"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -2103,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2114,6 +2124,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3989,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4001,9 +4012,10 @@
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>610</v>
       </c>
@@ -4040,8 +4052,11 @@
       <c r="L1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -4055,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -4066,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>623</v>
+        <v>259</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4080,8 +4095,8 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4180,21 +4195,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" t="s">
         <v>624</v>
-      </c>
-      <c r="B1" t="s">
-        <v>625</v>
       </c>
       <c r="C1" t="s">
         <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4223,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1" t="s">
         <v>194</v>
@@ -4266,16 +4281,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" t="s">
         <v>629</v>
-      </c>
-      <c r="B1" t="s">
-        <v>630</v>
       </c>
       <c r="C1" t="s">
         <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4299,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4311,11 +4326,12 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1" t="s">
         <v>177</v>
@@ -4327,15 +4343,18 @@
         <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>259</v>
@@ -4348,6 +4367,12 @@
       </c>
       <c r="E2" t="s">
         <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4367,10 +4392,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" t="s">
         <v>635</v>
-      </c>
-      <c r="B1" t="s">
-        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>195</v>
@@ -4480,39 +4505,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>646</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4562,10 +4587,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
         <v>648</v>
-      </c>
-      <c r="B1" t="s">
-        <v>649</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>195</v>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07864D73-1B1C-FB4D-A489-CA01889CA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF92093-375E-0444-B043-DF856C1EDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="654">
   <si>
     <t>PriceType</t>
   </si>
@@ -2001,16 +2001,26 @@
   </si>
   <si>
     <t>Batchrowno</t>
+  </si>
+  <si>
+    <t>Vendorbillno</t>
+  </si>
+  <si>
+    <t>Gidno</t>
+  </si>
+  <si>
+    <t>HQ0400017311</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2061,6 +2071,12 @@
       <color rgb="FF0000C0"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Caption"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2113,7 +2129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2125,6 +2141,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2469,7 +2487,7 @@
       <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="22.83203125" style="1"/>
     <col min="3" max="3" width="35.5" style="1"/>
@@ -2488,7 +2506,7 @@
     <col min="29" max="1025" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -2803,7 +2821,7 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -3017,7 +3035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3100,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3215,7 @@
         <v>96.04</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
@@ -3223,7 +3241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
@@ -3275,7 +3293,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3326,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>485.1</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3500,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
         <v>120</v>
       </c>
@@ -3571,7 +3589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
@@ -3597,7 +3615,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3674,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
@@ -3771,7 +3789,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
@@ -3880,14 +3898,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3922,14 +3940,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -3964,14 +3982,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -3982,7 +4000,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -4000,22 +4018,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16">
       <c r="A1" t="s">
         <v>610</v>
       </c>
@@ -4023,65 +4044,77 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>612</v>
       </c>
       <c r="I1" t="s">
-        <v>612</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" t="s">
         <v>183</v>
       </c>
+      <c r="L1" s="10" t="s">
+        <v>650</v>
+      </c>
       <c r="M1" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>611</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
         <v>614</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4092,12 +4125,24 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>44389</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3">
+        <v>1762</v>
+      </c>
+      <c r="P3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="M12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4112,12 +4157,12 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -4149,7 +4194,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>616</v>
       </c>
@@ -4188,12 +4233,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>623</v>
       </c>
@@ -4207,7 +4252,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>626</v>
       </c>
@@ -4234,9 +4279,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>627</v>
       </c>
@@ -4250,7 +4295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -4277,9 +4322,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>628</v>
       </c>
@@ -4293,7 +4338,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4316,11 +4361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -4329,7 +4374,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" t="s">
         <v>631</v>
       </c>
@@ -4352,7 +4397,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>632</v>
       </c>
@@ -4388,9 +4433,9 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>634</v>
       </c>
@@ -4401,7 +4446,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4425,13 +4470,13 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="1026" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -4454,7 +4499,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4474,7 +4519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -4496,14 +4541,14 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" t="s">
         <v>636</v>
       </c>
@@ -4535,7 +4580,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>637</v>
       </c>
@@ -4580,12 +4625,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" t="s">
         <v>647</v>
       </c>
@@ -4596,7 +4641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4618,14 +4663,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -4642,7 +4687,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4672,7 +4717,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
@@ -4684,7 +4729,7 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4722,7 +4767,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -4751,7 +4796,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -4765,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -4786,14 +4831,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -4807,7 +4852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -4834,14 +4879,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4861,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +4939,7 @@
       <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
@@ -4902,7 +4947,7 @@
     <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -4976,7 +5021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -5033,7 +5078,7 @@
       </c>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -5087,7 +5132,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -5141,7 +5186,7 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -5194,7 +5239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -5247,7 +5292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5300,7 +5345,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -5353,7 +5398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -5406,7 +5451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -5459,7 +5504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -5512,7 +5557,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -5565,7 +5610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -5618,7 +5663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -5671,7 +5716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -5724,7 +5769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -5777,7 +5822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -5830,7 +5875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -5883,7 +5928,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -5936,7 +5981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5989,7 +6034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -6042,7 +6087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -6095,7 +6140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -6148,7 +6193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>230</v>
       </c>
@@ -6201,7 +6246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -6254,7 +6299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -6307,7 +6352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -6360,7 +6405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -6413,7 +6458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>235</v>
       </c>
@@ -6466,7 +6511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>236</v>
       </c>
@@ -6519,7 +6564,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -6572,7 +6617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -6625,7 +6670,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -6678,7 +6723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -6731,7 +6776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -6784,7 +6829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -6837,7 +6882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -6890,7 +6935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -6943,7 +6988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -6996,7 +7041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -7049,7 +7094,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -7102,7 +7147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>248</v>
       </c>
@@ -7155,7 +7200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -7208,7 +7253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -7261,7 +7306,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -7314,7 +7359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -7367,7 +7412,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>253</v>
       </c>
@@ -7420,7 +7465,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>254</v>
       </c>
@@ -7473,7 +7518,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -7526,7 +7571,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -7579,7 +7624,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -7632,7 +7677,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>459</v>
       </c>
@@ -7685,7 +7730,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>460</v>
       </c>
@@ -7738,7 +7783,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>461</v>
       </c>
@@ -7791,7 +7836,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>462</v>
       </c>
@@ -7844,7 +7889,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
         <v>463</v>
       </c>
@@ -7897,7 +7942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>464</v>
       </c>
@@ -7950,7 +7995,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
         <v>465</v>
       </c>
@@ -8003,7 +8048,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
         <v>466</v>
       </c>
@@ -8056,7 +8101,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -8109,7 +8154,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
         <v>468</v>
       </c>
@@ -8162,7 +8207,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
         <v>469</v>
       </c>
@@ -8215,7 +8260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
         <v>470</v>
       </c>
@@ -8268,7 +8313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
         <v>471</v>
       </c>
@@ -8321,7 +8366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
         <v>472</v>
       </c>
@@ -8374,7 +8419,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
         <v>473</v>
       </c>
@@ -8427,7 +8472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
         <v>474</v>
       </c>
@@ -8480,7 +8525,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
         <v>475</v>
       </c>
@@ -8533,7 +8578,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
         <v>476</v>
       </c>
@@ -8586,7 +8631,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
         <v>477</v>
       </c>
@@ -8639,7 +8684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
         <v>478</v>
       </c>
@@ -8692,7 +8737,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
         <v>479</v>
       </c>
@@ -8745,7 +8790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
         <v>480</v>
       </c>
@@ -8798,7 +8843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
         <v>481</v>
       </c>
@@ -8851,7 +8896,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
         <v>482</v>
       </c>
@@ -8904,7 +8949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
         <v>483</v>
       </c>
@@ -8957,7 +9002,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
         <v>484</v>
       </c>
@@ -9010,7 +9055,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="A78" t="s">
         <v>485</v>
       </c>
@@ -9063,7 +9108,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="A79" t="s">
         <v>486</v>
       </c>
@@ -9116,7 +9161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
         <v>487</v>
       </c>
@@ -9169,7 +9214,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
         <v>488</v>
       </c>
@@ -9222,7 +9267,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
         <v>489</v>
       </c>
@@ -9275,7 +9320,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
         <v>490</v>
       </c>
@@ -9328,7 +9373,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
         <v>491</v>
       </c>
@@ -9381,7 +9426,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19">
       <c r="A85" t="s">
         <v>492</v>
       </c>
@@ -9434,7 +9479,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19">
       <c r="A86" t="s">
         <v>493</v>
       </c>
@@ -9487,7 +9532,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19">
       <c r="A87" t="s">
         <v>494</v>
       </c>
@@ -9540,7 +9585,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19">
       <c r="A88" t="s">
         <v>495</v>
       </c>
@@ -9593,7 +9638,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
         <v>496</v>
       </c>
@@ -9646,7 +9691,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19">
       <c r="A90" t="s">
         <v>497</v>
       </c>
@@ -9699,7 +9744,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19">
       <c r="A91" t="s">
         <v>498</v>
       </c>
@@ -9752,7 +9797,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19">
       <c r="A92" t="s">
         <v>499</v>
       </c>
@@ -9805,7 +9850,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19">
       <c r="A93" t="s">
         <v>500</v>
       </c>
@@ -9858,7 +9903,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19">
       <c r="A94" t="s">
         <v>501</v>
       </c>
@@ -9911,7 +9956,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19">
       <c r="A95" t="s">
         <v>502</v>
       </c>
@@ -9964,7 +10009,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19">
       <c r="A96" t="s">
         <v>503</v>
       </c>
@@ -10017,7 +10062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>504</v>
       </c>
@@ -10070,7 +10115,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
         <v>505</v>
       </c>
@@ -10123,7 +10168,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
         <v>506</v>
       </c>
@@ -10176,7 +10221,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
         <v>507</v>
       </c>
@@ -10229,7 +10274,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
         <v>508</v>
       </c>
@@ -10282,7 +10327,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>509</v>
       </c>
@@ -10335,7 +10380,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -10388,7 +10433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
         <v>511</v>
       </c>
@@ -10441,7 +10486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19">
       <c r="A105" t="s">
         <v>512</v>
       </c>
@@ -10494,7 +10539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>513</v>
       </c>
@@ -10547,7 +10592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19">
       <c r="A107" t="s">
         <v>514</v>
       </c>
@@ -10600,7 +10645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
         <v>515</v>
       </c>
@@ -10653,7 +10698,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19">
       <c r="A109" t="s">
         <v>516</v>
       </c>
@@ -10706,7 +10751,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19">
       <c r="A110" t="s">
         <v>517</v>
       </c>
@@ -10759,7 +10804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19">
       <c r="A111" t="s">
         <v>518</v>
       </c>
@@ -10812,7 +10857,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19">
       <c r="A112" t="s">
         <v>519</v>
       </c>
@@ -10865,7 +10910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
         <v>520</v>
       </c>
@@ -10918,7 +10963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -10971,7 +11016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19">
       <c r="A115" t="s">
         <v>522</v>
       </c>
@@ -11024,7 +11069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19">
       <c r="A116" t="s">
         <v>523</v>
       </c>
@@ -11077,7 +11122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19">
       <c r="A117" t="s">
         <v>524</v>
       </c>
@@ -11130,7 +11175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19">
       <c r="A118" t="s">
         <v>525</v>
       </c>
@@ -11183,7 +11228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19">
       <c r="A119" t="s">
         <v>526</v>
       </c>
@@ -11236,7 +11281,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19">
       <c r="A120" t="s">
         <v>527</v>
       </c>
@@ -11289,7 +11334,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19">
       <c r="A121" t="s">
         <v>528</v>
       </c>
@@ -11342,7 +11387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19">
       <c r="A122" t="s">
         <v>529</v>
       </c>
@@ -11395,7 +11440,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19">
       <c r="A123" t="s">
         <v>530</v>
       </c>
@@ -11448,7 +11493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
         <v>531</v>
       </c>
@@ -11501,7 +11546,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
         <v>532</v>
       </c>
@@ -11554,7 +11599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
         <v>533</v>
       </c>
@@ -11607,7 +11652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
         <v>534</v>
       </c>
@@ -11660,7 +11705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
         <v>535</v>
       </c>
@@ -11713,7 +11758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19">
       <c r="A129" t="s">
         <v>536</v>
       </c>
@@ -11766,7 +11811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19">
       <c r="A130" t="s">
         <v>537</v>
       </c>
@@ -11819,7 +11864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19">
       <c r="A131" t="s">
         <v>538</v>
       </c>
@@ -11872,7 +11917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19">
       <c r="A132" t="s">
         <v>539</v>
       </c>
@@ -11925,7 +11970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19">
       <c r="A133" t="s">
         <v>540</v>
       </c>
@@ -11978,7 +12023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19">
       <c r="A134" t="s">
         <v>541</v>
       </c>
@@ -12031,7 +12076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19">
       <c r="A135" t="s">
         <v>542</v>
       </c>
@@ -12084,7 +12129,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19">
       <c r="A136" t="s">
         <v>543</v>
       </c>
@@ -12137,7 +12182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19">
       <c r="A137" t="s">
         <v>544</v>
       </c>
@@ -12190,7 +12235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19">
       <c r="A138" t="s">
         <v>545</v>
       </c>
@@ -12243,7 +12288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19">
       <c r="A139" t="s">
         <v>546</v>
       </c>
@@ -12296,7 +12341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19">
       <c r="A140" t="s">
         <v>547</v>
       </c>
@@ -12349,7 +12394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19">
       <c r="A141" t="s">
         <v>548</v>
       </c>
@@ -12402,7 +12447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19">
       <c r="A142" t="s">
         <v>549</v>
       </c>
@@ -12455,7 +12500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19">
       <c r="A143" t="s">
         <v>550</v>
       </c>
@@ -12508,7 +12553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19">
       <c r="A144" t="s">
         <v>551</v>
       </c>
@@ -12561,7 +12606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19">
       <c r="A145" t="s">
         <v>552</v>
       </c>
@@ -12614,7 +12659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="A146" t="s">
         <v>553</v>
       </c>
@@ -12667,7 +12712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="A147" t="s">
         <v>554</v>
       </c>
@@ -12720,7 +12765,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19">
       <c r="A148" t="s">
         <v>555</v>
       </c>
@@ -12773,7 +12818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="A149" t="s">
         <v>556</v>
       </c>
@@ -12826,7 +12871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="A150" t="s">
         <v>557</v>
       </c>
@@ -12879,7 +12924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19">
       <c r="A151" t="s">
         <v>558</v>
       </c>
@@ -12932,7 +12977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19">
       <c r="A152" t="s">
         <v>559</v>
       </c>
@@ -12985,7 +13030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19">
       <c r="A153" t="s">
         <v>560</v>
       </c>
@@ -13038,7 +13083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19">
       <c r="A154" t="s">
         <v>561</v>
       </c>
@@ -13094,7 +13139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19">
       <c r="A155" t="s">
         <v>562</v>
       </c>
@@ -13147,7 +13192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19">
       <c r="A156" t="s">
         <v>563</v>
       </c>
@@ -13200,7 +13245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19">
       <c r="A157" t="s">
         <v>564</v>
       </c>
@@ -13253,7 +13298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19">
       <c r="A158" t="s">
         <v>565</v>
       </c>
@@ -13306,7 +13351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -13359,7 +13404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="A160" t="s">
         <v>567</v>
       </c>
@@ -13412,7 +13457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19">
       <c r="A161" t="s">
         <v>568</v>
       </c>
@@ -13465,7 +13510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19">
       <c r="A162" t="s">
         <v>569</v>
       </c>
@@ -13518,7 +13563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19">
       <c r="A163" t="s">
         <v>570</v>
       </c>
@@ -13571,7 +13616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19">
       <c r="A164" t="s">
         <v>571</v>
       </c>
@@ -13624,7 +13669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19">
       <c r="A165" t="s">
         <v>572</v>
       </c>
@@ -13677,7 +13722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19">
       <c r="A166" t="s">
         <v>573</v>
       </c>
@@ -13730,7 +13775,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19">
       <c r="A167" t="s">
         <v>574</v>
       </c>
@@ -13783,7 +13828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19">
       <c r="A168" t="s">
         <v>575</v>
       </c>
@@ -13836,7 +13881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19">
       <c r="A169" t="s">
         <v>576</v>
       </c>
@@ -13889,7 +13934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19">
       <c r="A170" t="s">
         <v>577</v>
       </c>
@@ -13942,7 +13987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19">
       <c r="A171" t="s">
         <v>578</v>
       </c>
@@ -13995,7 +14040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19">
       <c r="A172" t="s">
         <v>579</v>
       </c>
@@ -14048,7 +14093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19">
       <c r="A173" t="s">
         <v>580</v>
       </c>
@@ -14101,7 +14146,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19">
       <c r="A174" t="s">
         <v>581</v>
       </c>
@@ -14154,7 +14199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19">
       <c r="A175" t="s">
         <v>582</v>
       </c>
@@ -14207,7 +14252,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19">
       <c r="A176" t="s">
         <v>583</v>
       </c>
@@ -14260,7 +14305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19">
       <c r="A177" t="s">
         <v>584</v>
       </c>
@@ -14313,7 +14358,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19">
       <c r="A178" t="s">
         <v>585</v>
       </c>
@@ -14366,7 +14411,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19">
       <c r="A179" t="s">
         <v>586</v>
       </c>
@@ -14419,7 +14464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19">
       <c r="A180" t="s">
         <v>587</v>
       </c>
@@ -14472,7 +14517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19">
       <c r="A181" t="s">
         <v>588</v>
       </c>
@@ -14525,7 +14570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19">
       <c r="A182" t="s">
         <v>589</v>
       </c>
@@ -14578,7 +14623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19">
       <c r="A183" t="s">
         <v>590</v>
       </c>
@@ -14631,7 +14676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19">
       <c r="A184" t="s">
         <v>591</v>
       </c>
@@ -14684,7 +14729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19">
       <c r="A185" t="s">
         <v>592</v>
       </c>
@@ -14737,7 +14782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19">
       <c r="A186" t="s">
         <v>593</v>
       </c>
@@ -14790,7 +14835,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19">
       <c r="A187" t="s">
         <v>594</v>
       </c>
@@ -14843,7 +14888,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19">
       <c r="A188" t="s">
         <v>595</v>
       </c>
@@ -14896,7 +14941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19">
       <c r="A189" t="s">
         <v>596</v>
       </c>
@@ -14949,7 +14994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19">
       <c r="A190" t="s">
         <v>597</v>
       </c>
@@ -15002,7 +15047,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19">
       <c r="A191" t="s">
         <v>598</v>
       </c>
@@ -15055,7 +15100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19">
       <c r="A192" t="s">
         <v>599</v>
       </c>
@@ -15108,7 +15153,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19">
       <c r="A193" t="s">
         <v>600</v>
       </c>
@@ -15161,7 +15206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19">
       <c r="A194" t="s">
         <v>601</v>
       </c>
@@ -15214,7 +15259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19">
       <c r="A195" t="s">
         <v>602</v>
       </c>
@@ -15267,7 +15312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19">
       <c r="A196" t="s">
         <v>603</v>
       </c>
@@ -15320,7 +15365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19">
       <c r="A197" t="s">
         <v>604</v>
       </c>
@@ -15373,7 +15418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19">
       <c r="A198" t="s">
         <v>605</v>
       </c>
@@ -15426,7 +15471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19">
       <c r="A199" t="s">
         <v>606</v>
       </c>
@@ -15479,7 +15524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19">
       <c r="A200" t="s">
         <v>607</v>
       </c>
@@ -15532,7 +15577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19">
       <c r="A201" t="s">
         <v>608</v>
       </c>
@@ -15600,14 +15645,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -15618,7 +15663,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -15642,7 +15687,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
@@ -15650,7 +15695,7 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -15691,7 +15736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -15723,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -15731,7 +15776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>258</v>
       </c>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF92093-375E-0444-B043-DF856C1EDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE58CF2-1501-9149-B2A3-FF67D55B1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,16 @@
     <sheet name="Subclass" sheetId="11" r:id="rId11"/>
     <sheet name="Itemtype" sheetId="12" r:id="rId12"/>
     <sheet name="Purchasereturn" sheetId="13" r:id="rId13"/>
-    <sheet name="Tax" sheetId="14" r:id="rId14"/>
-    <sheet name="Uom" sheetId="15" r:id="rId15"/>
-    <sheet name="Section" sheetId="16" r:id="rId16"/>
-    <sheet name="Bin" sheetId="17" r:id="rId17"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId18"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId19"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId20"/>
-    <sheet name="Size" sheetId="21" r:id="rId21"/>
+    <sheet name="Style" sheetId="22" r:id="rId14"/>
+    <sheet name="Baseuom" sheetId="23" r:id="rId15"/>
+    <sheet name="Tax" sheetId="14" r:id="rId16"/>
+    <sheet name="Uom" sheetId="15" r:id="rId17"/>
+    <sheet name="Section" sheetId="16" r:id="rId18"/>
+    <sheet name="Bin" sheetId="17" r:id="rId19"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId20"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId21"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId22"/>
+    <sheet name="Size" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="669">
   <si>
     <t>PriceType</t>
   </si>
@@ -2010,6 +2012,51 @@
   </si>
   <si>
     <t>HQ0400017311</t>
+  </si>
+  <si>
+    <t>Style  type</t>
+  </si>
+  <si>
+    <t>StyleCode</t>
+  </si>
+  <si>
+    <t>Origion</t>
+  </si>
+  <si>
+    <t>FIRST FLOOR</t>
+  </si>
+  <si>
+    <t>C0000</t>
+  </si>
+  <si>
+    <t>unipro</t>
+  </si>
+  <si>
+    <t>MADHAVI ENTERPRISES</t>
+  </si>
+  <si>
+    <t>HEALTH CARE</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
+    <t>P&amp;G</t>
+  </si>
+  <si>
+    <t>Baseuom type</t>
+  </si>
+  <si>
+    <t>Baseuom</t>
+  </si>
+  <si>
+    <t>Baseuomcode</t>
+  </si>
+  <si>
+    <t>Baseuomdescription</t>
   </si>
 </sst>
 </file>
@@ -2018,9 +2065,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2078,6 +2125,12 @@
       <color rgb="FF000000"/>
       <name val="Caption"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2129,7 +2182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2142,7 +2195,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4020,9 +4074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -4150,6 +4202,241 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC570587-6FCE-3C44-9436-424AEC1B3D22}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="16">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>662</v>
+      </c>
+      <c r="I2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="K2" t="s">
+        <v>637</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>659</v>
+      </c>
+      <c r="N2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348C03F-E6A7-9544-B3CE-2BBDA74D1331}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4225,7 +4512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4271,7 +4558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4314,7 +4601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4349,111 +4636,6 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -4534,6 +4716,111 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4617,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15684,7 +15971,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE58CF2-1501-9149-B2A3-FF67D55B1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE4A57D-7854-5B46-B371-6C19B6B06004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,16 @@
     <sheet name="Purchasereturn" sheetId="13" r:id="rId13"/>
     <sheet name="Style" sheetId="22" r:id="rId14"/>
     <sheet name="Baseuom" sheetId="23" r:id="rId15"/>
-    <sheet name="Tax" sheetId="14" r:id="rId16"/>
-    <sheet name="Uom" sheetId="15" r:id="rId17"/>
-    <sheet name="Section" sheetId="16" r:id="rId18"/>
-    <sheet name="Bin" sheetId="17" r:id="rId19"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId20"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId21"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId22"/>
-    <sheet name="Size" sheetId="21" r:id="rId23"/>
+    <sheet name="CreditDebitnote" sheetId="24" r:id="rId16"/>
+    <sheet name="AddDed" sheetId="25" r:id="rId17"/>
+    <sheet name="Tax" sheetId="14" r:id="rId18"/>
+    <sheet name="Uom" sheetId="15" r:id="rId19"/>
+    <sheet name="Section" sheetId="16" r:id="rId20"/>
+    <sheet name="Bin" sheetId="17" r:id="rId21"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId22"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId23"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId24"/>
+    <sheet name="Size" sheetId="21" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
   <si>
     <t>PriceType</t>
   </si>
@@ -2057,6 +2059,36 @@
   </si>
   <si>
     <t>Baseuomdescription</t>
+  </si>
+  <si>
+    <t>CreditDebitnote</t>
+  </si>
+  <si>
+    <t>CreditDebitnote type</t>
+  </si>
+  <si>
+    <t>Vendorno</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>EXSUP</t>
+  </si>
+  <si>
+    <t>Dicountcode</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AddDed type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CreditDebitnote1</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2099,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2131,6 +2163,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2182,7 +2220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2197,6 +2235,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4379,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348C03F-E6A7-9544-B3CE-2BBDA74D1331}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4437,6 +4477,189 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF0179F-0C7E-B84F-A370-69B69CBA5405}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="15">
+        <v>12213</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44433</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>44433</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E01B2A-0250-7648-B032-6A4EF0C2D431}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4512,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4542,92 +4765,6 @@
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>626</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4716,6 +4853,92 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4783,7 +5006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4820,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -4904,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE4A57D-7854-5B46-B371-6C19B6B06004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9707AF7-9B52-DB41-A5FE-90E57810FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,24 @@
     <sheet name="Style" sheetId="22" r:id="rId14"/>
     <sheet name="Baseuom" sheetId="23" r:id="rId15"/>
     <sheet name="CreditDebitnote" sheetId="24" r:id="rId16"/>
-    <sheet name="AddDed" sheetId="25" r:id="rId17"/>
-    <sheet name="Tax" sheetId="14" r:id="rId18"/>
-    <sheet name="Uom" sheetId="15" r:id="rId19"/>
-    <sheet name="Section" sheetId="16" r:id="rId20"/>
-    <sheet name="Bin" sheetId="17" r:id="rId21"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId22"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId23"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId24"/>
-    <sheet name="Size" sheetId="21" r:id="rId25"/>
+    <sheet name="Zone" sheetId="26" r:id="rId17"/>
+    <sheet name="PoVendorChange" sheetId="27" r:id="rId18"/>
+    <sheet name="AddDed" sheetId="25" r:id="rId19"/>
+    <sheet name="CompanySettings" sheetId="29" r:id="rId20"/>
+    <sheet name="DisplayandContracts" sheetId="30" r:id="rId21"/>
+    <sheet name="StockAdjustmentType" sheetId="31" r:id="rId22"/>
+    <sheet name="Merchandise" sheetId="32" r:id="rId23"/>
+    <sheet name="ConsolidatedPocreate" sheetId="33" r:id="rId24"/>
+    <sheet name="PurchaseOrderStatus" sheetId="34" r:id="rId25"/>
+    <sheet name="Manufacturer" sheetId="35" r:id="rId26"/>
+    <sheet name="Tax" sheetId="14" r:id="rId27"/>
+    <sheet name="Uom" sheetId="15" r:id="rId28"/>
+    <sheet name="Section" sheetId="16" r:id="rId29"/>
+    <sheet name="Bin" sheetId="17" r:id="rId30"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId31"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId32"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId33"/>
+    <sheet name="Size" sheetId="21" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="726">
   <si>
     <t>PriceType</t>
   </si>
@@ -2088,7 +2097,148 @@
     <t>A</t>
   </si>
   <si>
-    <t>CreditDebitnote1</t>
+    <t>CreditDebitnote2</t>
+  </si>
+  <si>
+    <t>Zone type</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Zonecode</t>
+  </si>
+  <si>
+    <t>ZoneName</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>PoVendorChange type</t>
+  </si>
+  <si>
+    <t>PoNo</t>
+  </si>
+  <si>
+    <t>HQ0300000004</t>
+  </si>
+  <si>
+    <t>V00246</t>
+  </si>
+  <si>
+    <t>PoVendorChange</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CompanySettings type</t>
+  </si>
+  <si>
+    <t>CompanySettings</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>DisplayandContracts type</t>
+  </si>
+  <si>
+    <t>DisplayandContracts</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>DisplayandContracts1</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>Refno</t>
+  </si>
+  <si>
+    <t>RefDate</t>
+  </si>
+  <si>
+    <t>DisplayandContracts2</t>
+  </si>
+  <si>
+    <t>StockAdjustmentType</t>
+  </si>
+  <si>
+    <t>StockAdjustmentType type</t>
+  </si>
+  <si>
+    <t>AdjtypeCode</t>
+  </si>
+  <si>
+    <t>AdjtypeName</t>
+  </si>
+  <si>
+    <t>Merchandise type</t>
+  </si>
+  <si>
+    <t>MerchandiseCode</t>
+  </si>
+  <si>
+    <t>ConsolidatedPocreate</t>
+  </si>
+  <si>
+    <t>ConsolidatedPocreate type</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Proceed</t>
+  </si>
+  <si>
+    <t>PurchaseOrderStatus type</t>
+  </si>
+  <si>
+    <t>PurchaseOrderStatus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NewVendornum</t>
+  </si>
+  <si>
+    <t>UnDelivered</t>
+  </si>
+  <si>
+    <t>PurchaseOrderStatus1</t>
+  </si>
+  <si>
+    <t>Manufacturer type</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturercode</t>
+  </si>
+  <si>
+    <t>ManufacturerName</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2249,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2169,6 +2319,19 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2220,7 +2383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2237,6 +2400,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4245,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC570587-6FCE-3C44-9436-424AEC1B3D22}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4412,6 +4577,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4480,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF0179F-0C7E-B84F-A370-69B69CBA5405}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4595,6 +4761,82 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9401F58B-2187-F64F-A863-94410EEE3F1C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9925F-22EF-E243-BC5E-E69ADECC0691}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E01B2A-0250-7648-B032-6A4EF0C2D431}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4652,128 +4894,6 @@
       </c>
       <c r="G2">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4853,6 +4973,640 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE57302-63A9-BA40-BB92-1F1E55B7F67A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C66710-77DB-2A49-9C57-B18EB9D3B9E8}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16">
+      <c r="A1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P4" s="12">
+        <v>44440</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12">
+        <v>44440</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AC2FF-A58D-A048-BA1A-43C71494B4BA}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A21EA47-BEE8-994E-A797-C825D6AF2F65}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE7206-DD9D-F840-B262-83F877D3A4DD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542A1DE-6B7D-6140-BC48-A8E5D235C04B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3209F4-4BF4-BE46-9A88-0275C6D41279}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4887,278 +5641,6 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16">
-      <c r="A1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -5212,6 +5694,278 @@
       </c>
       <c r="E2" t="s">
         <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9707AF7-9B52-DB41-A5FE-90E57810FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CFE54-EF78-B749-940C-EE4B0AEC8FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,17 @@
     <sheet name="ConsolidatedPocreate" sheetId="33" r:id="rId24"/>
     <sheet name="PurchaseOrderStatus" sheetId="34" r:id="rId25"/>
     <sheet name="Manufacturer" sheetId="35" r:id="rId26"/>
-    <sheet name="Tax" sheetId="14" r:id="rId27"/>
-    <sheet name="Uom" sheetId="15" r:id="rId28"/>
-    <sheet name="Section" sheetId="16" r:id="rId29"/>
-    <sheet name="Bin" sheetId="17" r:id="rId30"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId31"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId32"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId33"/>
-    <sheet name="Size" sheetId="21" r:id="rId34"/>
+    <sheet name="AutoPO" sheetId="36" r:id="rId27"/>
+    <sheet name="Vendorcatelog" sheetId="37" r:id="rId28"/>
+    <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
+    <sheet name="Tax" sheetId="14" r:id="rId30"/>
+    <sheet name="Uom" sheetId="15" r:id="rId31"/>
+    <sheet name="Section" sheetId="16" r:id="rId32"/>
+    <sheet name="Bin" sheetId="17" r:id="rId33"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId34"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId35"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId36"/>
+    <sheet name="Size" sheetId="21" r:id="rId37"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="758">
   <si>
     <t>PriceType</t>
   </si>
@@ -2239,6 +2242,102 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>AutoPO type</t>
+  </si>
+  <si>
+    <t>AutoPO</t>
+  </si>
+  <si>
+    <t>DEEPAM OIL</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>A S E</t>
+  </si>
+  <si>
+    <t>AASHIRVAAD 7</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISH LUNCH BOX RS </t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>Bulkchild</t>
+  </si>
+  <si>
+    <t>Presupplywise</t>
+  </si>
+  <si>
+    <t>Basedoninventory</t>
+  </si>
+  <si>
+    <t>Soldqty</t>
+  </si>
+  <si>
+    <t>Reorderbynoofdays</t>
+  </si>
+  <si>
+    <t>Soldqtyinlastpurchase</t>
+  </si>
+  <si>
+    <t>Reqtycycledays</t>
+  </si>
+  <si>
+    <t>AutoPO1</t>
+  </si>
+  <si>
+    <t>AutoPO2</t>
+  </si>
+  <si>
+    <t>Vendorcatelog type</t>
+  </si>
+  <si>
+    <t>Vendorcatelog</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>HOME CARE</t>
+  </si>
+  <si>
+    <t>J K</t>
+  </si>
+  <si>
+    <t>1TO3 7</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>Vendorcatelog1</t>
+  </si>
+  <si>
+    <t>ConsolidatedPO type</t>
+  </si>
+  <si>
+    <t>ConsolidatedPO</t>
+  </si>
+  <si>
+    <t>LocationCode1</t>
+  </si>
+  <si>
+    <t>LocationCode2</t>
   </si>
 </sst>
 </file>
@@ -4647,7 +4746,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4757,6 +4856,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5404,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3209F4-4BF4-BE46-9A88-0275C6D41279}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5485,167 +5585,515 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19982059-1F63-F749-8331-FB5414FE2CB0}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" customWidth="1"/>
+    <col min="27" max="27" width="27" customWidth="1"/>
+    <col min="28" max="28" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:28" ht="16">
       <c r="A1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="S1" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2">
+        <v>727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="I2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="J2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>734</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" t="s">
+        <v>735</v>
+      </c>
+      <c r="P2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>744</v>
+      </c>
+      <c r="U3" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>745</v>
+      </c>
+      <c r="N4">
+        <v>859526</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF76B2A-C7E4-D74E-8C0F-5E9B91B67F25}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="B1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>747</v>
+      </c>
+      <c r="B2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>734</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>637</v>
+      </c>
+      <c r="N2">
+        <v>854173</v>
+      </c>
+      <c r="O2">
+        <v>27500</v>
+      </c>
+      <c r="P2">
+        <v>854173</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC5E34-9C80-7145-9AB2-7D9C4E1B5359}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:30" ht="16">
       <c r="A1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="M1" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="N1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2">
+        <v>755</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G2" t="s">
+        <v>729</v>
+      </c>
+      <c r="H2" t="s">
+        <v>730</v>
+      </c>
+      <c r="I2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L2" t="s">
+        <v>733</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>734</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>735</v>
+      </c>
+      <c r="R2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="V2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5702,6 +6150,171 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5744,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5812,7 +6425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5849,7 +6462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -5933,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CFE54-EF78-B749-940C-EE4B0AEC8FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C55B2F-ACBC-A545-8A29-6D30EDEB34FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="22" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,16 @@
     <sheet name="AutoPO" sheetId="36" r:id="rId27"/>
     <sheet name="Vendorcatelog" sheetId="37" r:id="rId28"/>
     <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
-    <sheet name="Tax" sheetId="14" r:id="rId30"/>
-    <sheet name="Uom" sheetId="15" r:id="rId31"/>
-    <sheet name="Section" sheetId="16" r:id="rId32"/>
-    <sheet name="Bin" sheetId="17" r:id="rId33"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId34"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId35"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId36"/>
-    <sheet name="Size" sheetId="21" r:id="rId37"/>
+    <sheet name="Inventorychange" sheetId="39" r:id="rId30"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId31"/>
+    <sheet name="Tax" sheetId="14" r:id="rId32"/>
+    <sheet name="Uom" sheetId="15" r:id="rId33"/>
+    <sheet name="Section" sheetId="16" r:id="rId34"/>
+    <sheet name="Bin" sheetId="17" r:id="rId35"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId36"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId37"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId38"/>
+    <sheet name="Size" sheetId="21" r:id="rId39"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="771">
   <si>
     <t>PriceType</t>
   </si>
@@ -2338,6 +2340,45 @@
   </si>
   <si>
     <t>LocationCode2</t>
+  </si>
+  <si>
+    <t>Inventorychange type</t>
+  </si>
+  <si>
+    <t>Inventorychange</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>I0500</t>
+  </si>
+  <si>
+    <t>Batch3</t>
+  </si>
+  <si>
+    <t>Selectfield</t>
+  </si>
+  <si>
+    <t>Changefield</t>
+  </si>
+  <si>
+    <t>Inventorychange1</t>
+  </si>
+  <si>
+    <t>Inventorychange2</t>
+  </si>
+  <si>
+    <t>Inventorychange3</t>
+  </si>
+  <si>
+    <t>InventoryCostReset type</t>
+  </si>
+  <si>
+    <t>InventoryCostReset</t>
   </si>
 </sst>
 </file>
@@ -5410,7 +5451,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5589,7 +5630,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5923,8 +5964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC5E34-9C80-7145-9AB2-7D9C4E1B5359}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6150,6 +6191,379 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="16">
+      <c r="A1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>734</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" t="s">
+        <v>735</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>766</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>768</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="16">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>734</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" t="s">
+        <v>735</v>
+      </c>
+      <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6225,7 +6639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6271,7 +6685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6314,7 +6728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6357,7 +6771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6425,7 +6839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6462,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6546,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C55B2F-ACBC-A545-8A29-6D30EDEB34FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55251E-D271-3949-9B62-0A90BABA5598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="22" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,16 @@
     <sheet name="Vendorcatelog" sheetId="37" r:id="rId28"/>
     <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
     <sheet name="Inventorychange" sheetId="39" r:id="rId30"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId31"/>
-    <sheet name="Tax" sheetId="14" r:id="rId32"/>
-    <sheet name="Uom" sheetId="15" r:id="rId33"/>
-    <sheet name="Section" sheetId="16" r:id="rId34"/>
-    <sheet name="Bin" sheetId="17" r:id="rId35"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId36"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId37"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId38"/>
-    <sheet name="Size" sheetId="21" r:id="rId39"/>
+    <sheet name="Inventorymovement" sheetId="41" r:id="rId31"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId32"/>
+    <sheet name="Tax" sheetId="14" r:id="rId33"/>
+    <sheet name="Uom" sheetId="15" r:id="rId34"/>
+    <sheet name="Section" sheetId="16" r:id="rId35"/>
+    <sheet name="Bin" sheetId="17" r:id="rId36"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId37"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId38"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId39"/>
+    <sheet name="Size" sheetId="21" r:id="rId40"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="774">
   <si>
     <t>PriceType</t>
   </si>
@@ -2379,6 +2380,15 @@
   </si>
   <si>
     <t>InventoryCostReset</t>
+  </si>
+  <si>
+    <t>Inventorymovement type</t>
+  </si>
+  <si>
+    <t>Inventorymovement</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -5964,7 +5974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC5E34-9C80-7145-9AB2-7D9C4E1B5359}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -6194,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6398,16 +6408,158 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16">
+      <c r="A1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F2" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>734</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
+        <v>735</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -6563,7 +6715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6639,7 +6791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6685,7 +6837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6728,7 +6880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6771,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6839,7 +6991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6876,7 +7028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6952,46 +7104,6 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -7114,6 +7226,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55251E-D271-3949-9B62-0A90BABA5598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17143D-7023-1E40-B6F5-59154F3A1423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -44,15 +44,18 @@
     <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
     <sheet name="Inventorychange" sheetId="39" r:id="rId30"/>
     <sheet name="Inventorymovement" sheetId="41" r:id="rId31"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId32"/>
-    <sheet name="Tax" sheetId="14" r:id="rId33"/>
-    <sheet name="Uom" sheetId="15" r:id="rId34"/>
-    <sheet name="Section" sheetId="16" r:id="rId35"/>
-    <sheet name="Bin" sheetId="17" r:id="rId36"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId37"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId38"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId39"/>
-    <sheet name="Size" sheetId="21" r:id="rId40"/>
+    <sheet name="Origion" sheetId="42" r:id="rId32"/>
+    <sheet name="Transport" sheetId="43" r:id="rId33"/>
+    <sheet name="Barcode" sheetId="44" r:id="rId34"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId35"/>
+    <sheet name="Tax" sheetId="14" r:id="rId36"/>
+    <sheet name="Uom" sheetId="15" r:id="rId37"/>
+    <sheet name="Section" sheetId="16" r:id="rId38"/>
+    <sheet name="Bin" sheetId="17" r:id="rId39"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId40"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId41"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId42"/>
+    <sheet name="Size" sheetId="21" r:id="rId43"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="791">
   <si>
     <t>PriceType</t>
   </si>
@@ -2389,6 +2392,57 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>Origion type</t>
+  </si>
+  <si>
+    <t>OrigionCode</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Transport type</t>
+  </si>
+  <si>
+    <t>Transportname</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>sdas</t>
+  </si>
+  <si>
+    <t>g@gmail.com</t>
+  </si>
+  <si>
+    <t>www.sadf.com</t>
+  </si>
+  <si>
+    <t>Barcode type</t>
+  </si>
+  <si>
+    <t>Batch4</t>
+  </si>
+  <si>
+    <t>Dateformat</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Printername</t>
+  </si>
+  <si>
+    <t>dd/MM/yy</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2453,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2482,6 +2536,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2530,10 +2592,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2552,8 +2615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6205,7 +6270,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6411,8 +6476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6541,10 +6606,252 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1231322132</v>
+      </c>
+      <c r="G2">
+        <v>21122112121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>781</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16">
+      <c r="A1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>44474</v>
+      </c>
+      <c r="M2" t="s">
+        <v>789</v>
+      </c>
+      <c r="N2" t="s">
+        <v>790</v>
+      </c>
+      <c r="O2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -6715,7 +7022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6791,7 +7098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6837,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6880,7 +7187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6915,195 +7222,6 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>649</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16">
-      <c r="A1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
         <v>1</v>
       </c>
     </row>
@@ -7227,6 +7345,195 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B17143D-7023-1E40-B6F5-59154F3A1423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542861EF-DADE-E048-A879-2AB0FD5FB3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="793">
   <si>
     <t>PriceType</t>
   </si>
@@ -2443,6 +2443,12 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Barcode1</t>
   </si>
 </sst>
 </file>
@@ -6750,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6816,7 +6822,7 @@
         <v>748</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>207</v>
+        <v>791</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6828,7 +6834,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -6846,8 +6852,44 @@
         <v>146</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>44474</v>
+      </c>
+      <c r="M3" t="s">
+        <v>789</v>
+      </c>
+      <c r="N3" t="s">
+        <v>790</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542861EF-DADE-E048-A879-2AB0FD5FB3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E825EADB-7477-644A-B70E-1BF55D12679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="795">
   <si>
     <t>PriceType</t>
   </si>
@@ -2445,10 +2445,16 @@
     <t>1,2</t>
   </si>
   <si>
+    <t>Barcode1</t>
+  </si>
+  <si>
     <t>0000</t>
   </si>
   <si>
-    <t>Barcode1</t>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX24"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="AI4" sqref="AI4"/>
@@ -2969,21 +2975,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="22.83203125" style="1"/>
-    <col min="3" max="3" width="35.5" style="1"/>
-    <col min="4" max="4" width="48.5" style="1"/>
-    <col min="5" max="5" width="43.5" style="1"/>
-    <col min="6" max="6" width="31.83203125" style="1"/>
-    <col min="7" max="7" width="27.1640625" style="1"/>
-    <col min="8" max="8" width="32.5" style="1"/>
-    <col min="9" max="9" width="27.1640625" style="1"/>
-    <col min="10" max="10" width="18.6640625" style="1"/>
-    <col min="11" max="11" width="20.6640625" style="1"/>
-    <col min="12" max="12" width="47" style="1"/>
-    <col min="13" max="13" width="36.33203125" style="1"/>
-    <col min="14" max="27" width="21.5"/>
-    <col min="28" max="28" width="25.83203125"/>
-    <col min="29" max="1025" width="21.5"/>
+    <col min="1" max="2" style="1" width="22.83203125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="35.5" collapsed="true"/>
+    <col min="4" max="4" style="1" width="48.5" collapsed="true"/>
+    <col min="5" max="5" style="1" width="43.5" collapsed="true"/>
+    <col min="6" max="6" style="1" width="31.83203125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="27.1640625" collapsed="true"/>
+    <col min="8" max="8" style="1" width="32.5" collapsed="true"/>
+    <col min="9" max="9" style="1" width="27.1640625" collapsed="true"/>
+    <col min="10" max="10" style="1" width="18.6640625" collapsed="true"/>
+    <col min="11" max="11" style="1" width="20.6640625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="47.0" collapsed="true"/>
+    <col min="13" max="13" style="1" width="36.33203125" collapsed="true"/>
+    <col min="14" max="27" width="21.5" collapsed="true"/>
+    <col min="28" max="28" width="25.83203125" collapsed="true"/>
+    <col min="29" max="1025" width="21.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -4380,9 +4386,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4422,9 +4428,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4464,9 +4470,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4504,14 +4510,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16">
@@ -4637,15 +4643,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
@@ -4812,10 +4818,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -4873,11 +4879,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16">
@@ -5027,8 +5033,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5068,8 +5074,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
@@ -5125,7 +5131,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AML3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -5133,8 +5139,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="1026" width="21.5"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="1026" width="21.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5204,10 +5210,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -5281,12 +5287,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16">
@@ -5432,9 +5438,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -5489,9 +5495,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -5537,7 +5543,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -5577,10 +5583,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -5632,9 +5638,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -5716,21 +5722,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" customWidth="1"/>
-    <col min="23" max="23" width="17.1640625" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="26" max="26" width="22.33203125" customWidth="1"/>
-    <col min="27" max="27" width="27" customWidth="1"/>
-    <col min="28" max="28" width="17.5" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -5913,15 +5919,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
@@ -6051,12 +6057,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16">
@@ -6227,9 +6233,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6281,18 +6287,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -6488,10 +6494,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16">
@@ -6626,8 +6632,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -6667,12 +6673,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -6747,8 +6753,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
+    <hyperlink ref="J2" r:id="rId6" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6759,15 +6765,15 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16">
@@ -6822,7 +6828,7 @@
         <v>748</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6854,7 +6860,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>207</v>
@@ -6885,6 +6891,16 @@
       </c>
       <c r="O3" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="Q4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="Q5" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -6903,12 +6919,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -7074,7 +7090,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7150,7 +7166,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7282,14 +7298,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7396,11 +7412,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
@@ -7501,9 +7517,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -7585,7 +7601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -7625,9 +7641,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7673,9 +7689,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7733,10 +7749,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="8"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="4" max="4" style="8" width="9.1640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -18439,9 +18455,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18481,10 +18497,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74733F0E-A6D5-9145-81F1-DF7F4C63B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CFBE3-00B5-234E-9FE1-9231CDE41B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <sheet name="Shelf" sheetId="19" r:id="rId41"/>
     <sheet name="Warehouse" sheetId="20" r:id="rId42"/>
     <sheet name="Size" sheetId="21" r:id="rId43"/>
+    <sheet name="Sheet43" sheetId="45" r:id="rId44"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="871">
   <si>
     <t>PriceType</t>
   </si>
@@ -2409,9 +2410,6 @@
     <t>Brand1</t>
   </si>
   <si>
-    <t>calculations</t>
-  </si>
-  <si>
     <t>Purchasetype</t>
   </si>
   <si>
@@ -2439,9 +2437,6 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>384.00</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -2521,6 +2516,174 @@
   </si>
   <si>
     <t>465.41</t>
+  </si>
+  <si>
+    <t>Inventorychange4</t>
+  </si>
+  <si>
+    <t>EarnedMargin</t>
+  </si>
+  <si>
+    <t>Earnedmarginclick</t>
+  </si>
+  <si>
+    <t>MRPclick</t>
+  </si>
+  <si>
+    <t>Netcostclick</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>NewToDate</t>
+  </si>
+  <si>
+    <t>NewFromDate</t>
+  </si>
+  <si>
+    <t>Selectall</t>
+  </si>
+  <si>
+    <t>MinQty</t>
+  </si>
+  <si>
+    <t>MaxQty</t>
+  </si>
+  <si>
+    <t>ReorderQty</t>
+  </si>
+  <si>
+    <t>Orderby</t>
+  </si>
+  <si>
+    <t>Cycledays</t>
+  </si>
+  <si>
+    <t>CheckBox1</t>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+  </si>
+  <si>
+    <t>Demand Forecast</t>
+  </si>
+  <si>
+    <t>Expireddate</t>
+  </si>
+  <si>
+    <t>SerialnoEntry</t>
+  </si>
+  <si>
+    <t>Packageitem</t>
+  </si>
+  <si>
+    <t>Loyality</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>ShelfStorage</t>
+  </si>
+  <si>
+    <t>HideDataOnBarcode</t>
+  </si>
+  <si>
+    <t>Markingitem</t>
+  </si>
+  <si>
+    <t>NeedBarcodePrint</t>
+  </si>
+  <si>
+    <t>AllowCostEditinGRN</t>
+  </si>
+  <si>
+    <t>Weightbased</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+  </si>
+  <si>
+    <t>GRNPurchase</t>
+  </si>
+  <si>
+    <t>PointOfSale</t>
+  </si>
+  <si>
+    <t>AllowNegative</t>
+  </si>
+  <si>
+    <t>TransferDC</t>
+  </si>
+  <si>
+    <t>SalesReturn</t>
+  </si>
+  <si>
+    <t>OrderBooking</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Quatation</t>
+  </si>
+  <si>
+    <t>OnlineOrder</t>
+  </si>
+  <si>
+    <t>Purchasereturn</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Cyc.Days</t>
+  </si>
+  <si>
+    <t>inventorysearch</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>Inventorysearch</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>cost2</t>
+  </si>
+  <si>
+    <t>cost3</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>cost4</t>
+  </si>
+  <si>
+    <t>cost5</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>AGARBATIES 7</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2694,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2624,6 +2787,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2676,7 +2846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2700,6 +2870,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3039,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMR29"/>
+  <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BE10" sqref="BE10"/>
+    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" style="1" width="22.83203125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="35.5" collapsed="true"/>
-    <col min="4" max="4" style="1" width="48.5" collapsed="true"/>
-    <col min="5" max="5" style="1" width="43.5" collapsed="true"/>
-    <col min="6" max="6" style="1" width="31.83203125" collapsed="true"/>
-    <col min="7" max="7" style="1" width="27.1640625" collapsed="true"/>
-    <col min="8" max="8" style="1" width="32.5" collapsed="true"/>
-    <col min="9" max="9" style="1" width="27.1640625" collapsed="true"/>
-    <col min="10" max="10" style="1" width="18.6640625" collapsed="true"/>
-    <col min="11" max="11" style="1" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="47.0" collapsed="true"/>
-    <col min="13" max="13" style="1" width="36.33203125" collapsed="true"/>
-    <col min="14" max="17" width="21.5" collapsed="true"/>
-    <col min="21" max="30" width="21.5" collapsed="true"/>
-    <col min="31" max="31" width="25.83203125" collapsed="true"/>
-    <col min="32" max="53" width="21.5" collapsed="true"/>
-    <col min="54" max="54" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="57" max="57" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="58" max="1032" width="21.5" collapsed="true"/>
+    <col min="1" max="2" width="22.83203125" style="1" collapsed="1"/>
+    <col min="3" max="3" width="35.5" style="1" collapsed="1"/>
+    <col min="4" max="4" width="48.5" style="1" collapsed="1"/>
+    <col min="5" max="5" width="43.5" style="1" collapsed="1"/>
+    <col min="6" max="6" width="31.83203125" style="1" collapsed="1"/>
+    <col min="7" max="7" width="27.1640625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="32.5" style="1" collapsed="1"/>
+    <col min="9" max="9" width="27.1640625" style="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" collapsed="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="47" style="1" collapsed="1"/>
+    <col min="13" max="13" width="36.33203125" style="1" collapsed="1"/>
+    <col min="14" max="17" width="21.5" collapsed="1"/>
+    <col min="21" max="30" width="21.5" collapsed="1"/>
+    <col min="31" max="31" width="25.83203125" collapsed="1"/>
+    <col min="32" max="53" width="21.5" collapsed="1"/>
+    <col min="54" max="54" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="17" customWidth="1" collapsed="1"/>
+    <col min="58" max="1032" width="21.5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16">
+    <row r="1" spans="1:88" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3121,13 +3292,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -3229,25 +3400,112 @@
         <v>49</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BC1" t="s">
         <v>731</v>
       </c>
       <c r="BD1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="BE1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
+      <c r="BF1" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="BS1" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="BT1" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="BU1" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" ht="16">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3255,16 +3513,16 @@
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>790</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>80</v>
@@ -3272,8 +3530,11 @@
       <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>864</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>789</v>
+        <v>861</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>54</v>
@@ -3282,22 +3543,22 @@
         <v>448</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="U2" t="s">
         <v>55</v>
@@ -3324,11 +3585,13 @@
         <v>61</v>
       </c>
       <c r="AC2" t="s">
-        <v>783</v>
-      </c>
-      <c r="AD2" s="5"/>
+        <v>782</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>1</v>
+      </c>
       <c r="AE2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF2" t="s">
         <v>64</v>
@@ -3349,7 +3612,7 @@
         <v>69</v>
       </c>
       <c r="AM2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AN2" t="s">
         <v>70</v>
@@ -3382,34 +3645,52 @@
         <v>12.456</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AZ2">
         <v>122.5</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BB2" t="s">
-        <v>784</v>
-      </c>
-      <c r="BC2">
-        <v>859575</v>
+        <v>783</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>859601</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="BE2">
-        <v>859575</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>777</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="16">
+        <v>790</v>
+      </c>
+      <c r="BE2" s="8">
+        <v>859601</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
+        <v>9</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" ht="16">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -3417,16 +3698,16 @@
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>52</v>
@@ -3450,22 +3731,22 @@
         <v>448</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U3" t="s">
         <v>55</v>
@@ -3492,11 +3773,11 @@
         <v>61</v>
       </c>
       <c r="AC3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD3" s="5"/>
       <c r="AE3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF3" t="s">
         <v>64</v>
@@ -3517,7 +3798,7 @@
         <v>69</v>
       </c>
       <c r="AM3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AN3" t="s">
         <v>70</v>
@@ -3550,28 +3831,28 @@
         <v>12.456</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AZ3">
         <v>122.5</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BB3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="BC3" s="8">
         <v>859593</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BE3">
         <v>859593</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="16">
+    <row r="4" spans="1:88" ht="16">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -3579,16 +3860,16 @@
         <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -3603,7 +3884,7 @@
         <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>54</v>
@@ -3612,22 +3893,22 @@
         <v>448</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U4" t="s">
         <v>55</v>
@@ -3654,11 +3935,11 @@
         <v>61</v>
       </c>
       <c r="AC4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF4" t="s">
         <v>64</v>
@@ -3679,7 +3960,7 @@
         <v>69</v>
       </c>
       <c r="AM4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AN4" t="s">
         <v>70</v>
@@ -3712,28 +3993,28 @@
         <v>12.456</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AZ4">
         <v>122.5</v>
       </c>
       <c r="BA4" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BB4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BC4" s="8">
         <v>859594</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BE4">
         <v>859594</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="16">
+    <row r="5" spans="1:88" ht="16">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -3741,16 +4022,16 @@
         <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>77</v>
@@ -3771,22 +4052,22 @@
         <v>448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U5" t="s">
         <v>55</v>
@@ -3813,11 +4094,11 @@
         <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF5" t="s">
         <v>64</v>
@@ -3838,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="AM5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AN5" t="s">
         <v>70</v>
@@ -3871,28 +4152,28 @@
         <v>12.456</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AZ5">
         <v>122.5</v>
       </c>
       <c r="BA5" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BB5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="BC5" s="8">
         <v>859595</v>
       </c>
       <c r="BD5" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BE5">
         <v>859595</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="16">
+    <row r="6" spans="1:88" ht="16">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -3900,16 +4181,16 @@
         <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>52</v>
@@ -3924,7 +4205,7 @@
         <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>54</v>
@@ -3933,22 +4214,22 @@
         <v>448</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
@@ -3975,11 +4256,11 @@
         <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF6" t="s">
         <v>64</v>
@@ -4000,7 +4281,7 @@
         <v>69</v>
       </c>
       <c r="AM6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AN6" t="s">
         <v>70</v>
@@ -4033,28 +4314,28 @@
         <v>12.456</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AZ6">
         <v>122.5</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BB6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="BC6" s="8">
         <v>859597</v>
       </c>
       <c r="BD6" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BE6">
         <v>859597</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:88">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4371,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:88">
       <c r="B8" s="1" t="s">
         <v>87</v>
       </c>
@@ -4149,7 +4430,7 @@
         <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD8" s="5">
         <v>1</v>
@@ -4158,7 +4439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:88">
       <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
@@ -4184,7 +4465,7 @@
         <v>96.04</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:88">
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
@@ -4210,7 +4491,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:88">
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
@@ -4236,7 +4517,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:88">
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
@@ -4262,7 +4543,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:88">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4579,7 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:88">
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -4357,7 +4638,7 @@
         <v>61</v>
       </c>
       <c r="AC14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD14" s="5">
         <v>1</v>
@@ -4384,7 +4665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:88">
       <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
@@ -4410,7 +4691,7 @@
         <v>485.1</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:88">
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -4436,7 +4717,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:88">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4753,7 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:88">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,7 +4812,7 @@
         <v>61</v>
       </c>
       <c r="AC18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD18" s="5">
         <v>1</v>
@@ -4558,7 +4839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:88">
       <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
@@ -4584,7 +4865,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:88">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -4610,7 +4891,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:88">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4927,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:88">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
@@ -4705,7 +4986,7 @@
         <v>61</v>
       </c>
       <c r="AC22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD22" s="5">
         <v>1</v>
@@ -4735,7 +5016,7 @@
       <c r="BD22" s="18"/>
       <c r="BE22" s="18"/>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:88">
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
@@ -4761,7 +5042,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:88">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
@@ -4829,7 +5110,7 @@
         <v>61</v>
       </c>
       <c r="AC24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AD24" s="5">
         <v>1</v>
@@ -4856,28 +5137,250 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
-      <c r="AZ25" t="s">
+    <row r="25" spans="1:88">
+      <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>10</v>
+      </c>
+      <c r="BI25" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="BJ25">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="BL25" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="BO25" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ25" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88">
+      <c r="A26" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="CJ26" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88" ht="16">
+      <c r="A27" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27">
+        <v>448</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD27" s="5"/>
+      <c r="AE27" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" t="s">
+        <v>783</v>
+      </c>
+      <c r="BC27" s="8">
+        <v>859601</v>
+      </c>
+      <c r="BD27" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="BE27" s="8">
+        <v>859601</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>10</v>
+      </c>
+      <c r="BH27">
+        <v>9</v>
+      </c>
+      <c r="BI27" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="BJ27">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="BL27" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="BO27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88">
+      <c r="A28" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="BA28" s="7"/>
+    </row>
+    <row r="29" spans="1:88">
+      <c r="A29" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88">
+      <c r="A30" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="V30" t="s">
+        <v>870</v>
+      </c>
+      <c r="AD30" s="14"/>
+    </row>
+    <row r="46" spans="53:53">
+      <c r="BA46" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="48" spans="53:53">
+      <c r="BA48" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="26" spans="1:57">
-      <c r="AZ26" t="s">
+    <row r="49" spans="88:89">
+      <c r="CK49" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="27" spans="1:57">
-      <c r="BA27" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57">
-      <c r="BA28" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57">
-      <c r="AZ29" t="s">
+    <row r="50" spans="88:89">
+      <c r="CJ50" t="s">
         <v>777</v>
       </c>
     </row>
@@ -4897,9 +5400,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4939,9 +5442,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4981,9 +5484,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5021,14 +5524,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16">
@@ -5154,15 +5657,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.5" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.83203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
@@ -5329,10 +5832,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -5390,11 +5893,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16">
@@ -5544,8 +6047,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5585,8 +6088,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
@@ -5642,7 +6145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AML5"/>
+  <dimension ref="A1:AML10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -5650,8 +6153,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="1026" width="21.5" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="1026" width="21.5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5715,27 +6218,27 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="D6" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="D8" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="D9" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="D10" t="s">
         <v>777</v>
       </c>
@@ -5756,10 +6259,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -5833,12 +6336,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.1640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16">
@@ -5984,9 +6487,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -6041,9 +6544,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="1" max="1" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -6089,7 +6592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -6129,10 +6632,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="1" max="1" width="31.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -6184,9 +6687,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="1" max="1" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -6268,21 +6771,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.1640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="27" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -6465,15 +6968,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
@@ -6603,12 +7106,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.1640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.1640625" collapsed="true"/>
+    <col min="1" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16">
@@ -6779,9 +7282,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6825,29 +7328,34 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="17" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16">
+    <row r="1" spans="1:37" ht="16">
       <c r="A1" t="s">
         <v>741</v>
       </c>
@@ -6900,57 +7408,84 @@
         <v>31</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>743</v>
+        <v>137</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AG1" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>742</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D2" t="s">
         <v>793</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F2" t="s">
         <v>794</v>
-      </c>
-      <c r="D2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F2" t="s">
-        <v>796</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>715</v>
@@ -6983,46 +7518,129 @@
         <v>73</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" t="s">
         <v>797</v>
       </c>
-      <c r="R2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>749</v>
       </c>
-      <c r="U3" s="5">
+      <c r="S3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>750</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AH4" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AI4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>751</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="AB5" s="7" t="s">
+      <c r="AK5" s="7" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>815</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7040,10 +7658,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16">
@@ -7178,8 +7796,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -7219,12 +7837,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.1640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -7299,8 +7917,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId11" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
-    <hyperlink ref="J2" r:id="rId12" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7316,10 +7934,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
@@ -7470,12 +8088,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -7641,7 +8259,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7717,7 +8335,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7849,14 +8467,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7963,11 +8581,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
@@ -8068,9 +8686,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="1" max="1" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -8152,7 +8770,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -8175,6 +8793,27 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -8192,9 +8831,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8240,9 +8879,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8309,10 +8948,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="4" max="4" style="7" width="9.1640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1640625" style="7" collapsed="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -19015,9 +19654,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="1" max="1" width="11.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -19057,10 +19696,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CFBE3-00B5-234E-9FE1-9231CDE41B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DA552-E68F-8942-8557-B228F14DF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="26" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <sheet name="Shelf" sheetId="19" r:id="rId41"/>
     <sheet name="Warehouse" sheetId="20" r:id="rId42"/>
     <sheet name="Size" sheetId="21" r:id="rId43"/>
-    <sheet name="Sheet43" sheetId="45" r:id="rId44"/>
+    <sheet name="ReorderSettings" sheetId="45" r:id="rId44"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="875">
   <si>
     <t>PriceType</t>
   </si>
@@ -2308,9 +2308,6 @@
     <t>GD</t>
   </si>
   <si>
-    <t>I0500</t>
-  </si>
-  <si>
     <t>Batch3</t>
   </si>
   <si>
@@ -2674,16 +2671,31 @@
     <t>cost5</t>
   </si>
   <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>354.00</t>
   </si>
   <si>
     <t>AGARBATIES 7</t>
+  </si>
+  <si>
+    <t>ReorderSettings type</t>
+  </si>
+  <si>
+    <t>ReorderSettings</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>Inventorychange5</t>
+  </si>
+  <si>
+    <t>V00008</t>
+  </si>
+  <si>
+    <t>InventoryCostReset1</t>
+  </si>
+  <si>
+    <t>AverageCost</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2706,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2794,6 +2806,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2846,7 +2864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2871,6 +2889,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3212,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3292,13 +3311,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -3400,109 +3419,109 @@
         <v>49</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="BC1" t="s">
         <v>731</v>
       </c>
       <c r="BD1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BE1" s="9" t="s">
         <v>161</v>
       </c>
       <c r="BF1" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="BG1" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="BL1" s="9" t="s">
-        <v>832</v>
-      </c>
       <c r="BM1" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="BN1" s="9" t="s">
         <v>834</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>835</v>
       </c>
       <c r="BO1" s="9" t="s">
         <v>710</v>
       </c>
       <c r="BP1" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="CI1" s="9" t="s">
-        <v>855</v>
-      </c>
       <c r="CJ1" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:88" ht="16">
@@ -3513,28 +3532,28 @@
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>787</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>54</v>
@@ -3543,22 +3562,22 @@
         <v>448</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U2" t="s">
         <v>55</v>
@@ -3585,13 +3604,13 @@
         <v>61</v>
       </c>
       <c r="AC2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD2" s="14">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF2" t="s">
         <v>64</v>
@@ -3612,7 +3631,7 @@
         <v>69</v>
       </c>
       <c r="AM2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN2" t="s">
         <v>70</v>
@@ -3645,25 +3664,25 @@
         <v>12.456</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AZ2">
         <v>122.5</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="BC2" s="8">
-        <v>859601</v>
+        <v>859607</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE2" s="8">
-        <v>859601</v>
+        <v>859607</v>
       </c>
       <c r="BF2">
         <v>1</v>
@@ -3675,16 +3694,16 @@
         <v>9</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BJ2">
         <v>1</v>
       </c>
       <c r="BK2" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BL2" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BO2" s="5">
         <v>1</v>
@@ -3698,16 +3717,16 @@
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>52</v>
@@ -3731,22 +3750,22 @@
         <v>448</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U3" t="s">
         <v>55</v>
@@ -3773,11 +3792,11 @@
         <v>61</v>
       </c>
       <c r="AC3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD3" s="5"/>
       <c r="AE3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF3" t="s">
         <v>64</v>
@@ -3798,7 +3817,7 @@
         <v>69</v>
       </c>
       <c r="AM3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN3" t="s">
         <v>70</v>
@@ -3831,22 +3850,22 @@
         <v>12.456</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AZ3">
         <v>122.5</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="BC3" s="8">
         <v>859593</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE3">
         <v>859593</v>
@@ -3860,16 +3879,16 @@
         <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -3884,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>54</v>
@@ -3893,22 +3912,22 @@
         <v>448</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U4" t="s">
         <v>55</v>
@@ -3935,11 +3954,11 @@
         <v>61</v>
       </c>
       <c r="AC4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF4" t="s">
         <v>64</v>
@@ -3960,7 +3979,7 @@
         <v>69</v>
       </c>
       <c r="AM4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN4" t="s">
         <v>70</v>
@@ -3993,22 +4012,22 @@
         <v>12.456</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AZ4">
         <v>122.5</v>
       </c>
       <c r="BA4" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BC4" s="8">
         <v>859594</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE4">
         <v>859594</v>
@@ -4022,16 +4041,16 @@
         <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>77</v>
@@ -4052,22 +4071,22 @@
         <v>448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U5" t="s">
         <v>55</v>
@@ -4094,11 +4113,11 @@
         <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF5" t="s">
         <v>64</v>
@@ -4119,7 +4138,7 @@
         <v>69</v>
       </c>
       <c r="AM5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN5" t="s">
         <v>70</v>
@@ -4152,22 +4171,22 @@
         <v>12.456</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AZ5">
         <v>122.5</v>
       </c>
       <c r="BA5" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="BC5" s="8">
         <v>859595</v>
       </c>
       <c r="BD5" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE5">
         <v>859595</v>
@@ -4181,16 +4200,16 @@
         <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>52</v>
@@ -4205,7 +4224,7 @@
         <v>77</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>54</v>
@@ -4214,22 +4233,22 @@
         <v>448</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
@@ -4256,11 +4275,11 @@
         <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF6" t="s">
         <v>64</v>
@@ -4281,7 +4300,7 @@
         <v>69</v>
       </c>
       <c r="AM6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN6" t="s">
         <v>70</v>
@@ -4314,22 +4333,22 @@
         <v>12.456</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AZ6">
         <v>122.5</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="BC6" s="8">
         <v>859597</v>
       </c>
       <c r="BD6" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE6">
         <v>859597</v>
@@ -4430,7 +4449,7 @@
         <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD8" s="5">
         <v>1</v>
@@ -4638,7 +4657,7 @@
         <v>61</v>
       </c>
       <c r="AC14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD14" s="5">
         <v>1</v>
@@ -4812,7 +4831,7 @@
         <v>61</v>
       </c>
       <c r="AC18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD18" s="5">
         <v>1</v>
@@ -4986,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="AC22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD22" s="5">
         <v>1</v>
@@ -5110,7 +5129,7 @@
         <v>61</v>
       </c>
       <c r="AC24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD24" s="5">
         <v>1</v>
@@ -5148,50 +5167,50 @@
         <v>10</v>
       </c>
       <c r="BI25" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BJ25">
         <v>1</v>
       </c>
       <c r="BK25" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BL25" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BO25" s="5">
         <v>1</v>
       </c>
       <c r="CJ25" s="1" t="s">
-        <v>859</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:88">
       <c r="A26" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="CJ26" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:88" ht="16">
       <c r="A27" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>80</v>
@@ -5200,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>54</v>
@@ -5209,22 +5228,22 @@
         <v>448</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
@@ -5251,23 +5270,23 @@
         <v>61</v>
       </c>
       <c r="AC27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AD27" s="5"/>
       <c r="AE27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AJ27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="BA27" s="7"/>
       <c r="BB27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="BC27" s="8">
         <v>859601</v>
       </c>
       <c r="BD27" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="BE27" s="8">
         <v>859601</v>
@@ -5282,16 +5301,16 @@
         <v>9</v>
       </c>
       <c r="BI27" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BJ27">
         <v>1</v>
       </c>
       <c r="BK27" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="BL27" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="BO27" s="5">
         <v>1</v>
@@ -5299,31 +5318,31 @@
     </row>
     <row r="28" spans="1:88">
       <c r="A28" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
@@ -5331,7 +5350,7 @@
     </row>
     <row r="29" spans="1:88">
       <c r="A29" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>81</v>
@@ -5340,48 +5359,48 @@
         <v>85</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:88">
       <c r="A30" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="V30" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AD30" s="14"/>
     </row>
     <row r="46" spans="53:53">
       <c r="BA46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="53:53">
       <c r="BA48" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="88:89">
       <c r="CK49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="88:89">
       <c r="CJ50" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -6210,37 +6229,37 @@
     </row>
     <row r="4" spans="1:8">
       <c r="H4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="H5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="D6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -7328,10 +7347,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7414,52 +7433,52 @@
         <v>26</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>817</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>818</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Y1" s="9" t="s">
         <v>629</v>
       </c>
       <c r="Z1" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>822</v>
       </c>
       <c r="AB1" s="8" t="s">
         <v>604</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AE1" s="9" t="s">
         <v>173</v>
       </c>
       <c r="AF1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="AG1" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>748</v>
       </c>
       <c r="AJ1" s="8" t="s">
         <v>136</v>
@@ -7473,19 +7492,19 @@
         <v>742</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
         <v>791</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>792</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
         <v>793</v>
-      </c>
-      <c r="E2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F2" t="s">
-        <v>794</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>715</v>
@@ -7518,7 +7537,7 @@
         <v>73</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S2" s="5">
         <v>1</v>
@@ -7527,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>682</v>
@@ -7557,12 +7576,12 @@
         <v>18</v>
       </c>
       <c r="AI2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S3" s="5">
         <v>1</v>
@@ -7578,18 +7597,18 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AH4" t="s">
         <v>18</v>
       </c>
       <c r="AI4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ5" s="7" t="s">
         <v>682</v>
@@ -7600,7 +7619,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>191</v>
@@ -7614,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -7641,6 +7660,20 @@
       </c>
       <c r="AG6" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>871</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +7699,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="16">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>27</v>
@@ -7729,7 +7762,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>144</v>
@@ -7765,7 +7798,7 @@
         <v>682</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
@@ -7802,10 +7835,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>758</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>179</v>
@@ -7847,13 +7880,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16">
       <c r="A1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>762</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>623</v>
@@ -7874,7 +7907,7 @@
         <v>708</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>26</v>
@@ -7882,7 +7915,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -7903,13 +7936,13 @@
         <v>21122112121</v>
       </c>
       <c r="H2" t="s">
+        <v>763</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>765</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>766</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
@@ -7942,7 +7975,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16">
       <c r="A1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>161</v>
@@ -7969,22 +8002,22 @@
         <v>173</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>605</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -7992,7 +8025,7 @@
         <v>731</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8013,10 +8046,10 @@
         <v>44474</v>
       </c>
       <c r="M2" t="s">
+        <v>771</v>
+      </c>
+      <c r="N2" t="s">
         <v>772</v>
-      </c>
-      <c r="N2" t="s">
-        <v>773</v>
       </c>
       <c r="O2" t="s">
         <v>130</v>
@@ -8024,7 +8057,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>191</v>
@@ -8048,10 +8081,10 @@
         <v>44474</v>
       </c>
       <c r="M3" t="s">
+        <v>771</v>
+      </c>
+      <c r="N3" t="s">
         <v>772</v>
-      </c>
-      <c r="N3" t="s">
-        <v>773</v>
       </c>
       <c r="O3" t="s">
         <v>130</v>
@@ -8059,17 +8092,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="Q4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="Q5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="Q6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -8080,10 +8113,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8094,11 +8127,12 @@
     <col min="7" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16">
+    <row r="1" spans="1:19" ht="16">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>27</v>
@@ -8151,40 +8185,13 @@
       <c r="R1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="S1" s="8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>144</v>
@@ -8237,11 +8244,16 @@
       <c r="R2" t="s">
         <v>122</v>
       </c>
-      <c r="S2">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>745</v>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B3" t="s">
+        <v>872</v>
+      </c>
+      <c r="S3">
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -8802,19 +8814,184 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="18" max="19" width="14.1640625" customWidth="1"/>
+    <col min="22" max="23" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:38" ht="16">
+      <c r="A1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B2" t="s">
-        <v>868</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>717</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>718</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8926,7 +9103,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DA552-E68F-8942-8557-B228F14DF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96735C-7DAE-3541-B48F-FA3AF8AB7913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="26" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="27" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -44,19 +44,24 @@
     <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
     <sheet name="Inventorychange" sheetId="39" r:id="rId30"/>
     <sheet name="Inventorymovement" sheetId="41" r:id="rId31"/>
-    <sheet name="Origion" sheetId="42" r:id="rId32"/>
-    <sheet name="Transport" sheetId="43" r:id="rId33"/>
-    <sheet name="Barcode" sheetId="44" r:id="rId34"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId35"/>
-    <sheet name="Tax" sheetId="14" r:id="rId36"/>
-    <sheet name="Uom" sheetId="15" r:id="rId37"/>
-    <sheet name="Section" sheetId="16" r:id="rId38"/>
-    <sheet name="Bin" sheetId="17" r:id="rId39"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId40"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId41"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId42"/>
-    <sheet name="Size" sheetId="21" r:id="rId43"/>
-    <sheet name="ReorderSettings" sheetId="45" r:id="rId44"/>
+    <sheet name="InventoryParentChildSetting" sheetId="46" r:id="rId32"/>
+    <sheet name="Distribution" sheetId="47" r:id="rId33"/>
+    <sheet name="InventoryParameter" sheetId="48" r:id="rId34"/>
+    <sheet name="PackageInventory" sheetId="49" r:id="rId35"/>
+    <sheet name="RefillingScheduling" sheetId="50" r:id="rId36"/>
+    <sheet name="Origion" sheetId="42" r:id="rId37"/>
+    <sheet name="Transport" sheetId="43" r:id="rId38"/>
+    <sheet name="Barcode" sheetId="44" r:id="rId39"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId40"/>
+    <sheet name="Tax" sheetId="14" r:id="rId41"/>
+    <sheet name="Uom" sheetId="15" r:id="rId42"/>
+    <sheet name="Section" sheetId="16" r:id="rId43"/>
+    <sheet name="Bin" sheetId="17" r:id="rId44"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId45"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId46"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId47"/>
+    <sheet name="Size" sheetId="21" r:id="rId48"/>
+    <sheet name="ReorderSettings" sheetId="45" r:id="rId49"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -71,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="899">
   <si>
     <t>PriceType</t>
   </si>
@@ -2696,6 +2701,78 @@
   </si>
   <si>
     <t>AverageCost</t>
+  </si>
+  <si>
+    <t>BABY PRODUCT 7</t>
+  </si>
+  <si>
+    <t>BABY DIAPERS 7</t>
+  </si>
+  <si>
+    <t>InventoryParentChildSetting  type</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>InventoryParentChildSetting</t>
+  </si>
+  <si>
+    <t>007717</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>KLF TILNAD GIN TIL 1L</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Distribution type</t>
+  </si>
+  <si>
+    <t>Distribution1</t>
+  </si>
+  <si>
+    <t>Parentcode</t>
+  </si>
+  <si>
+    <t>IssuedQty</t>
+  </si>
+  <si>
+    <t>RecivedQty</t>
+  </si>
+  <si>
+    <t>WQty</t>
+  </si>
+  <si>
+    <t>InventoryParameter type</t>
+  </si>
+  <si>
+    <t>InventoryParameter</t>
+  </si>
+  <si>
+    <t>PackageInventory type</t>
+  </si>
+  <si>
+    <t>PackageInventory</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>022000</t>
+  </si>
+  <si>
+    <t>RefillingScheduling</t>
+  </si>
+  <si>
+    <t>RefillingScheduling type</t>
+  </si>
+  <si>
+    <t>RefillingScheduling1</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +2941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2890,6 +2967,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7349,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7683,21 +7761,21 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16">
+    <row r="1" spans="1:22" ht="16">
       <c r="A1" t="s">
         <v>753</v>
       </c>
@@ -7723,52 +7801,52 @@
         <v>44</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>43</v>
+        <v>618</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>618</v>
+        <v>161</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>605</v>
+      </c>
       <c r="N1" s="8" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>686</v>
+        <v>26</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>604</v>
+        <v>719</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="S1" s="8" t="s">
         <v>743</v>
       </c>
+      <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>754</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>144</v>
       </c>
+      <c r="C2" t="s">
+        <v>875</v>
+      </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>876</v>
       </c>
       <c r="E2" t="s">
         <v>713</v>
@@ -7783,33 +7861,33 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>717</v>
-      </c>
-      <c r="K2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>191</v>
       </c>
+      <c r="K2" t="s">
+        <v>718</v>
+      </c>
       <c r="L2" t="s">
-        <v>718</v>
-      </c>
-      <c r="M2" t="s">
         <v>122</v>
       </c>
+      <c r="M2" s="7" t="s">
+        <v>682</v>
+      </c>
       <c r="N2" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>755</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
         <v>1</v>
       </c>
     </row>
@@ -7820,6 +7898,374 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FDB840-6859-5840-8E8D-DB3118965398}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020C4AC-DB1E-2B4D-9498-C632296727B8}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2">
+        <v>859616</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3">
+        <v>859617</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>859615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE5B71-11D0-3F40-A83D-C616E9F8CBD1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2">
+        <v>859615</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D734F3-764F-8644-B403-8FF029BA18C8}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214C513-5DB9-914B-A5B0-1EFAAC031405}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16">
+      <c r="A1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>718</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>898</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7860,7 +8306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -7957,7 +8403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -8108,364 +8554,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="37.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="16">
-      <c r="A1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D2" t="s">
-        <v>712</v>
-      </c>
-      <c r="E2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F2" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" t="s">
-        <v>716</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>717</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" t="s">
-        <v>718</v>
-      </c>
-      <c r="O2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="R2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>873</v>
-      </c>
-      <c r="B3" t="s">
-        <v>872</v>
-      </c>
-      <c r="S3">
-        <v>12.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8584,6 +8672,364 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16">
+      <c r="A1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F2" t="s">
+        <v>714</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>718</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="R2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B3" t="s">
+        <v>872</v>
+      </c>
+      <c r="S3">
+        <v>12.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -8651,7 +9097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8688,7 +9134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -8772,7 +9218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8812,7 +9258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96735C-7DAE-3541-B48F-FA3AF8AB7913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0EF39A-1A90-6A43-97AC-DD5CEEAB038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="27" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="32" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,27 @@
     <sheet name="InventoryParentChildSetting" sheetId="46" r:id="rId32"/>
     <sheet name="Distribution" sheetId="47" r:id="rId33"/>
     <sheet name="InventoryParameter" sheetId="48" r:id="rId34"/>
-    <sheet name="PackageInventory" sheetId="49" r:id="rId35"/>
-    <sheet name="RefillingScheduling" sheetId="50" r:id="rId36"/>
-    <sheet name="Origion" sheetId="42" r:id="rId37"/>
-    <sheet name="Transport" sheetId="43" r:id="rId38"/>
-    <sheet name="Barcode" sheetId="44" r:id="rId39"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId40"/>
-    <sheet name="Tax" sheetId="14" r:id="rId41"/>
-    <sheet name="Uom" sheetId="15" r:id="rId42"/>
-    <sheet name="Section" sheetId="16" r:id="rId43"/>
-    <sheet name="Bin" sheetId="17" r:id="rId44"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId45"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId46"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId47"/>
-    <sheet name="Size" sheetId="21" r:id="rId48"/>
-    <sheet name="ReorderSettings" sheetId="45" r:id="rId49"/>
+    <sheet name="LocationWisePriceChange" sheetId="51" r:id="rId35"/>
+    <sheet name="PackageInventory" sheetId="49" r:id="rId36"/>
+    <sheet name="RefillingScheduling" sheetId="50" r:id="rId37"/>
+    <sheet name="PriceChangeBatchItem" sheetId="52" r:id="rId38"/>
+    <sheet name="PriceImportExport" sheetId="54" r:id="rId39"/>
+    <sheet name="FreeItem" sheetId="55" r:id="rId40"/>
+    <sheet name="NormalPromotion" sheetId="56" r:id="rId41"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="53" r:id="rId42"/>
+    <sheet name="Origion" sheetId="42" r:id="rId43"/>
+    <sheet name="Transport" sheetId="43" r:id="rId44"/>
+    <sheet name="Barcode" sheetId="44" r:id="rId45"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId46"/>
+    <sheet name="Tax" sheetId="14" r:id="rId47"/>
+    <sheet name="Uom" sheetId="15" r:id="rId48"/>
+    <sheet name="Section" sheetId="16" r:id="rId49"/>
+    <sheet name="Bin" sheetId="17" r:id="rId50"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId51"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId52"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId53"/>
+    <sheet name="Size" sheetId="21" r:id="rId54"/>
+    <sheet name="ReorderSettings" sheetId="45" r:id="rId55"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -76,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="942">
   <si>
     <t>PriceType</t>
   </si>
@@ -2773,6 +2779,135 @@
   </si>
   <si>
     <t>RefillingScheduling1</t>
+  </si>
+  <si>
+    <t>LocationWisePriceChange</t>
+  </si>
+  <si>
+    <t>LocationWisePriceChange type</t>
+  </si>
+  <si>
+    <t>LocationWisePriceChange1</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>NOBATCH</t>
+  </si>
+  <si>
+    <t>PriceChangeBatchItem type</t>
+  </si>
+  <si>
+    <t>PriceChangeBatchItem</t>
+  </si>
+  <si>
+    <t>RISH LUNCH BOX RS 220</t>
+  </si>
+  <si>
+    <t>PriceChangeBatchItem1</t>
+  </si>
+  <si>
+    <t>PriceChangeBatchItem2</t>
+  </si>
+  <si>
+    <t>ItemCode1</t>
+  </si>
+  <si>
+    <t>PriceChangeNonBatchItem type</t>
+  </si>
+  <si>
+    <t>PriceChangeNonBatchItem</t>
+  </si>
+  <si>
+    <t>PriceChangeNonBatchItem1</t>
+  </si>
+  <si>
+    <t>PriceChangeNonBatchItem2</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>PriceImportExport type</t>
+  </si>
+  <si>
+    <t>PriceImportExport</t>
+  </si>
+  <si>
+    <t>PriceImportExport1</t>
+  </si>
+  <si>
+    <t>PriceImportExport2</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>FreeItem</t>
+  </si>
+  <si>
+    <t>EligibilityQty</t>
+  </si>
+  <si>
+    <t>Qty1</t>
+  </si>
+  <si>
+    <t>Batchno1</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>GrpCode</t>
+  </si>
+  <si>
+    <t>FreeItem type</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>NormalPromotion type</t>
+  </si>
+  <si>
+    <t>NormalPromotion</t>
+  </si>
+  <si>
+    <t>FromTime</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>01/03/2022</t>
+  </si>
+  <si>
+    <t>013000</t>
+  </si>
+  <si>
+    <t>023000</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>NormalPromotion1</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2918,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2889,6 +3024,14 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2941,7 +3084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2968,6 +3111,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7763,7 +7907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -8049,6 +8195,112 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FDCF3-FFA2-3C46-BD0F-9FC7DD9C6F5A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>215</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+      <c r="F3">
+        <v>215</v>
+      </c>
+      <c r="G3">
+        <v>215</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D734F3-764F-8644-B403-8FF029BA18C8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -8102,12 +8354,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214C513-5DB9-914B-A5B0-1EFAAC031405}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8265,40 +8517,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09440079-E01E-8E47-A154-E67502782838}">
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:33" ht="16">
       <c r="A1" t="s">
-        <v>756</v>
+        <v>904</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>757</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>905</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>906</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="5"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="7"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>908</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="Y4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -8306,254 +8767,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
-  <dimension ref="A1:K2"/>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B39605-2FE1-1345-A6C7-F7B694664C77}">
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:30" ht="16">
       <c r="A1" t="s">
-        <v>759</v>
+        <v>918</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>760</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>761</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>623</v>
+        <v>18</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>627</v>
+        <v>38</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>628</v>
+        <v>32</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>708</v>
+        <v>178</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>762</v>
+        <v>44</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2">
+        <v>919</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>906</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="5">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="5">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1231322132</v>
-      </c>
-      <c r="G2">
-        <v>21122112121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>763</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16">
-      <c r="A1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>44474</v>
-      </c>
-      <c r="M2" t="s">
-        <v>771</v>
-      </c>
-      <c r="N2" t="s">
-        <v>772</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>44474</v>
-      </c>
-      <c r="M3" t="s">
-        <v>771</v>
-      </c>
-      <c r="N3" t="s">
-        <v>772</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="Q4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="Q5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="Q6" t="s">
-        <v>775</v>
-      </c>
+      <c r="X4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8672,6 +9111,793 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D32BC8-CB9A-3747-8191-C8416DF86EFD}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22036B99-337E-CB49-8558-57B98E5E156A}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" customWidth="1"/>
+    <col min="20" max="21" width="16.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16">
+      <c r="A3" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>791</v>
+      </c>
+      <c r="R3" t="s">
+        <v>792</v>
+      </c>
+      <c r="S3" t="s">
+        <v>795</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" t="s">
+        <v>793</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDEEB4-7631-E24B-AC95-6D9285245D15}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="16">
+      <c r="A1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>717</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>717</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>913</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1231322132</v>
+      </c>
+      <c r="G2">
+        <v>21122112121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>763</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{370D9B1B-28E9-0E48-943C-62DBC01B8E01}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{57AC7A29-5F14-BE48-9AF9-8D65BC50991F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16">
+      <c r="A1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>44474</v>
+      </c>
+      <c r="M2" t="s">
+        <v>771</v>
+      </c>
+      <c r="N2" t="s">
+        <v>772</v>
+      </c>
+      <c r="O2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>44474</v>
+      </c>
+      <c r="M3" t="s">
+        <v>771</v>
+      </c>
+      <c r="N3" t="s">
+        <v>772</v>
+      </c>
+      <c r="O3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="Q4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="Q5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="Q6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -8821,7 +10047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -8897,7 +10123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8943,7 +10169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8986,7 +10212,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -9029,7 +10303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -9097,7 +10371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9134,7 +10408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -9218,7 +10492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9258,7 +10532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
@@ -9444,54 +10718,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0EF39A-1A90-6A43-97AC-DD5CEEAB038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FF254-B141-7D45-B516-0BB8C2BF48AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="32" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="36" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -54,20 +54,23 @@
     <sheet name="PriceImportExport" sheetId="54" r:id="rId39"/>
     <sheet name="FreeItem" sheetId="55" r:id="rId40"/>
     <sheet name="NormalPromotion" sheetId="56" r:id="rId41"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="53" r:id="rId42"/>
-    <sheet name="Origion" sheetId="42" r:id="rId43"/>
-    <sheet name="Transport" sheetId="43" r:id="rId44"/>
-    <sheet name="Barcode" sheetId="44" r:id="rId45"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId46"/>
-    <sheet name="Tax" sheetId="14" r:id="rId47"/>
-    <sheet name="Uom" sheetId="15" r:id="rId48"/>
-    <sheet name="Section" sheetId="16" r:id="rId49"/>
-    <sheet name="Bin" sheetId="17" r:id="rId50"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId51"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId52"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId53"/>
-    <sheet name="Size" sheetId="21" r:id="rId54"/>
-    <sheet name="ReorderSettings" sheetId="45" r:id="rId55"/>
+    <sheet name="OtherPromotion" sheetId="57" r:id="rId42"/>
+    <sheet name="RevokePromotion" sheetId="59" r:id="rId43"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="53" r:id="rId44"/>
+    <sheet name="DayBasedPromotion" sheetId="58" r:id="rId45"/>
+    <sheet name="Origion" sheetId="42" r:id="rId46"/>
+    <sheet name="Transport" sheetId="43" r:id="rId47"/>
+    <sheet name="Barcode" sheetId="44" r:id="rId48"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId49"/>
+    <sheet name="Tax" sheetId="14" r:id="rId50"/>
+    <sheet name="Uom" sheetId="15" r:id="rId51"/>
+    <sheet name="Section" sheetId="16" r:id="rId52"/>
+    <sheet name="Bin" sheetId="17" r:id="rId53"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId54"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId55"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId56"/>
+    <sheet name="Size" sheetId="21" r:id="rId57"/>
+    <sheet name="ReorderSettings" sheetId="45" r:id="rId58"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="973">
   <si>
     <t>PriceType</t>
   </si>
@@ -2908,6 +2911,99 @@
   </si>
   <si>
     <t>NormalPromotion1</t>
+  </si>
+  <si>
+    <t>NormalPromotion2</t>
+  </si>
+  <si>
+    <t>OtherPromotion type</t>
+  </si>
+  <si>
+    <t>OtherPromotion</t>
+  </si>
+  <si>
+    <t>OtherPromotion1</t>
+  </si>
+  <si>
+    <t>OtherPromotion2</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>RangeFrom</t>
+  </si>
+  <si>
+    <t>RangeTo</t>
+  </si>
+  <si>
+    <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>BABY SOAP 7</t>
+  </si>
+  <si>
+    <t>Bill Value</t>
+  </si>
+  <si>
+    <t>Free Item</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Slab</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>DayBasedPromotion type</t>
+  </si>
+  <si>
+    <t>DayBasedPromotion</t>
+  </si>
+  <si>
+    <t>DayBasedPromotion1</t>
+  </si>
+  <si>
+    <t>DayBasedPromotion2</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>04-02-2022</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>hqd0000002</t>
+  </si>
+  <si>
+    <t>DayBasedPromotion3</t>
+  </si>
+  <si>
+    <t>OtherPromotion3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RevokePromotion type</t>
+  </si>
+  <si>
+    <t>RevokePromotion</t>
+  </si>
+  <si>
+    <t>04/02/2022</t>
   </si>
 </sst>
 </file>
@@ -2918,7 +3014,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3032,6 +3128,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3084,7 +3186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3112,6 +3214,7 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9219,10 +9322,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22036B99-337E-CB49-8558-57B98E5E156A}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9230,14 +9333,14 @@
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" customWidth="1"/>
-    <col min="20" max="21" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16">
+    <row r="1" spans="1:28" ht="16">
       <c r="A1" s="8" t="s">
         <v>932</v>
       </c>
@@ -9275,46 +9378,55 @@
         <v>935</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="16">
+      <c r="AB1" s="25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="16">
       <c r="A2" s="8" t="s">
         <v>933</v>
       </c>
@@ -9348,42 +9460,85 @@
       <c r="L2" s="7" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="16">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16">
       <c r="A3" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="M3" s="5">
+      <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>791</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>792</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>795</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>793</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
       </c>
       <c r="Y3">
         <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16">
+      <c r="A4" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -9392,11 +9547,340 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8284C2-8F31-1A4C-95DF-98D7611662FE}">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="24" max="24" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16">
+      <c r="A3" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="13"/>
+      <c r="S3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16">
+      <c r="A4" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="N4" t="s">
+        <v>955</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16">
+      <c r="A5" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDDB6A-B213-E14D-B17C-419FA13EAFFB}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" t="s">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDEEB4-7631-E24B-AC95-6D9285245D15}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9605,7 +10089,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15742E18-C621-204D-A74B-D8C9D4FA86BD}">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16">
+      <c r="A1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>961</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="X4" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
+        <v>967</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>965</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9646,7 +10418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -9743,7 +10515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -9897,7 +10669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -10040,171 +10812,6 @@
       </c>
       <c r="S3">
         <v>12.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10261,6 +10868,171 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10303,7 +11075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10371,7 +11143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10408,7 +11180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -10492,7 +11264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10532,7 +11304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FF254-B141-7D45-B516-0BB8C2BF48AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D693329-431F-7E4C-89E8-BF5E1467DD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="36" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="974">
   <si>
     <t>PriceType</t>
   </si>
@@ -3004,6 +3004,9 @@
   </si>
   <si>
     <t>04/02/2022</t>
+  </si>
+  <si>
+    <t>Damage</t>
   </si>
 </sst>
 </file>
@@ -5862,9 +5865,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -5878,7 +5883,7 @@
     <col min="16" max="16" width="13.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" t="s">
         <v>593</v>
       </c>
@@ -5927,8 +5932,11 @@
       <c r="P1" s="9" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>594</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17">
+    <row r="3" spans="1:17" ht="17">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -5973,17 +5981,17 @@
       <c r="M3" s="11">
         <v>44389</v>
       </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
       <c r="O3">
         <v>1762</v>
       </c>
       <c r="P3" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="M12" s="11"/>
     </row>
   </sheetData>
@@ -9785,7 +9793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDDB6A-B213-E14D-B17C-419FA13EAFFB}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -22311,8 +22319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22372,13 +22380,13 @@
         <v>63</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -22387,10 +22395,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K2">
         <v>1</v>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D693329-431F-7E4C-89E8-BF5E1467DD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6A1A4-E4D6-1949-887C-4500E6337608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="976">
   <si>
     <t>PriceType</t>
   </si>
@@ -3007,6 +3007,12 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>09-02-2022</t>
   </si>
 </sst>
 </file>
@@ -5867,7 +5873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -7117,8 +7123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19982059-1F63-F749-8331-FB5414FE2CB0}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7292,6 +7298,15 @@
       <c r="A3" t="s">
         <v>727</v>
       </c>
+      <c r="N3">
+        <v>859526</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>975</v>
+      </c>
       <c r="U3" s="5">
         <v>1</v>
       </c>
@@ -7299,9 +7314,6 @@
     <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>728</v>
-      </c>
-      <c r="N4">
-        <v>859526</v>
       </c>
     </row>
   </sheetData>
@@ -11085,10 +11097,10 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11100,7 +11112,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" t="s">
         <v>614</v>
       </c>
@@ -11122,8 +11134,14 @@
       <c r="G1" s="9" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>779</v>
+      </c>
+      <c r="I1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>615</v>
       </c>
@@ -11136,14 +11154,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" t="s">
         <v>632</v>
       </c>
       <c r="G2">
         <v>0</v>
+      </c>
+      <c r="H2">
+        <v>47500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6A1A4-E4D6-1949-887C-4500E6337608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1798E736-80E3-1D4D-854F-56F7C5B1BECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="500" firstSheet="32" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -40,37 +40,45 @@
     <sheet name="PurchaseOrderStatus" sheetId="34" r:id="rId25"/>
     <sheet name="Manufacturer" sheetId="35" r:id="rId26"/>
     <sheet name="AutoPO" sheetId="36" r:id="rId27"/>
-    <sheet name="Vendorcatelog" sheetId="37" r:id="rId28"/>
-    <sheet name="ConsolidatedPO" sheetId="38" r:id="rId29"/>
-    <sheet name="Inventorychange" sheetId="39" r:id="rId30"/>
-    <sheet name="Inventorymovement" sheetId="41" r:id="rId31"/>
-    <sheet name="InventoryParentChildSetting" sheetId="46" r:id="rId32"/>
-    <sheet name="Distribution" sheetId="47" r:id="rId33"/>
-    <sheet name="InventoryParameter" sheetId="48" r:id="rId34"/>
-    <sheet name="LocationWisePriceChange" sheetId="51" r:id="rId35"/>
-    <sheet name="PackageInventory" sheetId="49" r:id="rId36"/>
-    <sheet name="RefillingScheduling" sheetId="50" r:id="rId37"/>
-    <sheet name="PriceChangeBatchItem" sheetId="52" r:id="rId38"/>
-    <sheet name="PriceImportExport" sheetId="54" r:id="rId39"/>
-    <sheet name="FreeItem" sheetId="55" r:id="rId40"/>
-    <sheet name="NormalPromotion" sheetId="56" r:id="rId41"/>
-    <sheet name="OtherPromotion" sheetId="57" r:id="rId42"/>
-    <sheet name="RevokePromotion" sheetId="59" r:id="rId43"/>
-    <sheet name="PriceChangeNonBatchItem" sheetId="53" r:id="rId44"/>
-    <sheet name="DayBasedPromotion" sheetId="58" r:id="rId45"/>
-    <sheet name="Origion" sheetId="42" r:id="rId46"/>
-    <sheet name="Transport" sheetId="43" r:id="rId47"/>
-    <sheet name="Barcode" sheetId="44" r:id="rId48"/>
-    <sheet name="InventoryCostReset" sheetId="40" r:id="rId49"/>
-    <sheet name="Tax" sheetId="14" r:id="rId50"/>
-    <sheet name="Uom" sheetId="15" r:id="rId51"/>
-    <sheet name="Section" sheetId="16" r:id="rId52"/>
-    <sheet name="Bin" sheetId="17" r:id="rId53"/>
-    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId54"/>
-    <sheet name="Shelf" sheetId="19" r:id="rId55"/>
-    <sheet name="Warehouse" sheetId="20" r:id="rId56"/>
-    <sheet name="Size" sheetId="21" r:id="rId57"/>
-    <sheet name="ReorderSettings" sheetId="45" r:id="rId58"/>
+    <sheet name="Payments" sheetId="60" r:id="rId28"/>
+    <sheet name="Creditinvoice" sheetId="61" r:id="rId29"/>
+    <sheet name="CustomerReceipts" sheetId="62" r:id="rId30"/>
+    <sheet name="Billcancel" sheetId="63" r:id="rId31"/>
+    <sheet name="SalesTransaction" sheetId="64" r:id="rId32"/>
+    <sheet name="StockAdjustment" sheetId="65" r:id="rId33"/>
+    <sheet name="SalesOrder" sheetId="66" r:id="rId34"/>
+    <sheet name="StockUpdate" sheetId="67" r:id="rId35"/>
+    <sheet name="Vendorcatelog" sheetId="37" r:id="rId36"/>
+    <sheet name="ConsolidatedPO" sheetId="38" r:id="rId37"/>
+    <sheet name="Inventorychange" sheetId="39" r:id="rId38"/>
+    <sheet name="Inventorymovement" sheetId="41" r:id="rId39"/>
+    <sheet name="InventoryParentChildSetting" sheetId="46" r:id="rId40"/>
+    <sheet name="Distribution" sheetId="47" r:id="rId41"/>
+    <sheet name="InventoryParameter" sheetId="48" r:id="rId42"/>
+    <sheet name="LocationWisePriceChange" sheetId="51" r:id="rId43"/>
+    <sheet name="PackageInventory" sheetId="49" r:id="rId44"/>
+    <sheet name="RefillingScheduling" sheetId="50" r:id="rId45"/>
+    <sheet name="PriceChangeBatchItem" sheetId="52" r:id="rId46"/>
+    <sheet name="PriceImportExport" sheetId="54" r:id="rId47"/>
+    <sheet name="FreeItem" sheetId="55" r:id="rId48"/>
+    <sheet name="NormalPromotion" sheetId="56" r:id="rId49"/>
+    <sheet name="OtherPromotion" sheetId="57" r:id="rId50"/>
+    <sheet name="RevokePromotion" sheetId="59" r:id="rId51"/>
+    <sheet name="PriceChangeNonBatchItem" sheetId="53" r:id="rId52"/>
+    <sheet name="DayBasedPromotion" sheetId="58" r:id="rId53"/>
+    <sheet name="Origion" sheetId="42" r:id="rId54"/>
+    <sheet name="Transport" sheetId="43" r:id="rId55"/>
+    <sheet name="Barcode" sheetId="44" r:id="rId56"/>
+    <sheet name="InventoryCostReset" sheetId="40" r:id="rId57"/>
+    <sheet name="Tax" sheetId="14" r:id="rId58"/>
+    <sheet name="Uom" sheetId="15" r:id="rId59"/>
+    <sheet name="Section" sheetId="16" r:id="rId60"/>
+    <sheet name="Bin" sheetId="17" r:id="rId61"/>
+    <sheet name="PurchasereturnReq" sheetId="18" r:id="rId62"/>
+    <sheet name="Shelf" sheetId="19" r:id="rId63"/>
+    <sheet name="Warehouse" sheetId="20" r:id="rId64"/>
+    <sheet name="Size" sheetId="21" r:id="rId65"/>
+    <sheet name="ReorderSettings" sheetId="45" r:id="rId66"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -85,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1037">
   <si>
     <t>PriceType</t>
   </si>
@@ -3013,6 +3021,189 @@
   </si>
   <si>
     <t>09-02-2022</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Payments type</t>
+  </si>
+  <si>
+    <t>Chequeno</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>NoOfRecords</t>
+  </si>
+  <si>
+    <t>Paymode</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>UnIssued</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>CreditDays</t>
+  </si>
+  <si>
+    <t>HoldInv</t>
+  </si>
+  <si>
+    <t>AllInv</t>
+  </si>
+  <si>
+    <t>BankCode</t>
+  </si>
+  <si>
+    <t>Paymode1</t>
+  </si>
+  <si>
+    <t>BankCode1</t>
+  </si>
+  <si>
+    <t>ChequeNo</t>
+  </si>
+  <si>
+    <t>ChequeDate</t>
+  </si>
+  <si>
+    <t>30/03/2021</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Creditinvoice type</t>
+  </si>
+  <si>
+    <t>Creditinvoice</t>
+  </si>
+  <si>
+    <t>Creditinvoice1</t>
+  </si>
+  <si>
+    <t>Invoiceno</t>
+  </si>
+  <si>
+    <t>Customername</t>
+  </si>
+  <si>
+    <t>CustomerReceipts type</t>
+  </si>
+  <si>
+    <t>CustomerReceipts</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>Billcancel</t>
+  </si>
+  <si>
+    <t>Billcancel type</t>
+  </si>
+  <si>
+    <t>2001B1R0000583</t>
+  </si>
+  <si>
+    <t>SalesTransaction</t>
+  </si>
+  <si>
+    <t>SalesTransaction type</t>
+  </si>
+  <si>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>CustomerCode</t>
+  </si>
+  <si>
+    <t>MinAmt</t>
+  </si>
+  <si>
+    <t>MaxAmt</t>
+  </si>
+  <si>
+    <t>CashSales</t>
+  </si>
+  <si>
+    <t>CreditSales</t>
+  </si>
+  <si>
+    <t>CancelBill</t>
+  </si>
+  <si>
+    <t>ExchangeBill</t>
+  </si>
+  <si>
+    <t>DiscountBill</t>
+  </si>
+  <si>
+    <t>SalesReturnBill</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>StockAdjustment</t>
+  </si>
+  <si>
+    <t>StockAdjustment type</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>StockAdjustment1</t>
+  </si>
+  <si>
+    <t>Production Entry</t>
+  </si>
+  <si>
+    <t>PRC1</t>
+  </si>
+  <si>
+    <t>SalesOrder  type</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>StockUpdate type</t>
+  </si>
+  <si>
+    <t>StockUpdate</t>
+  </si>
+  <si>
+    <t>StockUpdate1</t>
+  </si>
+  <si>
+    <t>StockUpdate2</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>/Users/macpc/Downloads/StockList.xlsx</t>
+  </si>
+  <si>
+    <t>Batch5</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3214,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3143,6 +3334,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3195,7 +3393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3224,6 +3422,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3565,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7123,7 +7322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19982059-1F63-F749-8331-FB5414FE2CB0}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -7323,11 +7522,906 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0F7C0-09D6-8144-9854-BE797D950AE3}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>976</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="S2">
+        <v>123</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="U2">
+        <v>123</v>
+      </c>
+      <c r="V2" t="s">
+        <v>995</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D10F66-ABCC-0546-9DF0-02D3BB14DCFE}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D13320E-7683-D44D-B3A4-834E1BBC274F}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17">
+      <c r="A2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="G2" t="s">
+        <v>995</v>
+      </c>
+      <c r="H2">
+        <v>213213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB9810-C358-844E-8D5C-C4448BBF48B3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31764561-FE60-C54A-9E8E-D7E63B31166E}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E463E-92A4-2A44-B49F-830FD239A632}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D3B722-4244-2F4C-9093-3D815D2C7060}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16">
+      <c r="A1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96830183-3BDC-724C-B7EA-7CD045B4D2A3}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="16">
+      <c r="A1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>906</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="5"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF76B2A-C7E4-D74E-8C0F-5E9B91B67F25}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7460,7 +8554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC5E34-9C80-7145-9AB2-7D9C4E1B5359}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -7638,64 +8732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3987BA7-335D-7C4B-AD6D-C7E493BC0612}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8026,7 +9068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -8163,959 +9205,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FDB840-6859-5840-8E8D-DB3118965398}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>880</v>
-      </c>
-      <c r="C2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020C4AC-DB1E-2B4D-9498-C632296727B8}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="B2">
-        <v>859616</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="B3">
-        <v>859617</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>859615</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE5B71-11D0-3F40-A83D-C616E9F8CBD1}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B2">
-        <v>859615</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FDCF3-FFA2-3C46-BD0F-9FC7DD9C6F5A}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16">
-      <c r="A1" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16">
-      <c r="A2" s="15" t="s">
-        <v>899</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16">
-      <c r="A3" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3">
-        <v>215</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-      <c r="F3">
-        <v>215</v>
-      </c>
-      <c r="G3">
-        <v>215</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D734F3-764F-8644-B403-8FF029BA18C8}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="E1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214C513-5DB9-914B-A5B0-1EFAAC031405}">
-  <dimension ref="A1:AH3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="16">
-      <c r="A1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F2" t="s">
-        <v>793</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>717</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" t="s">
-        <v>718</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>898</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09440079-E01E-8E47-A154-E67502782838}">
-  <dimension ref="A1:AG4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="16">
-      <c r="A1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
-        <v>905</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F2" t="s">
-        <v>793</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>717</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" t="s">
-        <v>906</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="5"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="7"/>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>907</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E3" t="s">
-        <v>795</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>717</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="7"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>908</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="Y4" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B39605-2FE1-1345-A6C7-F7B694664C77}">
-  <dimension ref="A1:AD4"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.5" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="16">
-      <c r="A1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F2" t="s">
-        <v>793</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>717</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" t="s">
-        <v>906</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="5">
-        <v>1</v>
-      </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E3" t="s">
-        <v>795</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>717</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>921</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="5">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9234,6 +9323,959 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FDB840-6859-5840-8E8D-DB3118965398}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020C4AC-DB1E-2B4D-9498-C632296727B8}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2">
+        <v>859616</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3">
+        <v>859617</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>859615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE5B71-11D0-3F40-A83D-C616E9F8CBD1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B2">
+        <v>859615</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FDCF3-FFA2-3C46-BD0F-9FC7DD9C6F5A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>215</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+      <c r="F3">
+        <v>215</v>
+      </c>
+      <c r="G3">
+        <v>215</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D734F3-764F-8644-B403-8FF029BA18C8}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214C513-5DB9-914B-A5B0-1EFAAC031405}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16">
+      <c r="A1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>718</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>898</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09440079-E01E-8E47-A154-E67502782838}">
+  <dimension ref="A1:AG4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16">
+      <c r="A1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>906</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="5"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="7"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>908</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="Y4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B39605-2FE1-1345-A6C7-F7B694664C77}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16">
+      <c r="A1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" t="s">
+        <v>906</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D32BC8-CB9A-3747-8191-C8416DF86EFD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -9340,7 +10382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22036B99-337E-CB49-8558-57B98E5E156A}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
@@ -9566,7 +10608,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8284C2-8F31-1A4C-95DF-98D7611662FE}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -9801,7 +10891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDDB6A-B213-E14D-B17C-419FA13EAFFB}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -9895,7 +10985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDEEB4-7631-E24B-AC95-6D9285245D15}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
@@ -10109,7 +11199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15742E18-C621-204D-A74B-D8C9D4FA86BD}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
@@ -10397,7 +11487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB212A-D812-D64E-880B-2E2B16CDC8E8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10438,7 +11528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E5557E-BF20-3946-B0BD-0381563C3CE3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -10535,7 +11625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -10689,7 +11779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -10839,55 +11929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -10963,7 +12005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11009,7 +12051,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11052,7 +12163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11095,7 +12206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698EEF2-19F0-2B41-9B15-3BCDDD926155}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11172,7 +12283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -11209,7 +12320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -11293,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D8A40-7312-2844-875B-6A27B8D5725E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -11333,7 +12444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
@@ -11519,75 +12630,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X201"/>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C64391-59C0-9B4D-BCF2-086207E466F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C8D982-8D8C-2949-B00C-73FC21304C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="500" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="500" firstSheet="32" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="1384">
   <si>
     <t>PriceType</t>
   </si>
@@ -4155,6 +4155,123 @@
   </si>
   <si>
     <t>ABC@gamil.com</t>
+  </si>
+  <si>
+    <t>RefillingScheduling2</t>
+  </si>
+  <si>
+    <t>V00279</t>
+  </si>
+  <si>
+    <t>STEEL PRODUCTS 7</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
+  </si>
+  <si>
+    <t>CT-SSU-SB-TOPE-18</t>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>RefillingScheduling3</t>
+  </si>
+  <si>
+    <t>PERSONAL CARE 7</t>
+  </si>
+  <si>
+    <t>PEDICURE N MANICURE 7</t>
+  </si>
+  <si>
+    <t>NAIL CUTTER</t>
+  </si>
+  <si>
+    <t>NAIL CUTTER RS 80</t>
+  </si>
+  <si>
+    <t>RefillingScheduling4</t>
+  </si>
+  <si>
+    <t>V00056</t>
+  </si>
+  <si>
+    <t>BODY CARE 7</t>
+  </si>
+  <si>
+    <t>BODY SCRUB</t>
+  </si>
+  <si>
+    <t>BODY SCRUB 7</t>
+  </si>
+  <si>
+    <t>BODY SCRUB RS 25</t>
+  </si>
+  <si>
+    <t>RefillingScheduling5</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>PackageInventory1</t>
+  </si>
+  <si>
+    <t>PackageInventory2</t>
+  </si>
+  <si>
+    <t>PackageInventory3</t>
+  </si>
+  <si>
+    <t>PackageInventory4</t>
+  </si>
+  <si>
+    <t>000106</t>
+  </si>
+  <si>
+    <t>011689</t>
+  </si>
+  <si>
+    <t>000108</t>
+  </si>
+  <si>
+    <t>000107</t>
+  </si>
+  <si>
+    <t>Inventorymovement1</t>
+  </si>
+  <si>
+    <t>SPORT N RECREATIONAL 7</t>
+  </si>
+  <si>
+    <t>SPORTS N RECREATIONAL 7</t>
+  </si>
+  <si>
+    <t>A&amp;J HEALTH CARE</t>
+  </si>
+  <si>
+    <t>YOGA MAT RS 475</t>
+  </si>
+  <si>
+    <t>InventoryCostReset2</t>
+  </si>
+  <si>
+    <t>PLASTIC WATER BOTTLE</t>
+  </si>
+  <si>
+    <t>PLASTIC WATER BOTTLE RS110</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>2.00</t>
   </si>
 </sst>
 </file>
@@ -4165,7 +4282,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4292,6 +4409,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4344,7 +4467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4378,6 +4501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4719,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6870,6 +6996,9 @@
         <v>866</v>
       </c>
       <c r="AD30" s="14"/>
+    </row>
+    <row r="31" spans="1:88">
+      <c r="A31" s="29"/>
     </row>
     <row r="46" spans="53:53">
       <c r="BA46" t="s">
@@ -7765,7 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE57302-63A9-BA40-BB92-1F1E55B7F67A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -8507,14 +8636,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16">
@@ -8639,11 +8768,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -8773,9 +8902,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -8849,9 +8978,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -8891,17 +9020,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16">
@@ -9010,16 +9139,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E463E-92A4-2A44-B49F-830FD239A632}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -9086,6 +9215,9 @@
       </c>
       <c r="F3">
         <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1383</v>
       </c>
       <c r="H3" t="s">
         <v>1026</v>
@@ -9109,11 +9241,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -9186,14 +9318,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="23" max="23" width="33" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16">
@@ -9405,9 +9537,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16">
@@ -9503,7 +9635,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -9567,9 +9699,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16">
@@ -9776,11 +9908,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16">
@@ -10002,11 +10134,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
@@ -10075,7 +10207,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16">
@@ -10314,7 +10446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10405,10 +10537,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11302,7 +11434,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11348,8 +11480,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11534,9 +11666,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11600,8 +11732,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11647,7 +11779,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11693,10 +11825,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11760,10 +11892,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11809,7 +11941,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11935,7 +12067,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11975,7 +12107,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12015,7 +12147,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12124,7 +12256,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12170,7 +12302,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12867,10 +12999,10 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35DA1B-402D-DC44-8244-28FDAF0DC2C9}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12878,9 +13010,9 @@
     <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16">
@@ -12997,6 +13129,32 @@
       </c>
       <c r="R2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -13015,9 +13173,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13057,7 +13215,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -13120,7 +13278,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -13166,8 +13324,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -23970,17 +24128,17 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D734F3-764F-8644-B403-8FF029BA18C8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -24015,6 +24173,74 @@
       </c>
       <c r="E2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="30">
+        <v>47500</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D4" s="30">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="30" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D5" s="30">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="30" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="30">
+        <v>22000</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24024,16 +24250,16 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5214C513-5DB9-914B-A5B0-1EFAAC031405}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16">
@@ -24180,6 +24406,110 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O5" t="s">
+        <v>793</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="O6" t="s">
+        <v>793</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>1362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24195,13 +24525,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16">
@@ -24445,9 +24775,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.5" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16">
@@ -24674,8 +25004,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16">
@@ -24781,14 +25111,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.1640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -25007,17 +25337,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
-    <col min="24" max="24" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16">
@@ -25242,11 +25572,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -25336,7 +25666,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16">
@@ -25550,14 +25880,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16">
@@ -26010,7 +26340,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -26156,6 +26486,16 @@
         <v>774</v>
       </c>
     </row>
+    <row r="7" spans="1:17">
+      <c r="Q7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="Q8" t="s">
+        <v>775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26164,10 +26504,10 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1CB8A-F1FE-3748-BCD2-706D4CCE01E0}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -26178,7 +26518,7 @@
     <col min="7" max="8" width="16.83203125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="37.5" customWidth="1"/>
+    <col min="14" max="14" width="37.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16">
@@ -26305,6 +26645,38 @@
       </c>
       <c r="S3">
         <v>12.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D4" t="s">
+        <v>791</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4">
+        <v>55.46</v>
       </c>
     </row>
   </sheetData>
@@ -26909,19 +27281,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="18" max="19" width="14.1640625" customWidth="1"/>
-    <col min="22" max="23" width="12" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16">

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF275A-59B1-BC40-BA8B-7FDECDC3E8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33201F77-E59D-A842-8673-7B9C1CC826CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -122,8 +122,32 @@
     <sheet name="LinkAccount" sheetId="112" r:id="rId107"/>
     <sheet name="AccountSettlement" sheetId="113" r:id="rId108"/>
     <sheet name="MasterReports" sheetId="114" r:id="rId109"/>
-    <sheet name="InventoryMovementWiseReport" sheetId="115" r:id="rId110"/>
-    <sheet name="SalesWiseReport" sheetId="116" r:id="rId111"/>
+    <sheet name="StockReports" sheetId="133" r:id="rId110"/>
+    <sheet name="InventoryList" sheetId="135" r:id="rId111"/>
+    <sheet name="PaymentandReceipts" sheetId="118" r:id="rId112"/>
+    <sheet name="PuchaseGRNReports" sheetId="119" r:id="rId113"/>
+    <sheet name="PurchaseOrderReport" sheetId="120" r:id="rId114"/>
+    <sheet name="SalesWiseReport" sheetId="116" r:id="rId115"/>
+    <sheet name="PurchaseReturnReqReports" sheetId="121" r:id="rId116"/>
+    <sheet name="InventoryMovementWiseReport" sheetId="115" r:id="rId117"/>
+    <sheet name="VendorOutstanding" sheetId="122" r:id="rId118"/>
+    <sheet name="QuickSalesReport" sheetId="123" r:id="rId119"/>
+    <sheet name="SalesMoreReport" sheetId="124" r:id="rId120"/>
+    <sheet name="SalesAuditReport" sheetId="125" r:id="rId121"/>
+    <sheet name="CreditandDueSaleReport" sheetId="126" r:id="rId122"/>
+    <sheet name="SalesReturnReport" sheetId="127" r:id="rId123"/>
+    <sheet name="MemberWiseSales" sheetId="128" r:id="rId124"/>
+    <sheet name="LocationWiseItemWiseSales" sheetId="129" r:id="rId125"/>
+    <sheet name="PreSalesReport" sheetId="130" r:id="rId126"/>
+    <sheet name="LocationWiseSalesReport" sheetId="131" r:id="rId127"/>
+    <sheet name="PromotionReports" sheetId="132" r:id="rId128"/>
+    <sheet name="SettlementReports" sheetId="134" r:id="rId129"/>
+    <sheet name="CustomerReceiptReport" sheetId="136" r:id="rId130"/>
+    <sheet name="LocationDueReceipt" sheetId="137" r:id="rId131"/>
+    <sheet name="TransferReport" sheetId="138" r:id="rId132"/>
+    <sheet name="AttributeReport" sheetId="139" r:id="rId133"/>
+    <sheet name="StockAgingReport" sheetId="140" r:id="rId134"/>
+    <sheet name="TransferStatusQuery" sheetId="141" r:id="rId135"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -138,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="2131">
   <si>
     <t>PriceType</t>
   </si>
@@ -5140,6 +5164,1398 @@
   </si>
   <si>
     <t>SalesWiseReport type</t>
+  </si>
+  <si>
+    <t>PaymentandReceipts type</t>
+  </si>
+  <si>
+    <t>Receipts</t>
+  </si>
+  <si>
+    <t>PaymentandReceipts</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>PaymentSubType</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>PaymentandReceipts1</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports type</t>
+  </si>
+  <si>
+    <t>DateWisePurchaseSummary</t>
+  </si>
+  <si>
+    <t>DateWisePurchaseDetail</t>
+  </si>
+  <si>
+    <t>DepartmentWisePurchase</t>
+  </si>
+  <si>
+    <t>CategoryWisePurchase</t>
+  </si>
+  <si>
+    <t>SubCategoryWise</t>
+  </si>
+  <si>
+    <t>VendorWisePurchase</t>
+  </si>
+  <si>
+    <t>VendorWiseSchemeDiscount</t>
+  </si>
+  <si>
+    <t>InventoryWiseGrn</t>
+  </si>
+  <si>
+    <t>GrnHoldPending</t>
+  </si>
+  <si>
+    <t>CancelledGrnSummary</t>
+  </si>
+  <si>
+    <t>CancelledGrnDeatail</t>
+  </si>
+  <si>
+    <t>UserWiseGrnCount</t>
+  </si>
+  <si>
+    <t>DateWisePurchaseReturnSumary</t>
+  </si>
+  <si>
+    <t>DateWisePurchaseReturnDetail</t>
+  </si>
+  <si>
+    <t>CostChange</t>
+  </si>
+  <si>
+    <t>GRNPoComparision</t>
+  </si>
+  <si>
+    <t>GaDeleteLog</t>
+  </si>
+  <si>
+    <t>WeighedBasedConversion</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>GrnDate</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports</t>
+  </si>
+  <si>
+    <t>HQ0400012719</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Categoryex</t>
+  </si>
+  <si>
+    <t>SF OILS</t>
+  </si>
+  <si>
+    <t>3 ROSES</t>
+  </si>
+  <si>
+    <t>V00225</t>
+  </si>
+  <si>
+    <t>C0250</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports1</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports2</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports3</t>
+  </si>
+  <si>
+    <t>PuchaseGRNReports4</t>
+  </si>
+  <si>
+    <t>04-04-2021</t>
+  </si>
+  <si>
+    <t>04-06-2022</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>02-02-2022</t>
+  </si>
+  <si>
+    <t>PurchaseOrderReport type</t>
+  </si>
+  <si>
+    <t>PoPendiglist</t>
+  </si>
+  <si>
+    <t>PoClosed</t>
+  </si>
+  <si>
+    <t>PoCancelled</t>
+  </si>
+  <si>
+    <t>UserWisePoCount</t>
+  </si>
+  <si>
+    <t>UserPo</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>UnApproved</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Completepending</t>
+  </si>
+  <si>
+    <t>PartialPending</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>PurchaseOrderReport</t>
+  </si>
+  <si>
+    <t>V00046</t>
+  </si>
+  <si>
+    <t>PurchaseOrderReport1</t>
+  </si>
+  <si>
+    <t>PurchaseOrderReport2</t>
+  </si>
+  <si>
+    <t>PurchaseOrderReport3</t>
+  </si>
+  <si>
+    <t>PurchaseReturnReqReports type</t>
+  </si>
+  <si>
+    <t>DateWisePRDetail</t>
+  </si>
+  <si>
+    <t>PRReqUnClaimed</t>
+  </si>
+  <si>
+    <t>PRReqClaimed</t>
+  </si>
+  <si>
+    <t>PRDeleteSummary</t>
+  </si>
+  <si>
+    <t>PRDeleteDetail</t>
+  </si>
+  <si>
+    <t>PRReqLogSummary</t>
+  </si>
+  <si>
+    <t>PRReqLogDetail</t>
+  </si>
+  <si>
+    <t>PRSalesDetail</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>ReturnNo</t>
+  </si>
+  <si>
+    <t>ReturnType</t>
+  </si>
+  <si>
+    <t>TranType</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>PurchaseReturnReqReports</t>
+  </si>
+  <si>
+    <t>PurchaseReturnReqReports1</t>
+  </si>
+  <si>
+    <t>BrandEx</t>
+  </si>
+  <si>
+    <t>HQ0300000604</t>
+  </si>
+  <si>
+    <t>PurchaseReturnReqReports2</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>PurchaseReturnReqReports3</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>04-06-2020</t>
+  </si>
+  <si>
+    <t>04-05-2022</t>
+  </si>
+  <si>
+    <t>01-02-2022</t>
+  </si>
+  <si>
+    <t>VendorOutstanding type</t>
+  </si>
+  <si>
+    <t>VendorOutstanding</t>
+  </si>
+  <si>
+    <t>VendorPayments</t>
+  </si>
+  <si>
+    <t>CashPayments</t>
+  </si>
+  <si>
+    <t>ChequePaymentPrepared</t>
+  </si>
+  <si>
+    <t>ChequePaymentDelivered</t>
+  </si>
+  <si>
+    <t>CreditNoteList</t>
+  </si>
+  <si>
+    <t>DebitNoteList</t>
+  </si>
+  <si>
+    <t>DeletedPaymentsDetail</t>
+  </si>
+  <si>
+    <t>DeletedPaymentsSummary</t>
+  </si>
+  <si>
+    <t>DebitCreditDeleteLog</t>
+  </si>
+  <si>
+    <t>PaymentNo</t>
+  </si>
+  <si>
+    <t>BasedonCreditDays</t>
+  </si>
+  <si>
+    <t>CheckDate</t>
+  </si>
+  <si>
+    <t>VendorOutstanding1</t>
+  </si>
+  <si>
+    <t>VendorOutstanding2</t>
+  </si>
+  <si>
+    <t>VendorOutstanding3</t>
+  </si>
+  <si>
+    <t>VendorOutstanding4</t>
+  </si>
+  <si>
+    <t>HQ0618000021</t>
+  </si>
+  <si>
+    <t>04-05-2021</t>
+  </si>
+  <si>
+    <t>05-05-2022</t>
+  </si>
+  <si>
+    <t>A.K.H.TRADERS</t>
+  </si>
+  <si>
+    <t>GrnNo</t>
+  </si>
+  <si>
+    <t>InvNo</t>
+  </si>
+  <si>
+    <t>InvDate</t>
+  </si>
+  <si>
+    <t>GaNumber</t>
+  </si>
+  <si>
+    <t>GaDate</t>
+  </si>
+  <si>
+    <t>ItemDesc</t>
+  </si>
+  <si>
+    <t>GrossCost</t>
+  </si>
+  <si>
+    <t>Gst</t>
+  </si>
+  <si>
+    <t>AddCess</t>
+  </si>
+  <si>
+    <t>SpFixing</t>
+  </si>
+  <si>
+    <t>MEarned</t>
+  </si>
+  <si>
+    <t>Wuom</t>
+  </si>
+  <si>
+    <t>Luom</t>
+  </si>
+  <si>
+    <t>TotQty</t>
+  </si>
+  <si>
+    <t>GrBasic</t>
+  </si>
+  <si>
+    <t>GrCost</t>
+  </si>
+  <si>
+    <t>GrDisc</t>
+  </si>
+  <si>
+    <t>GrSchm</t>
+  </si>
+  <si>
+    <t>GrGst</t>
+  </si>
+  <si>
+    <t>GrcAmt</t>
+  </si>
+  <si>
+    <t>GrAddCess</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>GrAmt</t>
+  </si>
+  <si>
+    <t>GstA</t>
+  </si>
+  <si>
+    <t>TotalCessAmt</t>
+  </si>
+  <si>
+    <t>GstCessAmt</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>TotalPay</t>
+  </si>
+  <si>
+    <t>TRow</t>
+  </si>
+  <si>
+    <t>TQty</t>
+  </si>
+  <si>
+    <t>TBasicCost</t>
+  </si>
+  <si>
+    <t>TotDisc</t>
+  </si>
+  <si>
+    <t>TotSchmDisc</t>
+  </si>
+  <si>
+    <t>TotGrCost</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>HQ053671</t>
+  </si>
+  <si>
+    <t>DOSA TAWA RS 810</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>62.89</t>
+  </si>
+  <si>
+    <t>53.3000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>9.59</t>
+  </si>
+  <si>
+    <t>62.8900</t>
+  </si>
+  <si>
+    <t>53.30</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>251.5800</t>
+  </si>
+  <si>
+    <t>LastInQty</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>HQ04000051443</t>
+  </si>
+  <si>
+    <t>QuickSalesReport</t>
+  </si>
+  <si>
+    <t>QuickSalesReport type</t>
+  </si>
+  <si>
+    <t>CategoryWiseSales</t>
+  </si>
+  <si>
+    <t>BrandWiseSales</t>
+  </si>
+  <si>
+    <t>ClassWiseSales</t>
+  </si>
+  <si>
+    <t>ShelfWiseSale</t>
+  </si>
+  <si>
+    <t>VendorWiseSale</t>
+  </si>
+  <si>
+    <t>ItemWiseSale</t>
+  </si>
+  <si>
+    <t>InvoiceWiseSalesSummary</t>
+  </si>
+  <si>
+    <t>InvoiceWiseSalesDetail</t>
+  </si>
+  <si>
+    <t>PaymodeWiseSales</t>
+  </si>
+  <si>
+    <t>InvoiceWisePaymodeWiseSales</t>
+  </si>
+  <si>
+    <t>TotalSales</t>
+  </si>
+  <si>
+    <t>HourlySales</t>
+  </si>
+  <si>
+    <t>SessionReportOn</t>
+  </si>
+  <si>
+    <t>TerminalWiseSalesDetail</t>
+  </si>
+  <si>
+    <t>CashierandPaymodeWiseSales</t>
+  </si>
+  <si>
+    <t>SellingPriceWiseNonBatchSales</t>
+  </si>
+  <si>
+    <t>BatchWiseSales</t>
+  </si>
+  <si>
+    <t>NonBatchWiseSales</t>
+  </si>
+  <si>
+    <t>TerminalandPaymodeWiseSales</t>
+  </si>
+  <si>
+    <t>CashCounterandPaymodeSales</t>
+  </si>
+  <si>
+    <t>InvoiceWisePaymodeWiseSalesView</t>
+  </si>
+  <si>
+    <t>WeightScaleBalanceQty</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>QuickSalesReport1</t>
+  </si>
+  <si>
+    <t>QuickSalesReport2</t>
+  </si>
+  <si>
+    <t>SalesMoreReport type</t>
+  </si>
+  <si>
+    <t>HomeDeliverySalesPending</t>
+  </si>
+  <si>
+    <t>HomeDeliverySalesClosed</t>
+  </si>
+  <si>
+    <t>HomeDeliveryProcessDetail</t>
+  </si>
+  <si>
+    <t>PackageInventorySales</t>
+  </si>
+  <si>
+    <t>CashierWiseSales</t>
+  </si>
+  <si>
+    <t>SalesManWiseSales</t>
+  </si>
+  <si>
+    <t>SalesManCommission</t>
+  </si>
+  <si>
+    <t>FloorWiseSales</t>
+  </si>
+  <si>
+    <t>ChequeSales</t>
+  </si>
+  <si>
+    <t>SalesHoldBillCount</t>
+  </si>
+  <si>
+    <t>SalesPromotionItemList</t>
+  </si>
+  <si>
+    <t>TransferInandSoldQty</t>
+  </si>
+  <si>
+    <t>ParentChildSales</t>
+  </si>
+  <si>
+    <t>BillRange</t>
+  </si>
+  <si>
+    <t>PurFromDate</t>
+  </si>
+  <si>
+    <t>PurToDate</t>
+  </si>
+  <si>
+    <t>SalFromDate</t>
+  </si>
+  <si>
+    <t>SalToDate</t>
+  </si>
+  <si>
+    <t>SalesMoreReport</t>
+  </si>
+  <si>
+    <t>SalesMoreReport1</t>
+  </si>
+  <si>
+    <t>SalesMoreReport2</t>
+  </si>
+  <si>
+    <t>SalesAuditReport type</t>
+  </si>
+  <si>
+    <t>BillDiscountLog</t>
+  </si>
+  <si>
+    <t>PriceChangeLog</t>
+  </si>
+  <si>
+    <t>BillClearLog</t>
+  </si>
+  <si>
+    <t>PaymodeChangeLog</t>
+  </si>
+  <si>
+    <t>ItemCancelLog</t>
+  </si>
+  <si>
+    <t>ModuleWiseReports</t>
+  </si>
+  <si>
+    <t>BrandWiseSalesDiscount</t>
+  </si>
+  <si>
+    <t>DepartmentWiseSalesDiscount</t>
+  </si>
+  <si>
+    <t>CategoryWiseSalesDiscount</t>
+  </si>
+  <si>
+    <t>BreakPriceSalesDiscount</t>
+  </si>
+  <si>
+    <t>PriceChangeSalesDiscount</t>
+  </si>
+  <si>
+    <t>PromotionWiseDiscount</t>
+  </si>
+  <si>
+    <t>PosActivityLog</t>
+  </si>
+  <si>
+    <t>SalesAuditReport</t>
+  </si>
+  <si>
+    <t>SalesAuditReport1</t>
+  </si>
+  <si>
+    <t>CreditandDueSaleReport type</t>
+  </si>
+  <si>
+    <t>CustomerOutstanding</t>
+  </si>
+  <si>
+    <t>CreditandDueSaleReport</t>
+  </si>
+  <si>
+    <t>CreditLimitExceed</t>
+  </si>
+  <si>
+    <t>CreditDaysExceed</t>
+  </si>
+  <si>
+    <t>CustomerReceipt</t>
+  </si>
+  <si>
+    <t>CustomerReceiptDelete</t>
+  </si>
+  <si>
+    <t>CustomerWiseDueSales</t>
+  </si>
+  <si>
+    <t>DueSalesPending</t>
+  </si>
+  <si>
+    <t>DueSalesPartiallyPending</t>
+  </si>
+  <si>
+    <t>DueSalesClosed</t>
+  </si>
+  <si>
+    <t>DueReceipt</t>
+  </si>
+  <si>
+    <t>CreditSalesZone</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>ReceiptNo</t>
+  </si>
+  <si>
+    <t>UnPaid</t>
+  </si>
+  <si>
+    <t>CreditandDueSaleReport1</t>
+  </si>
+  <si>
+    <t>ALEEM SIR</t>
+  </si>
+  <si>
+    <t>BO0000827</t>
+  </si>
+  <si>
+    <t>SalesReturnReport type</t>
+  </si>
+  <si>
+    <t>SalesRefundCash</t>
+  </si>
+  <si>
+    <t>SalesRefundExchangeVoucher</t>
+  </si>
+  <si>
+    <t>ExchangeVoucherUnUsed</t>
+  </si>
+  <si>
+    <t>ExchangeVoucherUsed</t>
+  </si>
+  <si>
+    <t>ExchangeVoucherExpired</t>
+  </si>
+  <si>
+    <t>TradeUnusedList</t>
+  </si>
+  <si>
+    <t>TradeUsedList</t>
+  </si>
+  <si>
+    <t>TradeDeletedlist</t>
+  </si>
+  <si>
+    <t>ExchangeItems</t>
+  </si>
+  <si>
+    <t>SalesReturnReport</t>
+  </si>
+  <si>
+    <t>SalesReturnReport1</t>
+  </si>
+  <si>
+    <t>MemberWiseSales type</t>
+  </si>
+  <si>
+    <t>MemberPoints</t>
+  </si>
+  <si>
+    <t>MemberPointsAdj</t>
+  </si>
+  <si>
+    <t>MemberSalesSummary</t>
+  </si>
+  <si>
+    <t>MemberSalesDetail</t>
+  </si>
+  <si>
+    <t>MemberSalesWithItems</t>
+  </si>
+  <si>
+    <t>MemberSalesZone</t>
+  </si>
+  <si>
+    <t>MemberSalesLevel</t>
+  </si>
+  <si>
+    <t>MemberCount</t>
+  </si>
+  <si>
+    <t>MemberChangeByInvoice</t>
+  </si>
+  <si>
+    <t>MemberSalesComparision</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>NonVisitor</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>MemberWiseSales</t>
+  </si>
+  <si>
+    <t>MemberWiseSales1</t>
+  </si>
+  <si>
+    <t>customer card</t>
+  </si>
+  <si>
+    <t>10000 - 25000</t>
+  </si>
+  <si>
+    <t>MemberWiseSales2</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>MemberWiseSales3</t>
+  </si>
+  <si>
+    <t>MemberWiseSales4</t>
+  </si>
+  <si>
+    <t>MemberWiseSales5</t>
+  </si>
+  <si>
+    <t>LocationWiseItemWiseSales type</t>
+  </si>
+  <si>
+    <t>LocationWiseItemWiseSales</t>
+  </si>
+  <si>
+    <t>LocationWiseItemWiseSales1</t>
+  </si>
+  <si>
+    <t>02-020-2021</t>
+  </si>
+  <si>
+    <t>02-020-2022</t>
+  </si>
+  <si>
+    <t>PreSalesReport type</t>
+  </si>
+  <si>
+    <t>SalesEstimationClosed</t>
+  </si>
+  <si>
+    <t>SalesEstimationCancel</t>
+  </si>
+  <si>
+    <t>SalesOrderPending</t>
+  </si>
+  <si>
+    <t>SalesOrderClosed</t>
+  </si>
+  <si>
+    <t>SalesorderCancel</t>
+  </si>
+  <si>
+    <t>MobileOrderPending</t>
+  </si>
+  <si>
+    <t>MobileOrderClosed</t>
+  </si>
+  <si>
+    <t>MobileOrderCancel</t>
+  </si>
+  <si>
+    <t>PreSalesReport</t>
+  </si>
+  <si>
+    <t>PreSalesReport1</t>
+  </si>
+  <si>
+    <t>LocationWiseSalesReport type</t>
+  </si>
+  <si>
+    <t>DepartmentWiseSales</t>
+  </si>
+  <si>
+    <t>ClassWiseSale</t>
+  </si>
+  <si>
+    <t>ItemWiseSales</t>
+  </si>
+  <si>
+    <t>LocationWisesalesAll</t>
+  </si>
+  <si>
+    <t>LocationWiseStock</t>
+  </si>
+  <si>
+    <t>DateWise</t>
+  </si>
+  <si>
+    <t>MonthWise</t>
+  </si>
+  <si>
+    <t>LocationWiseSalesReport</t>
+  </si>
+  <si>
+    <t>Dept Wise</t>
+  </si>
+  <si>
+    <t>VOO246</t>
+  </si>
+  <si>
+    <t>LocationWiseSalesReport1</t>
+  </si>
+  <si>
+    <t>LocationWiseSalesReport2</t>
+  </si>
+  <si>
+    <t>000202</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>PromotionReports type</t>
+  </si>
+  <si>
+    <t>FreeItemSale</t>
+  </si>
+  <si>
+    <t>CouponIssuedList</t>
+  </si>
+  <si>
+    <t>DiscountCouponUsedList</t>
+  </si>
+  <si>
+    <t>DiscountCouponExpiredList</t>
+  </si>
+  <si>
+    <t>CoupenUnusedList</t>
+  </si>
+  <si>
+    <t>DuplicateCouponReprint</t>
+  </si>
+  <si>
+    <t>DiscountPromotionList</t>
+  </si>
+  <si>
+    <t>FreePromotionList</t>
+  </si>
+  <si>
+    <t>PromotionMaster</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>CurrentDate</t>
+  </si>
+  <si>
+    <t>Revoke</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>PromotionExpired</t>
+  </si>
+  <si>
+    <t>PromotionReports</t>
+  </si>
+  <si>
+    <t>PromotionReports1</t>
+  </si>
+  <si>
+    <t>05-06-2021</t>
+  </si>
+  <si>
+    <t>06-04-2022</t>
+  </si>
+  <si>
+    <t>StockReports</t>
+  </si>
+  <si>
+    <t>StockReports type</t>
+  </si>
+  <si>
+    <t>BatchWise</t>
+  </si>
+  <si>
+    <t>StockAdjSummary</t>
+  </si>
+  <si>
+    <t>StockAdjDetail</t>
+  </si>
+  <si>
+    <t>StockAdjCancelled</t>
+  </si>
+  <si>
+    <t>NonBatchWiseStock</t>
+  </si>
+  <si>
+    <t>NonMovingItem</t>
+  </si>
+  <si>
+    <t>DistributionSummary</t>
+  </si>
+  <si>
+    <t>DistributionDetailed</t>
+  </si>
+  <si>
+    <t>DistributionDeleted</t>
+  </si>
+  <si>
+    <t>BinBasedSummary</t>
+  </si>
+  <si>
+    <t>RefillingQtyDetail</t>
+  </si>
+  <si>
+    <t>RefillingReport</t>
+  </si>
+  <si>
+    <t>MinReorderLevelQty</t>
+  </si>
+  <si>
+    <t>StyleCodeReport</t>
+  </si>
+  <si>
+    <t>StockAdjNo</t>
+  </si>
+  <si>
+    <t>StockAdjType</t>
+  </si>
+  <si>
+    <t>StockTakeId</t>
+  </si>
+  <si>
+    <t>DistributionNo</t>
+  </si>
+  <si>
+    <t>BillNo</t>
+  </si>
+  <si>
+    <t>BinNo</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>ZeroStock</t>
+  </si>
+  <si>
+    <t>Grouped</t>
+  </si>
+  <si>
+    <t>SortByCode</t>
+  </si>
+  <si>
+    <t>SortByNAme</t>
+  </si>
+  <si>
+    <t>BatchOnly</t>
+  </si>
+  <si>
+    <t>10-04-2020</t>
+  </si>
+  <si>
+    <t>10-04-2022</t>
+  </si>
+  <si>
+    <t>StockReports1</t>
+  </si>
+  <si>
+    <t>SettlementReports</t>
+  </si>
+  <si>
+    <t>SettlementReports type</t>
+  </si>
+  <si>
+    <t>CashierWise</t>
+  </si>
+  <si>
+    <t>DenominationWise</t>
+  </si>
+  <si>
+    <t>TerminalandCashierWise</t>
+  </si>
+  <si>
+    <t>04-04-2022</t>
+  </si>
+  <si>
+    <t>SettlementReports1</t>
+  </si>
+  <si>
+    <t>InventoryList</t>
+  </si>
+  <si>
+    <t>InventoryList type</t>
+  </si>
+  <si>
+    <t>CompleteInfo</t>
+  </si>
+  <si>
+    <t>ItemWise</t>
+  </si>
+  <si>
+    <t>MarginNotSet</t>
+  </si>
+  <si>
+    <t>BarcodeWise</t>
+  </si>
+  <si>
+    <t>BreakQty</t>
+  </si>
+  <si>
+    <t>DeActrivateItem</t>
+  </si>
+  <si>
+    <t>DeactivateBatch</t>
+  </si>
+  <si>
+    <t>ItemNameChangeLog</t>
+  </si>
+  <si>
+    <t>PriceChange</t>
+  </si>
+  <si>
+    <t>BatchWiseInventory</t>
+  </si>
+  <si>
+    <t>ActivePromotion</t>
+  </si>
+  <si>
+    <t>ActivePromotionPrice</t>
+  </si>
+  <si>
+    <t>ActivePromotionFree</t>
+  </si>
+  <si>
+    <t>ExpiredItem</t>
+  </si>
+  <si>
+    <t>ParentChild</t>
+  </si>
+  <si>
+    <t>Batchcount</t>
+  </si>
+  <si>
+    <t>InventoryList1</t>
+  </si>
+  <si>
+    <t>InventoryList2</t>
+  </si>
+  <si>
+    <t>28-05-2022</t>
+  </si>
+  <si>
+    <t>CustomerReceiptReport type</t>
+  </si>
+  <si>
+    <t>CreditCustomerOutstanding</t>
+  </si>
+  <si>
+    <t>CreditChequePayment</t>
+  </si>
+  <si>
+    <t>CustomerWiseAging</t>
+  </si>
+  <si>
+    <t>ReceiptDelete</t>
+  </si>
+  <si>
+    <t>MemberTybe</t>
+  </si>
+  <si>
+    <t>CustomerReceiptReport</t>
+  </si>
+  <si>
+    <t>CustomerReceiptReport1</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>LocationDueReceipt type</t>
+  </si>
+  <si>
+    <t>ConsolidatedSettlemntLoc</t>
+  </si>
+  <si>
+    <t>CsettlementDate</t>
+  </si>
+  <si>
+    <t>PoandGidCostChange</t>
+  </si>
+  <si>
+    <t>PriceChangeReportInPos</t>
+  </si>
+  <si>
+    <t>DiscountReportInPos</t>
+  </si>
+  <si>
+    <t>SettlementDiscrepencyPos</t>
+  </si>
+  <si>
+    <t>VoucherClaim</t>
+  </si>
+  <si>
+    <t>PaymentandReceipt</t>
+  </si>
+  <si>
+    <t>vendors</t>
+  </si>
+  <si>
+    <t>LocationDueReceipt</t>
+  </si>
+  <si>
+    <t>LocationDueReceipt1</t>
+  </si>
+  <si>
+    <t>LocationDueReceipt2</t>
+  </si>
+  <si>
+    <t>TransferReport type</t>
+  </si>
+  <si>
+    <t>FromLocation</t>
+  </si>
+  <si>
+    <t>ToLocation</t>
+  </si>
+  <si>
+    <t>SectionWiseTransferReport</t>
+  </si>
+  <si>
+    <t>VehicleWise</t>
+  </si>
+  <si>
+    <t>RevokedTransfer</t>
+  </si>
+  <si>
+    <t>NotTransferdInventory</t>
+  </si>
+  <si>
+    <t>ItemWiseTransferOut</t>
+  </si>
+  <si>
+    <t>ClassWiseTransferOut</t>
+  </si>
+  <si>
+    <t>SubClassWiseTransferOut</t>
+  </si>
+  <si>
+    <t>TranseferOutLog</t>
+  </si>
+  <si>
+    <t>PartiallyTransferIn</t>
+  </si>
+  <si>
+    <t>TransferType</t>
+  </si>
+  <si>
+    <t>TransferReport</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>AttributeReport type</t>
+  </si>
+  <si>
+    <t>BatchWiseStock</t>
+  </si>
+  <si>
+    <t>PurchaseReport</t>
+  </si>
+  <si>
+    <t>ItemWisePurchaseReport</t>
+  </si>
+  <si>
+    <t>SalesReport</t>
+  </si>
+  <si>
+    <t>ItemWiseSalesReport</t>
+  </si>
+  <si>
+    <t>Cloth</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>AttributeReport</t>
+  </si>
+  <si>
+    <t>COTTON</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>FORMAL</t>
+  </si>
+  <si>
+    <t>CALLOR</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>CROSS BUTTON</t>
+  </si>
+  <si>
+    <t>AttributeReport1</t>
+  </si>
+  <si>
+    <t>AttributeReport2</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>StockAgingReport</t>
+  </si>
+  <si>
+    <t>StockAgingReport type</t>
+  </si>
+  <si>
+    <t>BrandCode</t>
+  </si>
+  <si>
+    <t>TransferStatusQuery</t>
+  </si>
+  <si>
+    <t>TransferStatusQuery type</t>
+  </si>
+  <si>
+    <t>TransferStatusQuery1</t>
+  </si>
+  <si>
+    <t>HQ1000000091 -859615</t>
   </si>
 </sst>
 </file>
@@ -5341,7 +6757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -5379,6 +6795,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5720,7 +7137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="BY24" sqref="BY24"/>
     </sheetView>
   </sheetViews>
@@ -8933,6 +10350,1552 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3757D-8FA4-BA43-914B-0EFB1B581D43}">
+  <dimension ref="A1:BC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.6640625" customWidth="1"/>
+    <col min="51" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>2028</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E959F2D-E5B3-5349-AF36-C52344CD8BAB}">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2049</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2051</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>2052</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2053</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>2054</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>2055</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>2056</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>2057</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>2058</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>2060</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2061</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="16">
+      <c r="A4" s="15" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0446C8A0-4710-364C-B0FF-DD57D3BA96A0}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J1" t="s">
+        <v>818</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1C3AA-8BEE-014F-82EA-2C9AE665DB8E}">
+  <dimension ref="A1:AO6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="V1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>817</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>8829</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="X5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCA097D-B088-B04C-9FF0-842C883E84AD}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J1" t="s">
+        <v>818</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>693</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C1C03-5780-CC40-9519-50BC1AF79532}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2B2BF2-957F-0B46-8DF6-3331B09B31F0}">
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U1" t="s">
+        <v>817</v>
+      </c>
+      <c r="V1" t="s">
+        <v>818</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R3" t="s">
+        <v>653</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="R4" t="s">
+        <v>653</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R5" t="s">
+        <v>653</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7286C868-B30A-6C4F-B85B-94C6401F333C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
@@ -9017,81 +11980,541 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C1C03-5780-CC40-9519-50BC1AF79532}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF686B70-2472-3642-BB9C-547A439AE1A6}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>1666</v>
+        <v>1755</v>
       </c>
       <c r="B1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>1121</v>
       </c>
+      <c r="N1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="R1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S1" t="s">
+        <v>818</v>
+      </c>
+      <c r="T1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="O6" t="s">
+        <v>992</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F6C2AA-769B-5D4B-BC9D-1D2C1CF24814}">
+  <dimension ref="A1:AU4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1831</v>
+      </c>
       <c r="C1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>899</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AN1" t="s">
         <v>817</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AO1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16">
+      <c r="AP1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="16">
       <c r="A2" s="15" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>855814</v>
+      </c>
+      <c r="Y3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Z3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AD3" t="s">
         <v>1659</v>
       </c>
-      <c r="D2" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1663</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>1400</v>
+      <c r="AE3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ3">
+        <v>250</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>44229</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AN4" s="27">
+        <v>44229</v>
+      </c>
+      <c r="AO4" s="27">
+        <v>44594</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9138,6 +12561,1768 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8F38D3-2A7D-534F-85EC-63E537C74594}">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="X3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" s="27">
+        <v>44197</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>44562</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>44197</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>44352</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>44715</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43878D-AF02-7545-8528-EE9E2F8112FA}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="P1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>818</v>
+      </c>
+      <c r="R1" t="s">
+        <v>693</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27">
+        <v>44336</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="P3" s="27">
+        <v>44336</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>44709</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA9ED2E-C753-C24E-B20D-DA0EA8EAFE5D}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>660</v>
+      </c>
+      <c r="R1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S1" t="s">
+        <v>818</v>
+      </c>
+      <c r="T1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="X1" t="s">
+        <v>981</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R3" s="27">
+        <v>44229</v>
+      </c>
+      <c r="S3" s="27">
+        <v>44594</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13C5C06-D910-9B4F-A941-3ED46CC497E9}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="O1" t="s">
+        <v>817</v>
+      </c>
+      <c r="P1" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>693</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U1" t="s">
+        <v>981</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="27">
+        <v>44229</v>
+      </c>
+      <c r="P2" s="27">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="O3" s="27">
+        <v>44229</v>
+      </c>
+      <c r="P3" s="27">
+        <v>44594</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589F4FAF-6DC0-4A49-B8DC-16F3730D9DAE}">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="R1" t="s">
+        <v>660</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="T1" t="s">
+        <v>817</v>
+      </c>
+      <c r="U1" t="s">
+        <v>818</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="T2" s="27">
+        <v>44229</v>
+      </c>
+      <c r="U2" s="27">
+        <v>44594</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="O3">
+        <v>8022258991</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="T3" s="27">
+        <v>44229</v>
+      </c>
+      <c r="U3" s="27">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="O4">
+        <v>8022258991</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="T4" s="27">
+        <v>44229</v>
+      </c>
+      <c r="U4" s="27">
+        <v>44594</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="T5" s="27">
+        <v>44229</v>
+      </c>
+      <c r="U5" s="27">
+        <v>44594</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O7">
+        <v>8022258991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473043F6-7556-F949-AEA9-B748A27941CA}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I2">
+        <v>855814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I3">
+        <v>855814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F8D209-FD59-0540-AC8F-392AB889F62C}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="N1" t="s">
+        <v>817</v>
+      </c>
+      <c r="O1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="27">
+        <v>44352</v>
+      </c>
+      <c r="O2" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N3" s="27">
+        <v>44352</v>
+      </c>
+      <c r="O3" s="27">
+        <v>44628</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4601B11F-F9D1-2943-A44A-1C9D0795D0CC}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>817</v>
+      </c>
+      <c r="R1" t="s">
+        <v>818</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>43987</v>
+      </c>
+      <c r="R2" s="27">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>43987</v>
+      </c>
+      <c r="R3" s="27">
+        <v>44686</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="O4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68942335-92C8-DD49-AED0-86FB05990CE3}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="T3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="V4" t="s">
+        <v>667</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A96128-6CF5-BA47-86A5-8B3606DD5758}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9271,6 +14456,941 @@
     </row>
     <row r="12" spans="1:17">
       <c r="M12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05DA157-19E6-2747-A635-ED340C7C36BA}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K1" t="s">
+        <v>817</v>
+      </c>
+      <c r="L1" t="s">
+        <v>818</v>
+      </c>
+      <c r="M1" t="s">
+        <v>693</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27">
+        <v>44290</v>
+      </c>
+      <c r="L2" s="27">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E4F775-068C-824F-994E-FAD81B63FEAC}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="N1" t="s">
+        <v>817</v>
+      </c>
+      <c r="O1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="T1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>667</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N3" s="27">
+        <v>44292</v>
+      </c>
+      <c r="O3" s="27">
+        <v>44645</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="27">
+        <v>44292</v>
+      </c>
+      <c r="O4" s="27">
+        <v>44645</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E7EEA4-2368-F744-B650-FA2FAB702C2D}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2" s="27">
+        <v>43984</v>
+      </c>
+      <c r="C2" s="27">
+        <v>44714</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>619</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="X2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Z2">
+        <v>202</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59670A-DE0D-6A43-8158-29BDAFB1DE5D}">
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>818</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="X2">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="M3">
+        <v>202</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="27">
+        <v>44306</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>44696</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551BE9C7-D060-984A-B62F-D0E555B5018D}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H2">
+        <v>318100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AEE857-6C89-E548-BAA0-FCC4FFF6D48A}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K2">
+        <v>105</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16269,10 +22389,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:BQ201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -16281,9 +22401,27 @@
     <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.1640625" style="7" collapsed="1"/>
     <col min="20" max="20" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16">
+    <row r="1" spans="1:69" ht="16">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -16359,8 +22497,140 @@
       <c r="Y1" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>1793</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>1795</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>1796</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>1798</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>1799</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>1800</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>1801</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>1803</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>1804</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>1805</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>1809</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" ht="16">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -16376,11 +22646,11 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>69</v>
-      </c>
-      <c r="H2">
-        <v>53.3</v>
+      <c r="G2" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1822</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -16394,8 +22664,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>69</v>
+      <c r="M2" s="7" t="s">
+        <v>1823</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -16403,18 +22673,153 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>69</v>
-      </c>
-      <c r="R2">
-        <v>69</v>
-      </c>
-      <c r="S2">
-        <v>69</v>
+      <c r="Q2" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>1823</v>
       </c>
       <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AB2">
+        <v>342</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AQ2" s="33" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>1817</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -16465,7 +22870,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:69">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -16516,7 +22921,7 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:69">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -16565,8 +22970,9 @@
       <c r="S5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:69">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -16616,7 +23022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:69">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -16666,7 +23072,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:69">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -16716,7 +23122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:69">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -16766,7 +23172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:69">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -16816,7 +23222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:69">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -16866,7 +23272,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:69">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -16916,7 +23322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:69">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -16966,7 +23372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:69">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -17016,7 +23422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:69">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -17066,7 +23472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:69">
       <c r="A16" t="s">
         <v>204</v>
       </c>

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33201F77-E59D-A842-8673-7B9C1CC826CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6361B2-52FA-7843-81E8-2883DEF129C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" firstSheet="129" activeTab="137" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,9 @@
     <sheet name="AttributeReport" sheetId="139" r:id="rId133"/>
     <sheet name="StockAgingReport" sheetId="140" r:id="rId134"/>
     <sheet name="TransferStatusQuery" sheetId="141" r:id="rId135"/>
+    <sheet name="StockAllocation" sheetId="142" r:id="rId136"/>
+    <sheet name="TansferPaymentReport" sheetId="143" r:id="rId137"/>
+    <sheet name="UserMaster" sheetId="144" r:id="rId138"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GRNcreate!$A$1:$X$51</definedName>
@@ -162,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="2179">
   <si>
     <t>PriceType</t>
   </si>
@@ -6556,6 +6559,150 @@
   </si>
   <si>
     <t>HQ1000000091 -859615</t>
+  </si>
+  <si>
+    <t>StockAllocation</t>
+  </si>
+  <si>
+    <t>StockAllocation type</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>GrnOnly</t>
+  </si>
+  <si>
+    <t>AutoPo</t>
+  </si>
+  <si>
+    <t>16-06-2020</t>
+  </si>
+  <si>
+    <t>SalesBase</t>
+  </si>
+  <si>
+    <t>StockAllocation1</t>
+  </si>
+  <si>
+    <t>PurchasedMargin</t>
+  </si>
+  <si>
+    <t>Lesser</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>MarginRange</t>
+  </si>
+  <si>
+    <t>TansferPaymentReport</t>
+  </si>
+  <si>
+    <t>TansferPaymentReport type</t>
+  </si>
+  <si>
+    <t>GoodReceiveSummary</t>
+  </si>
+  <si>
+    <t>GoodReceiveSupplierWise</t>
+  </si>
+  <si>
+    <t>GoodReceivePackageWise</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>PayType</t>
+  </si>
+  <si>
+    <t>LRNO</t>
+  </si>
+  <si>
+    <t>LRDATE</t>
+  </si>
+  <si>
+    <t>LRDate</t>
+  </si>
+  <si>
+    <t>ToPay</t>
+  </si>
+  <si>
+    <t>16-04-2022</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>26-04-2022</t>
+  </si>
+  <si>
+    <t>TansferPaymentReport1</t>
+  </si>
+  <si>
+    <t>TansferPaymentReport2</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>16-06-2022</t>
+  </si>
+  <si>
+    <t>26-02-2022</t>
+  </si>
+  <si>
+    <t>30-04-2022</t>
+  </si>
+  <si>
+    <t>UserMaster</t>
+  </si>
+  <si>
+    <t>UserMaster type</t>
+  </si>
+  <si>
+    <t>UserCode</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>LoginName</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>ExpiryDays</t>
+  </si>
+  <si>
+    <t>UserLevel</t>
+  </si>
+  <si>
+    <t>AuthenticationPassWord</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>UserMaster1</t>
+  </si>
+  <si>
+    <t>CASHIER</t>
+  </si>
+  <si>
+    <t>ups@123</t>
   </si>
 </sst>
 </file>
@@ -7137,7 +7284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="BY24" sqref="BY24"/>
     </sheetView>
   </sheetViews>
@@ -9406,16 +9553,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
@@ -9580,23 +9727,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16">
@@ -9772,11 +9919,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -9871,8 +10018,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -9916,7 +10063,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -9967,8 +10114,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
@@ -10026,7 +10173,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -10072,8 +10219,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -10125,7 +10272,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -10165,11 +10312,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16">
@@ -10359,40 +10506,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.6640625" customWidth="1"/>
-    <col min="51" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="51" max="52" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="54" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16">
@@ -10700,34 +10847,34 @@
   <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16">
@@ -10881,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -10976,6 +11123,9 @@
     <row r="4" spans="1:41" ht="16">
       <c r="A4" s="15" t="s">
         <v>2062</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="AK4" s="7" t="s">
         <v>1710</v>
@@ -11005,7 +11155,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11098,7 +11248,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -11434,7 +11584,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11606,7 +11756,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11688,7 +11838,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -11905,7 +12055,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11990,7 +12140,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -12215,7 +12365,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="16">
@@ -12574,7 +12724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -12861,7 +13011,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -13014,7 +13164,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -13185,7 +13335,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -13350,7 +13500,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -13613,8 +13763,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13713,7 +13863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -13854,7 +14004,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -14030,7 +14180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -14251,10 +14401,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -14472,7 +14622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -14592,7 +14742,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -14762,7 +14912,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -14952,7 +15102,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -15143,8 +15293,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16">
@@ -15300,12 +15450,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16">
@@ -15393,6 +15543,365 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD681E1-8D18-0D4C-A5E8-15EE4CCA1A06}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD75958-605C-0649-B106-01E3174B1C6B}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16">
+      <c r="A4" s="15" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83C342-7017-6744-A430-A16B8D6770AC}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="15" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="15" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="L2">
+        <v>8756767456</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="15" t="s">
+        <v>2176</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{0F8BFEF5-48EF-9D42-BF9A-D38DAAEA1400}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{29A97D93-F0F6-0543-B09D-BA77022BCC40}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{D0D2CEC5-C572-5548-8349-32093386FBBC}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{3BA19220-C788-504B-A922-4CC51EF61618}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15896,7 +16405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AML19"/>
+  <dimension ref="A1:AML23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -16016,18 +16525,38 @@
         <v>773</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="4:8">
       <c r="H17" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="4:8">
       <c r="H18" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="4:8">
       <c r="H19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="H20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="H22" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" t="s">
         <v>773</v>
       </c>
     </row>
@@ -19677,11 +20206,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -20281,7 +20810,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22401,24 +22930,24 @@
     <col min="3" max="3" width="12.83203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.1640625" style="7" collapsed="1"/>
     <col min="20" max="20" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="32" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="63" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="16">
@@ -34664,7 +35193,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -34673,10 +35202,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -35140,7 +35669,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F10D54-63E9-8A41-8699-9F17DF9E5C14}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -35293,6 +35822,26 @@
     </row>
     <row r="8" spans="1:17">
       <c r="Q8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="Q9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="Q10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="Q11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="Q12" t="s">
         <v>773</v>
       </c>
     </row>
@@ -35948,7 +36497,7 @@
     <col min="1" max="1" width="18.5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
@@ -36291,7 +36840,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -36347,20 +36896,24 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0C11F-4568-0E4D-8D19-9D14B4EEB3EA}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
+    <row r="1" spans="1:19" ht="16">
       <c r="A1" s="15" t="s">
         <v>1498</v>
       </c>
@@ -36395,35 +36948,53 @@
         <v>21</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>2139</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1497</v>
       </c>
       <c r="J2">
         <v>510000</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>1513</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36442,13 +37013,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
@@ -36651,18 +37222,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16">
@@ -36833,13 +37404,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
@@ -36977,23 +37548,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="8"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.83203125" style="8" collapsed="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">

--- a/testdata/sample inventory all.xlsx
+++ b/testdata/sample inventory all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpc/Documents/GitHub/GopiTesting/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C9701-13D8-AC4C-9A5C-9C33249E73DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CBACE5-4327-694D-A690-903A3EAA2C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="500" firstSheet="83" activeTab="86" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" firstSheet="83" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="2948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6914" uniqueCount="2991">
   <si>
     <t>PriceType</t>
   </si>
@@ -9010,6 +9010,135 @@
   </si>
   <si>
     <t>UPS</t>
+  </si>
+  <si>
+    <t>Bin1</t>
+  </si>
+  <si>
+    <t>Bin2</t>
+  </si>
+  <si>
+    <t>Bin3</t>
+  </si>
+  <si>
+    <t>Bin4</t>
+  </si>
+  <si>
+    <t>Bin5</t>
+  </si>
+  <si>
+    <t>Bin6</t>
+  </si>
+  <si>
+    <t>Bin7</t>
+  </si>
+  <si>
+    <t>Bin8</t>
+  </si>
+  <si>
+    <t>Bin9</t>
+  </si>
+  <si>
+    <t>Bin10</t>
+  </si>
+  <si>
+    <t>a@vr</t>
+  </si>
+  <si>
+    <t>NM@123</t>
+  </si>
+  <si>
+    <t>Shelf1</t>
+  </si>
+  <si>
+    <t>Shelf2</t>
+  </si>
+  <si>
+    <t>Shelf3</t>
+  </si>
+  <si>
+    <t>Shelf4</t>
+  </si>
+  <si>
+    <t>Shelf5</t>
+  </si>
+  <si>
+    <t>Shelf6</t>
+  </si>
+  <si>
+    <t>Shelf7</t>
+  </si>
+  <si>
+    <t>Shelf8</t>
+  </si>
+  <si>
+    <t>Shelf9</t>
+  </si>
+  <si>
+    <t>Shelf10</t>
+  </si>
+  <si>
+    <t>a@123</t>
+  </si>
+  <si>
+    <t>CN//123</t>
+  </si>
+  <si>
+    <t>KNR</t>
+  </si>
+  <si>
+    <t>SHELFEX</t>
+  </si>
+  <si>
+    <t>BRSC</t>
+  </si>
+  <si>
+    <t>Warehouse1</t>
+  </si>
+  <si>
+    <t>Warehouse2</t>
+  </si>
+  <si>
+    <t>Warehouse3</t>
+  </si>
+  <si>
+    <t>Warehouse4</t>
+  </si>
+  <si>
+    <t>Warehouse5</t>
+  </si>
+  <si>
+    <t>Warehouse6</t>
+  </si>
+  <si>
+    <t>Warehouse7</t>
+  </si>
+  <si>
+    <t>Warehouse8</t>
+  </si>
+  <si>
+    <t>Warehouse9</t>
+  </si>
+  <si>
+    <t>Warehouse10</t>
+  </si>
+  <si>
+    <t>WE/12</t>
+  </si>
+  <si>
+    <t>//A</t>
+  </si>
+  <si>
+    <t>Warehouseex</t>
+  </si>
+  <si>
+    <t>warehouseex</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>!@#</t>
   </si>
 </sst>
 </file>
@@ -50010,8 +50139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CAF18-B85E-4E41-8B37-21F172D1F758}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50196,10 +50325,10 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ACEBD-185B-0147-9643-595CDDC1C30F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50232,8 +50361,153 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B6">
+        <v>345</v>
+      </c>
+      <c r="C6">
+        <v>345</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B10">
+        <v>12345</v>
+      </c>
+      <c r="C10">
+        <v>12345</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{7F0F723F-1C92-FC43-92DB-989ABDEA5E9E}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{423BFE12-16A8-4640-8C25-27222D344C28}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{53678A52-E8D4-9A44-9977-ED7034D75D72}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{5C407011-1B0A-3F4C-BEA7-743A84B5DDF3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -50445,10 +50719,10 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726851E8-1F44-A846-85EF-555E6FAC0778}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50475,17 +50749,133 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2974</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{3DEF9AC9-880A-C148-A871-1F6C2F2E91D3}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{AD6B00A5-2FB1-4849-AA3A-6BE0C7A121F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F9FE5-7ED1-8A4D-8545-5547782382BF}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50493,6 +50883,7 @@
     <col min="1" max="1" width="18.5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -50572,8 +50963,363 @@
         <v>657</v>
       </c>
     </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>123</v>
+      </c>
+      <c r="H5">
+        <v>876876865678</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8248656395</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2989</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L10" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>2990</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="K14" s="32"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{E85E4317-6C30-DB4D-A13C-71D5E7424909}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{31E95911-F222-7048-A690-C5CE378594B4}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{FBD54AEA-466F-5E4A-977E-81AE94238089}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{07F04524-D10F-9347-A7B1-713A1C84C2C2}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{14B9828C-84E9-5C4D-9397-D49148944AC0}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{A0E4C3FC-7EEE-5D4E-AA84-A65A6EBAD482}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{B80CDBC0-15A7-B54E-8552-603676BB416D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
